--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="2425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="2448">
   <si>
     <t>题型</t>
   </si>
@@ -7352,6 +7352,75 @@
   </si>
   <si>
     <t>您一共做了: 6题	您的得分： 83.33333333333334	做题时长约为1.4333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 29题	您的得分： 89.65517241379311	做题时长约为283.9166666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 66.66666666666666	做题时长约为0.26666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 15题	您的得分： 86.66666666666667	做题时长约为1.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 26题	您的得分： 80.76923076923077	做题时长约为5.533333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 10题	您的得分： 80.0	做题时长约为0.95Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 87.5	做题时长约为1.2666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 50.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.13333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.21666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.25Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 6题	您的得分： 100.0	做题时长约为1.0666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为0.45Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 11题	您的得分： 100.0	做题时长约为1.9666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 77.77777777777779	做题时长约为1.1Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.9166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.3333333333333333Min</t>
   </si>
 </sst>
 </file>
@@ -7995,7 +8064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="979">
+  <cellXfs count="1154">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -8939,6 +9008,181 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10867,6 +11111,9 @@
       <c r="T44" t="n">
         <v>1.72155531616E12</v>
       </c>
+      <c r="AA44" t="s">
+        <v>2425</v>
+      </c>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="1">
@@ -10899,6 +11146,9 @@
       <c r="T45" t="n">
         <v>1.721555317808E12</v>
       </c>
+      <c r="AA45" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="1">
@@ -10931,6 +11181,9 @@
       <c r="T46" t="n">
         <v>1.721555324298E12</v>
       </c>
+      <c r="AA46" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="1">
@@ -10963,6 +11216,9 @@
       <c r="T47" t="n">
         <v>1.721555331822E12</v>
       </c>
+      <c r="AA47" t="s">
+        <v>2426</v>
+      </c>
     </row>
     <row r="48" spans="1:20">
       <c r="A48" s="1">
@@ -10995,6 +11251,9 @@
       <c r="T48" t="n">
         <v>1.721555335684E12</v>
       </c>
+      <c r="AA48" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1">
@@ -11027,6 +11286,9 @@
       <c r="T49" t="n">
         <v>1.721555345112E12</v>
       </c>
+      <c r="AA49" t="s">
+        <v>2427</v>
+      </c>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="1">
@@ -11059,6 +11321,9 @@
       <c r="T50" t="n">
         <v>1.721555349636E12</v>
       </c>
+      <c r="AA50" t="s">
+        <v>2428</v>
+      </c>
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="1">
@@ -11091,6 +11356,9 @@
       <c r="T51" t="n">
         <v>1.721555354004E12</v>
       </c>
+      <c r="AA51" t="s">
+        <v>2429</v>
+      </c>
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="1">
@@ -11123,6 +11391,9 @@
       <c r="T52" t="n">
         <v>1.721555355583E12</v>
       </c>
+      <c r="AA52" t="s">
+        <v>2430</v>
+      </c>
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="1">
@@ -11155,6 +11426,9 @@
       <c r="T53" t="n">
         <v>1.721555357415E12</v>
       </c>
+      <c r="AA53" t="s">
+        <v>2431</v>
+      </c>
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="1">
@@ -11187,6 +11461,9 @@
       <c r="T54" t="n">
         <v>1.721555362907E12</v>
       </c>
+      <c r="AA54" t="s">
+        <v>2432</v>
+      </c>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1">
@@ -11219,6 +11496,9 @@
       <c r="T55" t="n">
         <v>1.721555397534E12</v>
       </c>
+      <c r="AA55" t="s">
+        <v>2433</v>
+      </c>
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="1">
@@ -11251,6 +11531,9 @@
       <c r="T56" t="n">
         <v>1.721555484907E12</v>
       </c>
+      <c r="AA56" t="s">
+        <v>2434</v>
+      </c>
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="1">
@@ -11283,6 +11566,9 @@
       <c r="T57" t="n">
         <v>1.721555487805E12</v>
       </c>
+      <c r="AA57" t="s">
+        <v>2435</v>
+      </c>
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="1">
@@ -11315,6 +11601,9 @@
       <c r="T58" t="n">
         <v>1.721555493267E12</v>
       </c>
+      <c r="AA58" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="1">
@@ -11347,6 +11636,9 @@
       <c r="T59" t="n">
         <v>1.721555505505E12</v>
       </c>
+      <c r="AA59" t="s">
+        <v>2431</v>
+      </c>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="1">
@@ -11379,6 +11671,9 @@
       <c r="T60" t="n">
         <v>1.721555511813E12</v>
       </c>
+      <c r="AA60" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="1">
@@ -11411,6 +11706,9 @@
       <c r="T61" t="n">
         <v>1.721555519867E12</v>
       </c>
+      <c r="AA61" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="1">
@@ -11443,6 +11741,9 @@
       <c r="T62" t="n">
         <v>1.721555530554E12</v>
       </c>
+      <c r="AA62" t="s">
+        <v>2437</v>
+      </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="1">
@@ -11475,6 +11776,9 @@
       <c r="T63" t="n">
         <v>1.721555560586E12</v>
       </c>
+      <c r="AA63" t="s">
+        <v>2438</v>
+      </c>
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="1">
@@ -11507,6 +11811,9 @@
       <c r="T64" t="n">
         <v>1.721555565981E12</v>
       </c>
+      <c r="AA64" t="s">
+        <v>2439</v>
+      </c>
     </row>
     <row r="65" spans="1:20">
       <c r="A65" s="1">
@@ -11539,6 +11846,9 @@
       <c r="T65" t="n">
         <v>1.721555586477E12</v>
       </c>
+      <c r="AA65" t="s">
+        <v>2440</v>
+      </c>
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="1">
@@ -11571,6 +11881,9 @@
       <c r="T66" t="n">
         <v>1.721555591905E12</v>
       </c>
+      <c r="AA66" t="s">
+        <v>2441</v>
+      </c>
     </row>
     <row r="67" spans="1:20">
       <c r="A67" s="1">
@@ -11603,6 +11916,9 @@
       <c r="T67" t="n">
         <v>1.721555597959E12</v>
       </c>
+      <c r="AA67" t="s">
+        <v>2442</v>
+      </c>
     </row>
     <row r="68" spans="1:20">
       <c r="A68" s="1">
@@ -11635,6 +11951,9 @@
       <c r="T68" t="n">
         <v>1.721555604055E12</v>
       </c>
+      <c r="AA68" t="s">
+        <v>2419</v>
+      </c>
     </row>
     <row r="69" spans="1:20">
       <c r="A69" s="1">
@@ -11667,6 +11986,9 @@
       <c r="T69" t="n">
         <v>1.721555611169E12</v>
       </c>
+      <c r="AA69" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="70" spans="1:20">
       <c r="A70" s="1">
@@ -11699,6 +12021,9 @@
       <c r="T70" t="n">
         <v>1.721555614933E12</v>
       </c>
+      <c r="AA70" t="s">
+        <v>2443</v>
+      </c>
     </row>
     <row r="71" spans="1:20">
       <c r="A71" s="1">
@@ -11731,6 +12056,9 @@
       <c r="T71" t="n">
         <v>1.72155561719E12</v>
       </c>
+      <c r="AA71" t="s">
+        <v>2444</v>
+      </c>
     </row>
     <row r="72" spans="1:20">
       <c r="A72" s="1">
@@ -11763,6 +12091,9 @@
       <c r="T72" t="n">
         <v>1.721555629758E12</v>
       </c>
+      <c r="AA72" t="s">
+        <v>2445</v>
+      </c>
     </row>
     <row r="73" spans="1:20">
       <c r="A73" s="1">
@@ -11795,6 +12126,9 @@
       <c r="T73" t="n">
         <v>1.72155563424E12</v>
       </c>
+      <c r="AA73" t="s">
+        <v>2446</v>
+      </c>
     </row>
     <row r="74" spans="1:20">
       <c r="A74" s="1">
@@ -11827,6 +12161,9 @@
       <c r="T74" t="n">
         <v>1.721555641987E12</v>
       </c>
+      <c r="AA74" t="s">
+        <v>2447</v>
+      </c>
     </row>
     <row r="75" spans="1:20">
       <c r="A75" s="1">
@@ -13454,10 +13791,10 @@
         <v>616</v>
       </c>
       <c r="R125" t="n">
-        <v>2.5000000000000013</v>
+        <v>1.8000000000000012</v>
       </c>
       <c r="T125" t="n">
-        <v>1.722560539844E12</v>
+        <v>1.723081596496E12</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14350,10 +14687,10 @@
         <v>748</v>
       </c>
       <c r="R153" t="n">
-        <v>3.9000000000000017</v>
+        <v>4.100000000000005</v>
       </c>
       <c r="T153" t="n">
-        <v>1.722817455199E12</v>
+        <v>1.723445753775E12</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -15598,10 +15935,10 @@
         <v>919</v>
       </c>
       <c r="R192" t="n">
-        <v>4.650000000000004</v>
+        <v>3.250000000000004</v>
       </c>
       <c r="T192" t="n">
-        <v>1.722817458251E12</v>
+        <v>1.72310278652E12</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -16046,10 +16383,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>4.850000000000001</v>
+        <v>4.100000000000003</v>
       </c>
       <c r="T206" t="n">
-        <v>1.722817459866E12</v>
+        <v>1.723445756378E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -16782,10 +17119,10 @@
         <v>1084</v>
       </c>
       <c r="R229" t="n">
-        <v>3.9000000000000017</v>
+        <v>3.8500000000000028</v>
       </c>
       <c r="T229" t="n">
-        <v>1.722817490046E12</v>
+        <v>1.723102792404E12</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -19374,10 +19711,10 @@
         <v>1445</v>
       </c>
       <c r="R310" t="n">
-        <v>8.150000000000002</v>
+        <v>3.950000000000006</v>
       </c>
       <c r="T310" t="n">
-        <v>1.722823140704E12</v>
+        <v>1.723445876199E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -19886,10 +20223,10 @@
         <v>1521</v>
       </c>
       <c r="R326" t="n">
-        <v>3.1999999999999997</v>
+        <v>3.4999999999999996</v>
       </c>
       <c r="T326" t="n">
-        <v>1.722818148453E12</v>
+        <v>1.723102800789E12</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20014,10 +20351,10 @@
         <v>1543</v>
       </c>
       <c r="R330" t="n">
-        <v>3.500000000000001</v>
+        <v>2.4500000000000006</v>
       </c>
       <c r="T330" t="n">
-        <v>1.722818152646E12</v>
+        <v>1.723081630706E12</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -20078,10 +20415,10 @@
         <v>1554</v>
       </c>
       <c r="R332" t="n">
-        <v>2.4999999999999996</v>
+        <v>1.7999999999999994</v>
       </c>
       <c r="T332" t="n">
-        <v>1.722562805229E12</v>
+        <v>1.723081635384E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -20110,10 +20447,10 @@
         <v>1559</v>
       </c>
       <c r="R333" t="n">
-        <v>4.55</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="T333" t="n">
-        <v>1.722818182796E12</v>
+        <v>1.723445880141E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -20174,10 +20511,10 @@
         <v>1238</v>
       </c>
       <c r="R335" t="n">
-        <v>2.1999999999999997</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="T335" t="n">
-        <v>1.722562876373E12</v>
+        <v>1.722823598317E12</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -20206,10 +20543,10 @@
         <v>1573</v>
       </c>
       <c r="R336" t="n">
-        <v>3.1000000000000036</v>
+        <v>2.4000000000000035</v>
       </c>
       <c r="T336" t="n">
-        <v>1.722818213201E12</v>
+        <v>1.723081646216E12</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -20942,10 +21279,10 @@
         <v>1681</v>
       </c>
       <c r="R359" t="n">
-        <v>8.400000000000006</v>
+        <v>4.100000000000012</v>
       </c>
       <c r="T359" t="n">
-        <v>1.722823143191E12</v>
+        <v>1.723446033006E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -21166,10 +21503,10 @@
         <v>1715</v>
       </c>
       <c r="R366" t="n">
-        <v>2.700000000000001</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="T366" t="n">
-        <v>1.722563014788E12</v>
+        <v>1.723081652978E12</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -21518,10 +21855,10 @@
         <v>1767</v>
       </c>
       <c r="R377" t="n">
-        <v>6.8000000000000025</v>
+        <v>4.650000000000006</v>
       </c>
       <c r="T377" t="n">
-        <v>1.722823147162E12</v>
+        <v>1.723446045721E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -22542,10 +22879,10 @@
         <v>1920</v>
       </c>
       <c r="R409" t="n">
-        <v>2.1999999999999997</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.722563025122E12</v>
+        <v>1.722823619772E12</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -22926,10 +23263,10 @@
         <v>1975</v>
       </c>
       <c r="R421" t="n">
-        <v>2.8499999999999996</v>
+        <v>2.1499999999999995</v>
       </c>
       <c r="T421" t="n">
-        <v>1.722563027042E12</v>
+        <v>1.723081659785E12</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -22990,10 +23327,10 @@
         <v>208</v>
       </c>
       <c r="R423" t="n">
-        <v>4.450000000000003</v>
+        <v>4.000000000000005</v>
       </c>
       <c r="T423" t="n">
-        <v>1.722818279226E12</v>
+        <v>1.723445911531E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -23502,10 +23839,10 @@
         <v>2058</v>
       </c>
       <c r="R439" t="n">
-        <v>2.8000000000000025</v>
+        <v>4.100000000000003</v>
       </c>
       <c r="T439" t="n">
-        <v>1.722818301044E12</v>
+        <v>1.723445856911E12</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -23566,10 +23903,10 @@
         <v>2058</v>
       </c>
       <c r="R441" t="n">
-        <v>4.850000000000001</v>
+        <v>4.700000000000005</v>
       </c>
       <c r="T441" t="n">
-        <v>1.72281830742E12</v>
+        <v>1.723446049614E12</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -23790,10 +24127,10 @@
         <v>2091</v>
       </c>
       <c r="R448" t="n">
-        <v>4.55</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="T448" t="n">
-        <v>1.722818318529E12</v>
+        <v>1.723445925808E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -23854,10 +24191,10 @@
         <v>2101</v>
       </c>
       <c r="R450" t="n">
-        <v>2.1999999999999997</v>
+        <v>1.8499999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.722564248398E12</v>
+        <v>1.722840187354E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -24718,10 +25055,10 @@
         <v>2231</v>
       </c>
       <c r="R477" t="n">
-        <v>11.100000000000005</v>
+        <v>4.000000000000014</v>
       </c>
       <c r="T477" t="n">
-        <v>1.722823151953E12</v>
+        <v>1.723445929186E12</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -24782,10 +25119,10 @@
         <v>2241</v>
       </c>
       <c r="R479" t="n">
-        <v>2.4</v>
+        <v>1.6999999999999997</v>
       </c>
       <c r="T479" t="n">
-        <v>1.722564262341E12</v>
+        <v>1.723081689484E12</v>
       </c>
     </row>
     <row r="480" spans="1:20">
@@ -24878,10 +25215,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>7.250000000000001</v>
+        <v>4.100000000000004</v>
       </c>
       <c r="T482" t="n">
-        <v>1.72282315709E12</v>
+        <v>1.723445870381E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -24974,10 +25311,10 @@
         <v>2267</v>
       </c>
       <c r="R485" t="n">
-        <v>6.500000000000002</v>
+        <v>4.050000000000004</v>
       </c>
       <c r="T485" t="n">
-        <v>1.722823163047E12</v>
+        <v>1.723445938558E12</v>
       </c>
     </row>
     <row r="486" spans="1:20">
@@ -25006,10 +25343,10 @@
         <v>2272</v>
       </c>
       <c r="R486" t="n">
-        <v>2.700000000000001</v>
+        <v>2.000000000000001</v>
       </c>
       <c r="T486" t="n">
-        <v>1.722564284451E12</v>
+        <v>1.723081700848E12</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -25038,10 +25375,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>2.8000000000000025</v>
+        <v>2.1000000000000023</v>
       </c>
       <c r="T487" t="n">
-        <v>1.722818369015E12</v>
+        <v>1.723081705084E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26358,10 +26695,10 @@
         <v>3</v>
       </c>
       <c r="R553" t="n">
-        <v>2.650000000000002</v>
+        <v>1.950000000000002</v>
       </c>
       <c r="T553" t="n">
-        <v>1.722818370823E12</v>
+        <v>1.723081706602E12</v>
       </c>
     </row>
     <row r="554" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3830" uniqueCount="2448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="2466">
   <si>
     <t>题型</t>
   </si>
@@ -7421,6 +7421,60 @@
   </si>
   <si>
     <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 22题	您的得分： 95.45454545454545	做题时长约为1.7Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 100.0	做题时长约为0.7166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 94.44444444444444	做题时长约为1.6833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 93.75	做题时长约为1.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 16题	您的得分： 100.0	做题时长约为3.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 15题	您的得分： 100.0	做题时长约为0.7666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.16666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 34题	您的得分： 73.52941176470588	做题时长约为5.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 44.44444444444444	做题时长约为0.85Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.25Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.18333333333333332Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为1.0333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.4Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.9333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.48333333333333334Min</t>
   </si>
 </sst>
 </file>
@@ -8064,7 +8118,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1154">
+  <cellXfs count="1354">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9154,22 +9208,222 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -12196,6 +12450,9 @@
       <c r="T75" t="n">
         <v>1.721555648519E12</v>
       </c>
+      <c r="AA75" t="s">
+        <v>2448</v>
+      </c>
     </row>
     <row r="76" spans="1:20">
       <c r="A76" s="1">
@@ -12228,6 +12485,9 @@
       <c r="T76" t="n">
         <v>1.721555658689E12</v>
       </c>
+      <c r="AA76" t="s">
+        <v>2438</v>
+      </c>
     </row>
     <row r="77" spans="1:20">
       <c r="A77" s="1">
@@ -12260,6 +12520,9 @@
       <c r="T77" t="n">
         <v>1.721555670609E12</v>
       </c>
+      <c r="AA77" t="s">
+        <v>2449</v>
+      </c>
     </row>
     <row r="78" spans="1:20">
       <c r="A78" s="1">
@@ -12292,6 +12555,9 @@
       <c r="T78" t="n">
         <v>1.72155576948E12</v>
       </c>
+      <c r="AA78" t="s">
+        <v>2450</v>
+      </c>
     </row>
     <row r="79" spans="1:20">
       <c r="A79" s="1">
@@ -12324,6 +12590,9 @@
       <c r="T79" t="n">
         <v>1.721555771636E12</v>
       </c>
+      <c r="AA79" t="s">
+        <v>2451</v>
+      </c>
     </row>
     <row r="80" spans="1:20">
       <c r="A80" s="1">
@@ -12356,6 +12625,9 @@
       <c r="T80" t="n">
         <v>1.72155579216E12</v>
       </c>
+      <c r="AA80" t="s">
+        <v>2452</v>
+      </c>
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="1">
@@ -12388,6 +12660,9 @@
       <c r="T81" t="n">
         <v>1.721555794443E12</v>
       </c>
+      <c r="AA81" t="s">
+        <v>2437</v>
+      </c>
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="1">
@@ -12420,6 +12695,9 @@
       <c r="T82" t="n">
         <v>1.721555799498E12</v>
       </c>
+      <c r="AA82" t="s">
+        <v>2453</v>
+      </c>
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="1">
@@ -12452,6 +12730,9 @@
       <c r="T83" t="n">
         <v>1.721555813062E12</v>
       </c>
+      <c r="AA83" t="s">
+        <v>2454</v>
+      </c>
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="1">
@@ -12484,6 +12765,9 @@
       <c r="T84" t="n">
         <v>1.721555820363E12</v>
       </c>
+      <c r="AA84" t="s">
+        <v>2455</v>
+      </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="1">
@@ -12516,6 +12800,9 @@
       <c r="T85" t="n">
         <v>1.721555829848E12</v>
       </c>
+      <c r="AA85" t="s">
+        <v>2456</v>
+      </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="1">
@@ -12548,6 +12835,9 @@
       <c r="T86" t="n">
         <v>1.721555840986E12</v>
       </c>
+      <c r="AA86" t="s">
+        <v>2436</v>
+      </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="1">
@@ -12580,6 +12870,9 @@
       <c r="T87" t="n">
         <v>1.72155584885E12</v>
       </c>
+      <c r="AA87" t="s">
+        <v>2457</v>
+      </c>
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="1">
@@ -12612,6 +12905,9 @@
       <c r="T88" t="n">
         <v>1.721555856066E12</v>
       </c>
+      <c r="AA88" t="s">
+        <v>2458</v>
+      </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="1">
@@ -12644,6 +12940,9 @@
       <c r="T89" t="n">
         <v>1.721555868254E12</v>
       </c>
+      <c r="AA89" t="s">
+        <v>2459</v>
+      </c>
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="1">
@@ -12676,6 +12975,9 @@
       <c r="T90" t="n">
         <v>1.721555873689E12</v>
       </c>
+      <c r="AA90" t="s">
+        <v>2460</v>
+      </c>
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="1">
@@ -12708,6 +13010,9 @@
       <c r="T91" t="n">
         <v>1.721555876599E12</v>
       </c>
+      <c r="AA91" t="s">
+        <v>2461</v>
+      </c>
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="1">
@@ -12740,6 +13045,9 @@
       <c r="T92" t="n">
         <v>1.721555879048E12</v>
       </c>
+      <c r="AA92" t="s">
+        <v>2462</v>
+      </c>
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="1">
@@ -12772,6 +13080,9 @@
       <c r="T93" t="n">
         <v>1.721555885227E12</v>
       </c>
+      <c r="AA93" t="s">
+        <v>2463</v>
+      </c>
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="1">
@@ -12804,6 +13115,9 @@
       <c r="T94" t="n">
         <v>1.72155588907E12</v>
       </c>
+      <c r="AA94" t="s">
+        <v>2464</v>
+      </c>
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="1">
@@ -12836,6 +13150,9 @@
       <c r="T95" t="n">
         <v>1.72155592813E12</v>
       </c>
+      <c r="AA95" t="s">
+        <v>2465</v>
+      </c>
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="1">
@@ -13791,10 +14108,10 @@
         <v>616</v>
       </c>
       <c r="R125" t="n">
-        <v>1.8000000000000012</v>
+        <v>1.450000000000001</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723081596496E12</v>
+        <v>1.723774929526E12</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14687,10 +15004,10 @@
         <v>748</v>
       </c>
       <c r="R153" t="n">
-        <v>4.100000000000005</v>
+        <v>1.6500000000000044</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723445753775E12</v>
+        <v>1.723774931997E12</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -15391,10 +15708,10 @@
         <v>844</v>
       </c>
       <c r="R175" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.3999999999999995</v>
       </c>
       <c r="T175" t="n">
-        <v>1.722560549163E12</v>
+        <v>1.723774935574E12</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -15583,10 +15900,10 @@
         <v>872</v>
       </c>
       <c r="R181" t="n">
-        <v>1.9</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T181" t="n">
-        <v>1.721783249399E12</v>
+        <v>1.723776790141E12</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -15935,10 +16252,10 @@
         <v>919</v>
       </c>
       <c r="R192" t="n">
-        <v>3.250000000000004</v>
+        <v>1.750000000000003</v>
       </c>
       <c r="T192" t="n">
-        <v>1.72310278652E12</v>
+        <v>1.723776791722E12</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -16383,10 +16700,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>4.100000000000003</v>
+        <v>1.6500000000000026</v>
       </c>
       <c r="T206" t="n">
-        <v>1.723445756378E12</v>
+        <v>1.723774949257E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -17119,10 +17436,10 @@
         <v>1084</v>
       </c>
       <c r="R229" t="n">
-        <v>3.8500000000000028</v>
+        <v>1.6500000000000035</v>
       </c>
       <c r="T229" t="n">
-        <v>1.723102792404E12</v>
+        <v>1.723774951223E12</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -17471,10 +17788,10 @@
         <v>1129</v>
       </c>
       <c r="R240" t="n">
-        <v>1.9</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T240" t="n">
-        <v>1.721783283669E12</v>
+        <v>1.723776799317E12</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -19679,10 +19996,10 @@
         <v>1439</v>
       </c>
       <c r="R309" t="n">
-        <v>1.9</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="T309" t="n">
-        <v>1.721783287408E12</v>
+        <v>1.723774979897E12</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -19711,10 +20028,10 @@
         <v>1445</v>
       </c>
       <c r="R310" t="n">
-        <v>3.950000000000006</v>
+        <v>1.5000000000000053</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723445876199E12</v>
+        <v>1.723774983781E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -20223,10 +20540,10 @@
         <v>1521</v>
       </c>
       <c r="R326" t="n">
-        <v>3.4999999999999996</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723102800789E12</v>
+        <v>1.723774986731E12</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20351,10 +20668,10 @@
         <v>1543</v>
       </c>
       <c r="R330" t="n">
-        <v>2.4500000000000006</v>
+        <v>1.4000000000000004</v>
       </c>
       <c r="T330" t="n">
-        <v>1.723081630706E12</v>
+        <v>1.72377498859E12</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -20415,10 +20732,10 @@
         <v>1554</v>
       </c>
       <c r="R332" t="n">
-        <v>1.7999999999999994</v>
+        <v>1.6999999999999988</v>
       </c>
       <c r="T332" t="n">
-        <v>1.723081635384E12</v>
+        <v>1.723776806138E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -20447,10 +20764,10 @@
         <v>1559</v>
       </c>
       <c r="R333" t="n">
-        <v>3.800000000000001</v>
+        <v>1.6500000000000008</v>
       </c>
       <c r="T333" t="n">
-        <v>1.723445880141E12</v>
+        <v>1.723775023804E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -20479,10 +20796,10 @@
         <v>1564</v>
       </c>
       <c r="R334" t="n">
-        <v>1.9</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T334" t="n">
-        <v>1.721783581366E12</v>
+        <v>1.723776810257E12</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -20511,10 +20828,10 @@
         <v>1238</v>
       </c>
       <c r="R335" t="n">
-        <v>1.8499999999999996</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T335" t="n">
-        <v>1.722823598317E12</v>
+        <v>1.723775060845E12</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -20543,10 +20860,10 @@
         <v>1573</v>
       </c>
       <c r="R336" t="n">
-        <v>2.4000000000000035</v>
+        <v>1.7000000000000033</v>
       </c>
       <c r="T336" t="n">
-        <v>1.723081646216E12</v>
+        <v>1.723511507369E12</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -20575,10 +20892,10 @@
         <v>1578</v>
       </c>
       <c r="R337" t="n">
-        <v>1.9</v>
+        <v>1.5499999999999998</v>
       </c>
       <c r="T337" t="n">
-        <v>1.721783631949E12</v>
+        <v>1.723775070521E12</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -21279,10 +21596,10 @@
         <v>1681</v>
       </c>
       <c r="R359" t="n">
-        <v>4.100000000000012</v>
+        <v>1.6500000000000115</v>
       </c>
       <c r="T359" t="n">
-        <v>1.723446033006E12</v>
+        <v>1.723775074336E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -21503,10 +21820,10 @@
         <v>1715</v>
       </c>
       <c r="R366" t="n">
-        <v>2.000000000000001</v>
+        <v>1.6500000000000008</v>
       </c>
       <c r="T366" t="n">
-        <v>1.723081652978E12</v>
+        <v>1.723446122588E12</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -21855,10 +22172,10 @@
         <v>1767</v>
       </c>
       <c r="R377" t="n">
-        <v>4.650000000000006</v>
+        <v>1.5000000000000053</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723446045721E12</v>
+        <v>1.723775088613E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -22879,10 +23196,10 @@
         <v>1920</v>
       </c>
       <c r="R409" t="n">
-        <v>1.8499999999999996</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.722823619772E12</v>
+        <v>1.723775096961E12</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -23263,10 +23580,10 @@
         <v>1975</v>
       </c>
       <c r="R421" t="n">
-        <v>2.1499999999999995</v>
+        <v>1.4499999999999993</v>
       </c>
       <c r="T421" t="n">
-        <v>1.723081659785E12</v>
+        <v>1.723775100504E12</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -23327,10 +23644,10 @@
         <v>208</v>
       </c>
       <c r="R423" t="n">
-        <v>4.000000000000005</v>
+        <v>1.5500000000000047</v>
       </c>
       <c r="T423" t="n">
-        <v>1.723445911531E12</v>
+        <v>1.723775104049E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -23551,10 +23868,10 @@
         <v>2016</v>
       </c>
       <c r="R430" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.3999999999999995</v>
       </c>
       <c r="T430" t="n">
-        <v>1.722563040551E12</v>
+        <v>1.723775112927E12</v>
       </c>
     </row>
     <row r="431" spans="1:20">
@@ -23647,10 +23964,10 @@
         <v>2031</v>
       </c>
       <c r="R433" t="n">
-        <v>1.9</v>
+        <v>1.7999999999999994</v>
       </c>
       <c r="T433" t="n">
-        <v>1.721783745341E12</v>
+        <v>1.723776812681E12</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -23839,10 +24156,10 @@
         <v>2058</v>
       </c>
       <c r="R439" t="n">
-        <v>4.100000000000003</v>
+        <v>1.6500000000000026</v>
       </c>
       <c r="T439" t="n">
-        <v>1.723445856911E12</v>
+        <v>1.723775130291E12</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -23903,10 +24220,10 @@
         <v>2058</v>
       </c>
       <c r="R441" t="n">
-        <v>4.700000000000005</v>
+        <v>1.5500000000000047</v>
       </c>
       <c r="T441" t="n">
-        <v>1.723446049614E12</v>
+        <v>1.723775132921E12</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -24127,10 +24444,10 @@
         <v>2091</v>
       </c>
       <c r="R448" t="n">
-        <v>3.8000000000000003</v>
+        <v>1.6999999999999997</v>
       </c>
       <c r="T448" t="n">
-        <v>1.723445925808E12</v>
+        <v>1.723774923455E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -24191,10 +24508,10 @@
         <v>2101</v>
       </c>
       <c r="R450" t="n">
-        <v>1.8499999999999996</v>
+        <v>1.4999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.722840187354E12</v>
+        <v>1.723775140353E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -24863,10 +25180,10 @@
         <v>2202</v>
       </c>
       <c r="R471" t="n">
-        <v>1.7499999999999996</v>
+        <v>1.649999999999999</v>
       </c>
       <c r="T471" t="n">
-        <v>1.722564256157E12</v>
+        <v>1.723776814541E12</v>
       </c>
     </row>
     <row r="472" spans="1:20">
@@ -25055,10 +25372,10 @@
         <v>2231</v>
       </c>
       <c r="R477" t="n">
-        <v>4.000000000000014</v>
+        <v>1.5500000000000136</v>
       </c>
       <c r="T477" t="n">
-        <v>1.723445929186E12</v>
+        <v>1.723775204845E12</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -25215,10 +25532,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>4.100000000000004</v>
+        <v>1.6500000000000035</v>
       </c>
       <c r="T482" t="n">
-        <v>1.723445870381E12</v>
+        <v>1.723775207563E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -25311,10 +25628,10 @@
         <v>2267</v>
       </c>
       <c r="R485" t="n">
-        <v>4.050000000000004</v>
+        <v>1.6000000000000036</v>
       </c>
       <c r="T485" t="n">
-        <v>1.723445938558E12</v>
+        <v>1.723775210714E12</v>
       </c>
     </row>
     <row r="486" spans="1:20">
@@ -25343,10 +25660,10 @@
         <v>2272</v>
       </c>
       <c r="R486" t="n">
-        <v>2.000000000000001</v>
+        <v>1.6500000000000008</v>
       </c>
       <c r="T486" t="n">
-        <v>1.723081700848E12</v>
+        <v>1.723446166769E12</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -25375,10 +25692,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>2.1000000000000023</v>
+        <v>1.4000000000000021</v>
       </c>
       <c r="T487" t="n">
-        <v>1.723081705084E12</v>
+        <v>1.723775230234E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26695,10 +27012,10 @@
         <v>3</v>
       </c>
       <c r="R553" t="n">
-        <v>1.950000000000002</v>
+        <v>1.5500000000000016</v>
       </c>
       <c r="T553" t="n">
-        <v>1.723081706602E12</v>
+        <v>1.723776816508E12</v>
       </c>
     </row>
     <row r="554" spans="1:20">
@@ -26715,10 +27032,10 @@
         <v>4</v>
       </c>
       <c r="R554" t="n">
-        <v>1.9</v>
+        <v>1.7999999999999994</v>
       </c>
       <c r="T554" t="n">
-        <v>1.721783836738E12</v>
+        <v>1.723776818439E12</v>
       </c>
     </row>
     <row r="555" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3851" uniqueCount="2466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="2469">
   <si>
     <t>题型</t>
   </si>
@@ -7475,6 +7475,15 @@
   </si>
   <si>
     <t>您一共做了: 9题	您的得分： 100.0	做题时长约为0.48333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 76.0	做题时长约为998.55Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 63.0	做题时长约为91.78333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 74.0	做题时长约为64.05Min</t>
   </si>
 </sst>
 </file>
@@ -8118,7 +8127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1354">
+  <cellXfs count="1654">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9424,6 +9433,306 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9890,7 +10199,7 @@
         <v>0.0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.721554907532E12</v>
+        <v>1.724057698551E12</v>
       </c>
       <c r="AA2" t="s">
         <v>16</v>
@@ -9925,7 +10234,7 @@
         <v>0.0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.721554912862E12</v>
+        <v>1.724057705808E12</v>
       </c>
       <c r="AA3" t="s">
         <v>22</v>
@@ -9960,13 +10269,13 @@
         <v>0.0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.721554923678E12</v>
+        <v>1.724057716113E12</v>
       </c>
       <c r="AA4" t="s">
         <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.0</v>
+        <v>301.0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -9998,7 +10307,7 @@
         <v>0.0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.721554930861E12</v>
+        <v>1.724057727433E12</v>
       </c>
       <c r="AA5" t="s">
         <v>32</v>
@@ -10033,7 +10342,7 @@
         <v>0.0</v>
       </c>
       <c r="T6" t="n">
-        <v>1.721554981604E12</v>
+        <v>1.724057739055E12</v>
       </c>
       <c r="AA6" t="s">
         <v>38</v>
@@ -10068,7 +10377,7 @@
         <v>0.0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.721554986527E12</v>
+        <v>1.724057768145E12</v>
       </c>
       <c r="AA7" t="s">
         <v>44</v>
@@ -10100,10 +10409,10 @@
         <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T8" t="n">
-        <v>1.721554992502E12</v>
+        <v>1.724057776237E12</v>
       </c>
       <c r="AA8" t="s">
         <v>50</v>
@@ -10135,10 +10444,10 @@
         <v>55</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T9" t="n">
-        <v>1.721555004697E12</v>
+        <v>1.724057787312E12</v>
       </c>
       <c r="AA9" t="s">
         <v>56</v>
@@ -10170,10 +10479,10 @@
         <v>61</v>
       </c>
       <c r="R10" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.721555011713E12</v>
+        <v>1.724057810737E12</v>
       </c>
       <c r="AA10" t="s">
         <v>62</v>
@@ -10205,10 +10514,10 @@
         <v>67</v>
       </c>
       <c r="R11" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.721555014153E12</v>
+        <v>1.724057815109E12</v>
       </c>
       <c r="AA11" t="s">
         <v>68</v>
@@ -10240,10 +10549,10 @@
         <v>73</v>
       </c>
       <c r="R12" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>1.721555016111E12</v>
+        <v>1.724057843641E12</v>
       </c>
       <c r="AA12" t="s">
         <v>2394</v>
@@ -10278,7 +10587,7 @@
         <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.721555040712E12</v>
+        <v>1.724058000755E12</v>
       </c>
       <c r="AA13" t="s">
         <v>2395</v>
@@ -10313,7 +10622,7 @@
         <v>0.0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.721555050047E12</v>
+        <v>1.724058023549E12</v>
       </c>
       <c r="AA14" t="s">
         <v>2396</v>
@@ -10348,7 +10657,7 @@
         <v>0.0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.721555056534E12</v>
+        <v>1.724058029371E12</v>
       </c>
       <c r="AA15" t="s">
         <v>2397</v>
@@ -10383,7 +10692,7 @@
         <v>0.0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.721555060817E12</v>
+        <v>1.724058070613E12</v>
       </c>
       <c r="AA16" t="s">
         <v>2398</v>
@@ -10415,10 +10724,10 @@
         <v>98</v>
       </c>
       <c r="R17" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T17" t="n">
-        <v>1.721555063379E12</v>
+        <v>1.724058184393E12</v>
       </c>
       <c r="AA17" t="s">
         <v>2399</v>
@@ -10453,7 +10762,7 @@
         <v>0.0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.721555087585E12</v>
+        <v>1.724058192036E12</v>
       </c>
       <c r="AA18" t="s">
         <v>2400</v>
@@ -10488,7 +10797,7 @@
         <v>0.0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.721555101518E12</v>
+        <v>1.724058225052E12</v>
       </c>
       <c r="AA19" t="s">
         <v>2401</v>
@@ -10523,7 +10832,7 @@
         <v>0.0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.721555106968E12</v>
+        <v>1.724058233878E12</v>
       </c>
       <c r="AA20" t="s">
         <v>2402</v>
@@ -10558,7 +10867,7 @@
         <v>0.0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.72155511509E12</v>
+        <v>1.724058245355E12</v>
       </c>
       <c r="AA21" t="s">
         <v>2403</v>
@@ -10593,7 +10902,7 @@
         <v>0.0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.721555117894E12</v>
+        <v>1.724058254348E12</v>
       </c>
       <c r="AA22" t="s">
         <v>2404</v>
@@ -10625,10 +10934,10 @@
         <v>128</v>
       </c>
       <c r="R23" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.721555122815E12</v>
+        <v>1.724058407304E12</v>
       </c>
       <c r="AA23" t="s">
         <v>2405</v>
@@ -10663,7 +10972,7 @@
         <v>0.0</v>
       </c>
       <c r="T24" t="n">
-        <v>1.721555127876E12</v>
+        <v>1.724058437824E12</v>
       </c>
       <c r="AA24" t="s">
         <v>2406</v>
@@ -10695,10 +11004,10 @@
         <v>138</v>
       </c>
       <c r="R25" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.721555131219E12</v>
+        <v>1.724058447687E12</v>
       </c>
       <c r="AA25" t="s">
         <v>2407</v>
@@ -10733,7 +11042,7 @@
         <v>0.0</v>
       </c>
       <c r="T26" t="n">
-        <v>1.721555136111E12</v>
+        <v>1.724058453437E12</v>
       </c>
       <c r="AA26" t="s">
         <v>2408</v>
@@ -10765,10 +11074,10 @@
         <v>148</v>
       </c>
       <c r="R27" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72155514411E12</v>
+        <v>1.724058487754E12</v>
       </c>
       <c r="AA27" t="s">
         <v>2409</v>
@@ -10800,10 +11109,10 @@
         <v>153</v>
       </c>
       <c r="R28" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72155515177E12</v>
+        <v>1.724058493647E12</v>
       </c>
       <c r="AA28" t="s">
         <v>2410</v>
@@ -10838,7 +11147,7 @@
         <v>0.0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.721555155603E12</v>
+        <v>1.724058498522E12</v>
       </c>
       <c r="AA29" t="s">
         <v>2411</v>
@@ -10873,7 +11182,7 @@
         <v>0.0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.721555163015E12</v>
+        <v>1.724058529461E12</v>
       </c>
       <c r="AA30" t="s">
         <v>2412</v>
@@ -10908,7 +11217,7 @@
         <v>0.0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.721555165588E12</v>
+        <v>1.724058533098E12</v>
       </c>
       <c r="AA31" t="s">
         <v>2413</v>
@@ -10940,10 +11249,10 @@
         <v>173</v>
       </c>
       <c r="R32" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.72155517154E12</v>
+        <v>1.724058537538E12</v>
       </c>
       <c r="AA32" t="s">
         <v>2414</v>
@@ -10978,7 +11287,7 @@
         <v>0.0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.721555178556E12</v>
+        <v>1.724058558628E12</v>
       </c>
       <c r="AA33" t="s">
         <v>2415</v>
@@ -11010,10 +11319,10 @@
         <v>183</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T34" t="n">
-        <v>1.721698355074E12</v>
+        <v>1.724058707327E12</v>
       </c>
       <c r="AA34" t="s">
         <v>2416</v>
@@ -11045,10 +11354,10 @@
         <v>188</v>
       </c>
       <c r="R35" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.721555188222E12</v>
+        <v>1.724113526486E12</v>
       </c>
       <c r="AA35" t="s">
         <v>2417</v>
@@ -11080,10 +11389,10 @@
         <v>193</v>
       </c>
       <c r="R36" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>1.72155519816E12</v>
+        <v>1.724113549045E12</v>
       </c>
       <c r="AA36" t="s">
         <v>2418</v>
@@ -11115,10 +11424,10 @@
         <v>198</v>
       </c>
       <c r="R37" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T37" t="n">
-        <v>1.721555203441E12</v>
+        <v>1.724113571087E12</v>
       </c>
       <c r="AA37" t="s">
         <v>2419</v>
@@ -11153,7 +11462,7 @@
         <v>0.0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.721555208821E12</v>
+        <v>1.724113649764E12</v>
       </c>
       <c r="AA38" t="s">
         <v>2420</v>
@@ -11188,7 +11497,7 @@
         <v>0.0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.721555250016E12</v>
+        <v>1.724113663654E12</v>
       </c>
       <c r="AA39" t="s">
         <v>2419</v>
@@ -11223,7 +11532,7 @@
         <v>0.0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.72155525723E12</v>
+        <v>1.724113727421E12</v>
       </c>
       <c r="AA40" t="s">
         <v>2421</v>
@@ -11258,7 +11567,7 @@
         <v>0.0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.721555269865E12</v>
+        <v>1.724113762475E12</v>
       </c>
       <c r="AA41" t="s">
         <v>2422</v>
@@ -11290,10 +11599,10 @@
         <v>223</v>
       </c>
       <c r="R42" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.721555277845E12</v>
+        <v>1.724113784999E12</v>
       </c>
       <c r="AA42" t="s">
         <v>2423</v>
@@ -11325,10 +11634,10 @@
         <v>226</v>
       </c>
       <c r="R43" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.721555312079E12</v>
+        <v>1.724113820594E12</v>
       </c>
       <c r="AA43" t="s">
         <v>2424</v>
@@ -11363,7 +11672,7 @@
         <v>0.0</v>
       </c>
       <c r="T44" t="n">
-        <v>1.72155531616E12</v>
+        <v>1.724113836687E12</v>
       </c>
       <c r="AA44" t="s">
         <v>2425</v>
@@ -11395,10 +11704,10 @@
         <v>236</v>
       </c>
       <c r="R45" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.721555317808E12</v>
+        <v>1.72411384462E12</v>
       </c>
       <c r="AA45" t="s">
         <v>22</v>
@@ -11433,7 +11742,7 @@
         <v>0.0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.721555324298E12</v>
+        <v>1.724113862631E12</v>
       </c>
       <c r="AA46" t="s">
         <v>2400</v>
@@ -11468,7 +11777,7 @@
         <v>0.0</v>
       </c>
       <c r="T47" t="n">
-        <v>1.721555331822E12</v>
+        <v>1.724113970154E12</v>
       </c>
       <c r="AA47" t="s">
         <v>2426</v>
@@ -11503,7 +11812,7 @@
         <v>0.0</v>
       </c>
       <c r="T48" t="n">
-        <v>1.721555335684E12</v>
+        <v>1.724113980059E12</v>
       </c>
       <c r="AA48" t="s">
         <v>50</v>
@@ -11538,7 +11847,7 @@
         <v>0.0</v>
       </c>
       <c r="T49" t="n">
-        <v>1.721555345112E12</v>
+        <v>1.724114123167E12</v>
       </c>
       <c r="AA49" t="s">
         <v>2427</v>
@@ -11573,7 +11882,7 @@
         <v>0.0</v>
       </c>
       <c r="T50" t="n">
-        <v>1.721555349636E12</v>
+        <v>1.724116738293E12</v>
       </c>
       <c r="AA50" t="s">
         <v>2428</v>
@@ -11605,10 +11914,10 @@
         <v>266</v>
       </c>
       <c r="R51" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T51" t="n">
-        <v>1.721555354004E12</v>
+        <v>1.724116742776E12</v>
       </c>
       <c r="AA51" t="s">
         <v>2429</v>
@@ -11640,10 +11949,10 @@
         <v>271</v>
       </c>
       <c r="R52" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T52" t="n">
-        <v>1.721555355583E12</v>
+        <v>1.724116764735E12</v>
       </c>
       <c r="AA52" t="s">
         <v>2430</v>
@@ -11675,10 +11984,10 @@
         <v>276</v>
       </c>
       <c r="R53" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T53" t="n">
-        <v>1.721555357415E12</v>
+        <v>1.724116769227E12</v>
       </c>
       <c r="AA53" t="s">
         <v>2431</v>
@@ -11710,10 +12019,10 @@
         <v>281</v>
       </c>
       <c r="R54" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T54" t="n">
-        <v>1.721555362907E12</v>
+        <v>1.724116821759E12</v>
       </c>
       <c r="AA54" t="s">
         <v>2432</v>
@@ -11745,10 +12054,10 @@
         <v>286</v>
       </c>
       <c r="R55" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T55" t="n">
-        <v>1.721555397534E12</v>
+        <v>1.724116865103E12</v>
       </c>
       <c r="AA55" t="s">
         <v>2433</v>
@@ -11783,7 +12092,7 @@
         <v>0.0</v>
       </c>
       <c r="T56" t="n">
-        <v>1.721555484907E12</v>
+        <v>1.724116914591E12</v>
       </c>
       <c r="AA56" t="s">
         <v>2434</v>
@@ -11815,10 +12124,10 @@
         <v>296</v>
       </c>
       <c r="R57" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T57" t="n">
-        <v>1.721555487805E12</v>
+        <v>1.724116924101E12</v>
       </c>
       <c r="AA57" t="s">
         <v>2435</v>
@@ -11850,10 +12159,10 @@
         <v>301</v>
       </c>
       <c r="R58" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T58" t="n">
-        <v>1.721555493267E12</v>
+        <v>1.724116927999E12</v>
       </c>
       <c r="AA58" t="s">
         <v>50</v>
@@ -11885,10 +12194,10 @@
         <v>306</v>
       </c>
       <c r="R59" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T59" t="n">
-        <v>1.721555505505E12</v>
+        <v>1.724116942063E12</v>
       </c>
       <c r="AA59" t="s">
         <v>2431</v>
@@ -11923,7 +12232,7 @@
         <v>0.0</v>
       </c>
       <c r="T60" t="n">
-        <v>1.721555511813E12</v>
+        <v>1.724116984075E12</v>
       </c>
       <c r="AA60" t="s">
         <v>50</v>
@@ -11955,10 +12264,10 @@
         <v>316</v>
       </c>
       <c r="R61" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T61" t="n">
-        <v>1.721555519867E12</v>
+        <v>1.724116995888E12</v>
       </c>
       <c r="AA61" t="s">
         <v>2436</v>
@@ -11990,10 +12299,10 @@
         <v>321</v>
       </c>
       <c r="R62" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T62" t="n">
-        <v>1.721555530554E12</v>
+        <v>1.724117026699E12</v>
       </c>
       <c r="AA62" t="s">
         <v>2437</v>
@@ -12025,10 +12334,10 @@
         <v>326</v>
       </c>
       <c r="R63" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T63" t="n">
-        <v>1.721555560586E12</v>
+        <v>1.724117081459E12</v>
       </c>
       <c r="AA63" t="s">
         <v>2438</v>
@@ -12060,10 +12369,10 @@
         <v>331</v>
       </c>
       <c r="R64" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T64" t="n">
-        <v>1.721555565981E12</v>
+        <v>1.724117089696E12</v>
       </c>
       <c r="AA64" t="s">
         <v>2439</v>
@@ -12095,10 +12404,10 @@
         <v>336</v>
       </c>
       <c r="R65" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T65" t="n">
-        <v>1.721555586477E12</v>
+        <v>1.724117119912E12</v>
       </c>
       <c r="AA65" t="s">
         <v>2440</v>
@@ -12130,10 +12439,10 @@
         <v>340</v>
       </c>
       <c r="R66" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T66" t="n">
-        <v>1.721555591905E12</v>
+        <v>1.724117186915E12</v>
       </c>
       <c r="AA66" t="s">
         <v>2441</v>
@@ -12165,10 +12474,10 @@
         <v>344</v>
       </c>
       <c r="R67" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T67" t="n">
-        <v>1.721555597959E12</v>
+        <v>1.72411721884E12</v>
       </c>
       <c r="AA67" t="s">
         <v>2442</v>
@@ -12203,7 +12512,7 @@
         <v>0.0</v>
       </c>
       <c r="T68" t="n">
-        <v>1.721555604055E12</v>
+        <v>1.724117247612E12</v>
       </c>
       <c r="AA68" t="s">
         <v>2419</v>
@@ -12235,10 +12544,10 @@
         <v>354</v>
       </c>
       <c r="R69" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T69" t="n">
-        <v>1.721555611169E12</v>
+        <v>1.7241172559E12</v>
       </c>
       <c r="AA69" t="s">
         <v>2436</v>
@@ -12270,10 +12579,10 @@
         <v>359</v>
       </c>
       <c r="R70" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T70" t="n">
-        <v>1.721555614933E12</v>
+        <v>1.724117277528E12</v>
       </c>
       <c r="AA70" t="s">
         <v>2443</v>
@@ -12305,10 +12614,10 @@
         <v>364</v>
       </c>
       <c r="R71" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T71" t="n">
-        <v>1.72155561719E12</v>
+        <v>1.724117286183E12</v>
       </c>
       <c r="AA71" t="s">
         <v>2444</v>
@@ -12343,7 +12652,7 @@
         <v>0.0</v>
       </c>
       <c r="T72" t="n">
-        <v>1.721555629758E12</v>
+        <v>1.724117304674E12</v>
       </c>
       <c r="AA72" t="s">
         <v>2445</v>
@@ -12378,7 +12687,7 @@
         <v>0.0</v>
       </c>
       <c r="T73" t="n">
-        <v>1.72155563424E12</v>
+        <v>1.724117311987E12</v>
       </c>
       <c r="AA73" t="s">
         <v>2446</v>
@@ -12410,10 +12719,10 @@
         <v>379</v>
       </c>
       <c r="R74" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T74" t="n">
-        <v>1.721555641987E12</v>
+        <v>1.724117334978E12</v>
       </c>
       <c r="AA74" t="s">
         <v>2447</v>
@@ -12448,7 +12757,7 @@
         <v>0.0</v>
       </c>
       <c r="T75" t="n">
-        <v>1.721555648519E12</v>
+        <v>1.724117340222E12</v>
       </c>
       <c r="AA75" t="s">
         <v>2448</v>
@@ -12480,10 +12789,10 @@
         <v>389</v>
       </c>
       <c r="R76" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T76" t="n">
-        <v>1.721555658689E12</v>
+        <v>1.724117350975E12</v>
       </c>
       <c r="AA76" t="s">
         <v>2438</v>
@@ -12515,10 +12824,10 @@
         <v>394</v>
       </c>
       <c r="R77" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.721555670609E12</v>
+        <v>1.724117361498E12</v>
       </c>
       <c r="AA77" t="s">
         <v>2449</v>
@@ -12553,7 +12862,7 @@
         <v>0.0</v>
       </c>
       <c r="T78" t="n">
-        <v>1.72155576948E12</v>
+        <v>1.724117378367E12</v>
       </c>
       <c r="AA78" t="s">
         <v>2450</v>
@@ -12585,10 +12894,10 @@
         <v>404</v>
       </c>
       <c r="R79" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T79" t="n">
-        <v>1.721555771636E12</v>
+        <v>1.72411738307E12</v>
       </c>
       <c r="AA79" t="s">
         <v>2451</v>
@@ -12623,7 +12932,7 @@
         <v>0.0</v>
       </c>
       <c r="T80" t="n">
-        <v>1.72155579216E12</v>
+        <v>1.724117391592E12</v>
       </c>
       <c r="AA80" t="s">
         <v>2452</v>
@@ -12655,10 +12964,10 @@
         <v>414</v>
       </c>
       <c r="R81" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T81" t="n">
-        <v>1.721555794443E12</v>
+        <v>1.72411740006E12</v>
       </c>
       <c r="AA81" t="s">
         <v>2437</v>
@@ -12690,10 +12999,10 @@
         <v>301</v>
       </c>
       <c r="R82" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T82" t="n">
-        <v>1.721555799498E12</v>
+        <v>1.724117416094E12</v>
       </c>
       <c r="AA82" t="s">
         <v>2453</v>
@@ -12725,10 +13034,10 @@
         <v>420</v>
       </c>
       <c r="R83" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T83" t="n">
-        <v>1.721555813062E12</v>
+        <v>1.724117432281E12</v>
       </c>
       <c r="AA83" t="s">
         <v>2454</v>
@@ -12760,10 +13069,10 @@
         <v>425</v>
       </c>
       <c r="R84" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T84" t="n">
-        <v>1.721555820363E12</v>
+        <v>1.724117439753E12</v>
       </c>
       <c r="AA84" t="s">
         <v>2455</v>
@@ -12795,10 +13104,10 @@
         <v>430</v>
       </c>
       <c r="R85" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T85" t="n">
-        <v>1.721555829848E12</v>
+        <v>1.724117451803E12</v>
       </c>
       <c r="AA85" t="s">
         <v>2456</v>
@@ -12833,7 +13142,7 @@
         <v>0.0</v>
       </c>
       <c r="T86" t="n">
-        <v>1.721555840986E12</v>
+        <v>1.724117465714E12</v>
       </c>
       <c r="AA86" t="s">
         <v>2436</v>
@@ -12865,10 +13174,10 @@
         <v>440</v>
       </c>
       <c r="R87" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T87" t="n">
-        <v>1.72155584885E12</v>
+        <v>1.724117474682E12</v>
       </c>
       <c r="AA87" t="s">
         <v>2457</v>
@@ -12903,7 +13212,7 @@
         <v>0.0</v>
       </c>
       <c r="T88" t="n">
-        <v>1.721555856066E12</v>
+        <v>1.724117495939E12</v>
       </c>
       <c r="AA88" t="s">
         <v>2458</v>
@@ -12935,10 +13244,10 @@
         <v>450</v>
       </c>
       <c r="R89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T89" t="n">
-        <v>1.721555868254E12</v>
+        <v>1.724117505897E12</v>
       </c>
       <c r="AA89" t="s">
         <v>2459</v>
@@ -12973,7 +13282,7 @@
         <v>0.0</v>
       </c>
       <c r="T90" t="n">
-        <v>1.721555873689E12</v>
+        <v>1.724117525049E12</v>
       </c>
       <c r="AA90" t="s">
         <v>2460</v>
@@ -13008,7 +13317,7 @@
         <v>0.0</v>
       </c>
       <c r="T91" t="n">
-        <v>1.721555876599E12</v>
+        <v>1.724117527848E12</v>
       </c>
       <c r="AA91" t="s">
         <v>2461</v>
@@ -13043,7 +13352,7 @@
         <v>0.0</v>
       </c>
       <c r="T92" t="n">
-        <v>1.721555879048E12</v>
+        <v>1.724117531994E12</v>
       </c>
       <c r="AA92" t="s">
         <v>2462</v>
@@ -13078,7 +13387,7 @@
         <v>0.0</v>
       </c>
       <c r="T93" t="n">
-        <v>1.721555885227E12</v>
+        <v>1.72411753889E12</v>
       </c>
       <c r="AA93" t="s">
         <v>2463</v>
@@ -13110,10 +13419,10 @@
         <v>474</v>
       </c>
       <c r="R94" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T94" t="n">
-        <v>1.72155588907E12</v>
+        <v>1.724117546278E12</v>
       </c>
       <c r="AA94" t="s">
         <v>2464</v>
@@ -13148,7 +13457,7 @@
         <v>0.0</v>
       </c>
       <c r="T95" t="n">
-        <v>1.72155592813E12</v>
+        <v>1.724117548757E12</v>
       </c>
       <c r="AA95" t="s">
         <v>2465</v>
@@ -13183,7 +13492,10 @@
         <v>0.0</v>
       </c>
       <c r="T96" t="n">
-        <v>1.721556047691E12</v>
+        <v>1.72411755531E12</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>2466</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -13212,10 +13524,13 @@
         <v>487</v>
       </c>
       <c r="R97" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T97" t="n">
-        <v>1.721698409515E12</v>
+        <v>1.724117559505E12</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>2467</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -13244,10 +13559,13 @@
         <v>492</v>
       </c>
       <c r="R98" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T98" t="n">
-        <v>1.721698416043E12</v>
+        <v>1.724117566381E12</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>2468</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -13276,10 +13594,10 @@
         <v>497</v>
       </c>
       <c r="R99" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T99" t="n">
-        <v>1.721556062937E12</v>
+        <v>1.724117573717E12</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -13311,7 +13629,7 @@
         <v>0.0</v>
       </c>
       <c r="T100" t="n">
-        <v>1.721556069096E12</v>
+        <v>1.724117581168E12</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -13343,7 +13661,7 @@
         <v>0.0</v>
       </c>
       <c r="T101" t="n">
-        <v>1.721556072928E12</v>
+        <v>1.724117605232E12</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -13372,10 +13690,10 @@
         <v>512</v>
       </c>
       <c r="R102" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T102" t="n">
-        <v>1.721556225729E12</v>
+        <v>1.724118050484E12</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -13404,10 +13722,10 @@
         <v>517</v>
       </c>
       <c r="R103" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T103" t="n">
-        <v>1.721556230001E12</v>
+        <v>1.724118111561E12</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -13436,10 +13754,10 @@
         <v>522</v>
       </c>
       <c r="R104" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T104" t="n">
-        <v>1.721556263905E12</v>
+        <v>1.724118120564E12</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -13468,10 +13786,10 @@
         <v>526</v>
       </c>
       <c r="R105" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T105" t="n">
-        <v>1.721698421406E12</v>
+        <v>1.724118143521E12</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -13500,10 +13818,10 @@
         <v>531</v>
       </c>
       <c r="R106" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T106" t="n">
-        <v>1.72155631309E12</v>
+        <v>1.724118156827E12</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -13532,10 +13850,10 @@
         <v>536</v>
       </c>
       <c r="R107" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T107" t="n">
-        <v>1.721556341528E12</v>
+        <v>1.724118178555E12</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -13564,10 +13882,10 @@
         <v>540</v>
       </c>
       <c r="R108" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T108" t="n">
-        <v>1.721556409726E12</v>
+        <v>1.724118246894E12</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -13596,10 +13914,10 @@
         <v>545</v>
       </c>
       <c r="R109" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T109" t="n">
-        <v>1.72155643011E12</v>
+        <v>1.724118261287E12</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -13628,10 +13946,10 @@
         <v>550</v>
       </c>
       <c r="R110" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T110" t="n">
-        <v>1.721556440162E12</v>
+        <v>1.724118273947E12</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -13660,10 +13978,10 @@
         <v>555</v>
       </c>
       <c r="R111" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T111" t="n">
-        <v>1.721556449027E12</v>
+        <v>1.724118325347E12</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -13692,10 +14010,10 @@
         <v>555</v>
       </c>
       <c r="R112" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T112" t="n">
-        <v>1.721556586677E12</v>
+        <v>1.724118425239E12</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -13724,10 +14042,10 @@
         <v>555</v>
       </c>
       <c r="R113" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T113" t="n">
-        <v>1.721556589658E12</v>
+        <v>1.724118430959E12</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -13759,7 +14077,7 @@
         <v>0.0</v>
       </c>
       <c r="T114" t="n">
-        <v>1.721556595455E12</v>
+        <v>1.72411847252E12</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -13788,10 +14106,10 @@
         <v>568</v>
       </c>
       <c r="R115" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T115" t="n">
-        <v>1.721556599999E12</v>
+        <v>1.724118502352E12</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -13820,10 +14138,10 @@
         <v>572</v>
       </c>
       <c r="R116" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T116" t="n">
-        <v>1.721557396682E12</v>
+        <v>1.724118510646E12</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -13852,10 +14170,10 @@
         <v>577</v>
       </c>
       <c r="R117" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T117" t="n">
-        <v>1.721557408939E12</v>
+        <v>1.724118524035E12</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -13884,10 +14202,10 @@
         <v>582</v>
       </c>
       <c r="R118" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T118" t="n">
-        <v>1.721557417882E12</v>
+        <v>1.72411854108E12</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -13919,7 +14237,7 @@
         <v>0.0</v>
       </c>
       <c r="T119" t="n">
-        <v>1.72155742499E12</v>
+        <v>1.724118587238E12</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -13948,10 +14266,10 @@
         <v>592</v>
       </c>
       <c r="R120" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T120" t="n">
-        <v>1.721557436176E12</v>
+        <v>1.724118614891E12</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -13983,7 +14301,7 @@
         <v>0.0</v>
       </c>
       <c r="T121" t="n">
-        <v>1.721557440599E12</v>
+        <v>1.724118637838E12</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -14012,10 +14330,10 @@
         <v>601</v>
       </c>
       <c r="R122" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T122" t="n">
-        <v>1.721557448351E12</v>
+        <v>1.724118660192E12</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -14047,7 +14365,7 @@
         <v>0.0</v>
       </c>
       <c r="T123" t="n">
-        <v>1.721557465519E12</v>
+        <v>1.724118927765E12</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -14076,10 +14394,10 @@
         <v>611</v>
       </c>
       <c r="R124" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T124" t="n">
-        <v>1.721557469681E12</v>
+        <v>1.724118952159E12</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -14108,10 +14426,10 @@
         <v>616</v>
       </c>
       <c r="R125" t="n">
-        <v>1.450000000000001</v>
+        <v>2.450000000000001</v>
       </c>
       <c r="T125" t="n">
-        <v>1.723774929526E12</v>
+        <v>1.724118956006E12</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14140,10 +14458,10 @@
         <v>621</v>
       </c>
       <c r="R126" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T126" t="n">
-        <v>1.721557479172E12</v>
+        <v>1.724118961254E12</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -14172,10 +14490,10 @@
         <v>357</v>
       </c>
       <c r="R127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T127" t="n">
-        <v>1.721557480945E12</v>
+        <v>1.724118969622E12</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -14207,7 +14525,7 @@
         <v>0.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.721557486659E12</v>
+        <v>1.724119025162E12</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -14236,10 +14554,10 @@
         <v>635</v>
       </c>
       <c r="R129" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T129" t="n">
-        <v>1.721557491443E12</v>
+        <v>1.724119030766E12</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -14268,10 +14586,10 @@
         <v>640</v>
       </c>
       <c r="R130" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T130" t="n">
-        <v>1.721557498109E12</v>
+        <v>1.724119041869E12</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -14300,10 +14618,10 @@
         <v>645</v>
       </c>
       <c r="R131" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T131" t="n">
-        <v>1.721557507705E12</v>
+        <v>1.724119061032E12</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -14335,7 +14653,7 @@
         <v>0.0</v>
       </c>
       <c r="T132" t="n">
-        <v>1.721557510923E12</v>
+        <v>1.724119071056E12</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -14364,10 +14682,10 @@
         <v>654</v>
       </c>
       <c r="R133" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T133" t="n">
-        <v>1.72169842655E12</v>
+        <v>1.724119078754E12</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -14399,7 +14717,7 @@
         <v>0.0</v>
       </c>
       <c r="T134" t="n">
-        <v>1.721557515707E12</v>
+        <v>1.724119084383E12</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -14431,7 +14749,7 @@
         <v>0.0</v>
       </c>
       <c r="T135" t="n">
-        <v>1.72155751974E12</v>
+        <v>1.724119091023E12</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -14463,7 +14781,7 @@
         <v>0.0</v>
       </c>
       <c r="T136" t="n">
-        <v>1.721557522793E12</v>
+        <v>1.724119131824E12</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -14492,10 +14810,10 @@
         <v>671</v>
       </c>
       <c r="R137" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T137" t="n">
-        <v>1.721557525092E12</v>
+        <v>1.72411913725E12</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -14524,10 +14842,10 @@
         <v>676</v>
       </c>
       <c r="R138" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T138" t="n">
-        <v>1.721698428386E12</v>
+        <v>1.724119154897E12</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -14559,7 +14877,7 @@
         <v>0.0</v>
       </c>
       <c r="T139" t="n">
-        <v>1.721557532177E12</v>
+        <v>1.724119177233E12</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -14588,10 +14906,10 @@
         <v>685</v>
       </c>
       <c r="R140" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T140" t="n">
-        <v>1.721557536573E12</v>
+        <v>1.724119180827E12</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -14623,7 +14941,7 @@
         <v>0.0</v>
       </c>
       <c r="T141" t="n">
-        <v>1.721557544807E12</v>
+        <v>1.724119188575E12</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -14652,10 +14970,10 @@
         <v>695</v>
       </c>
       <c r="R142" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T142" t="n">
-        <v>1.721557552172E12</v>
+        <v>1.724119223847E12</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -14684,10 +15002,10 @@
         <v>700</v>
       </c>
       <c r="R143" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T143" t="n">
-        <v>1.721557561041E12</v>
+        <v>1.724119243734E12</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -14719,7 +15037,7 @@
         <v>0.0</v>
       </c>
       <c r="T144" t="n">
-        <v>1.721557566089E12</v>
+        <v>1.724119253218E12</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -14751,7 +15069,7 @@
         <v>0.0</v>
       </c>
       <c r="T145" t="n">
-        <v>1.721557572901E12</v>
+        <v>1.724119256824E12</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -14780,10 +15098,10 @@
         <v>714</v>
       </c>
       <c r="R146" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T146" t="n">
-        <v>1.72155757577E12</v>
+        <v>1.724119260513E12</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -14812,10 +15130,10 @@
         <v>719</v>
       </c>
       <c r="R147" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T147" t="n">
-        <v>1.721557582283E12</v>
+        <v>1.724119266258E12</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -14844,10 +15162,10 @@
         <v>724</v>
       </c>
       <c r="R148" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T148" t="n">
-        <v>1.721557584488E12</v>
+        <v>1.724119274648E12</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -14876,10 +15194,10 @@
         <v>729</v>
       </c>
       <c r="R149" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T149" t="n">
-        <v>1.721557589244E12</v>
+        <v>1.724119315128E12</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -14908,10 +15226,10 @@
         <v>734</v>
       </c>
       <c r="R150" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T150" t="n">
-        <v>1.721557597077E12</v>
+        <v>1.724119339519E12</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -14940,10 +15258,10 @@
         <v>739</v>
       </c>
       <c r="R151" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T151" t="n">
-        <v>1.721557604177E12</v>
+        <v>1.724119351085E12</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -14972,10 +15290,10 @@
         <v>744</v>
       </c>
       <c r="R152" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T152" t="n">
-        <v>1.72155760975E12</v>
+        <v>1.724119360809E12</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -15004,10 +15322,10 @@
         <v>748</v>
       </c>
       <c r="R153" t="n">
-        <v>1.6500000000000044</v>
+        <v>1.4000000000000044</v>
       </c>
       <c r="T153" t="n">
-        <v>1.723774931997E12</v>
+        <v>1.724119364631E12</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -15036,10 +15354,10 @@
         <v>753</v>
       </c>
       <c r="R154" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T154" t="n">
-        <v>1.721557619379E12</v>
+        <v>1.7241194007E12</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -15071,7 +15389,7 @@
         <v>0.0</v>
       </c>
       <c r="T155" t="n">
-        <v>1.721558051565E12</v>
+        <v>1.724119422236E12</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -15100,10 +15418,10 @@
         <v>274</v>
       </c>
       <c r="R156" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T156" t="n">
-        <v>1.721698435904E12</v>
+        <v>1.724119591233E12</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -15132,10 +15450,10 @@
         <v>766</v>
       </c>
       <c r="R157" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T157" t="n">
-        <v>1.721558061418E12</v>
+        <v>1.724119632433E12</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -15164,10 +15482,10 @@
         <v>771</v>
       </c>
       <c r="R158" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T158" t="n">
-        <v>1.721558075544E12</v>
+        <v>1.724119640256E12</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -15196,10 +15514,10 @@
         <v>776</v>
       </c>
       <c r="R159" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T159" t="n">
-        <v>1.721558152779E12</v>
+        <v>1.724119735749E12</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -15231,7 +15549,7 @@
         <v>0.0</v>
       </c>
       <c r="T160" t="n">
-        <v>1.721558223109E12</v>
+        <v>1.724119744201E12</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -15263,7 +15581,7 @@
         <v>0.0</v>
       </c>
       <c r="T161" t="n">
-        <v>1.721558230644E12</v>
+        <v>1.724119817976E12</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -15292,10 +15610,10 @@
         <v>790</v>
       </c>
       <c r="R162" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T162" t="n">
-        <v>1.721558235032E12</v>
+        <v>1.724119826299E12</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -15324,10 +15642,10 @@
         <v>795</v>
       </c>
       <c r="R163" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T163" t="n">
-        <v>1.721558239586E12</v>
+        <v>1.724119842095E12</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -15356,10 +15674,10 @@
         <v>800</v>
       </c>
       <c r="R164" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T164" t="n">
-        <v>1.721558243192E12</v>
+        <v>1.724119855191E12</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -15388,10 +15706,10 @@
         <v>805</v>
       </c>
       <c r="R165" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T165" t="n">
-        <v>1.721698438628E12</v>
+        <v>1.724119888605E12</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -15420,10 +15738,10 @@
         <v>810</v>
       </c>
       <c r="R166" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T166" t="n">
-        <v>1.72155825591E12</v>
+        <v>1.724119934514E12</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -15452,10 +15770,10 @@
         <v>815</v>
       </c>
       <c r="R167" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T167" t="n">
-        <v>1.721558264358E12</v>
+        <v>1.724119980129E12</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -15487,7 +15805,7 @@
         <v>0.0</v>
       </c>
       <c r="T168" t="n">
-        <v>1.721558276354E12</v>
+        <v>1.724120021622E12</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -15519,7 +15837,7 @@
         <v>0.0</v>
       </c>
       <c r="T169" t="n">
-        <v>1.72155828322E12</v>
+        <v>1.724120038648E12</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -15548,10 +15866,10 @@
         <v>829</v>
       </c>
       <c r="R170" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T170" t="n">
-        <v>1.721698440107E12</v>
+        <v>1.724120049638E12</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -15580,10 +15898,10 @@
         <v>834</v>
       </c>
       <c r="R171" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T171" t="n">
-        <v>1.721558295163E12</v>
+        <v>1.724120063165E12</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -15612,10 +15930,10 @@
         <v>839</v>
       </c>
       <c r="R172" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T172" t="n">
-        <v>1.721698443149E12</v>
+        <v>1.724120076204E12</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -15644,10 +15962,10 @@
         <v>844</v>
       </c>
       <c r="R173" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T173" t="n">
-        <v>1.721558321505E12</v>
+        <v>1.724120083217E12</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -15676,10 +15994,10 @@
         <v>849</v>
       </c>
       <c r="R174" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T174" t="n">
-        <v>1.721558334343E12</v>
+        <v>1.724120097622E12</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -15708,10 +16026,10 @@
         <v>844</v>
       </c>
       <c r="R175" t="n">
-        <v>1.3999999999999995</v>
+        <v>1.1499999999999995</v>
       </c>
       <c r="T175" t="n">
-        <v>1.723774935574E12</v>
+        <v>1.724120103366E12</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -15740,10 +16058,10 @@
         <v>275</v>
       </c>
       <c r="R176" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T176" t="n">
-        <v>1.721558379342E12</v>
+        <v>1.724120126237E12</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -15775,7 +16093,7 @@
         <v>0.0</v>
       </c>
       <c r="T177" t="n">
-        <v>1.721558387795E12</v>
+        <v>1.724120129966E12</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -15804,10 +16122,10 @@
         <v>862</v>
       </c>
       <c r="R178" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T178" t="n">
-        <v>1.721558394392E12</v>
+        <v>1.724120140583E12</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -15836,10 +16154,10 @@
         <v>866</v>
       </c>
       <c r="R179" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T179" t="n">
-        <v>1.721558400107E12</v>
+        <v>1.724120148934E12</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -15871,7 +16189,7 @@
         <v>0.0</v>
       </c>
       <c r="T180" t="n">
-        <v>1.721558407623E12</v>
+        <v>1.72412015331E12</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -15900,10 +16218,10 @@
         <v>872</v>
       </c>
       <c r="R181" t="n">
-        <v>1.4999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T181" t="n">
-        <v>1.723776790141E12</v>
+        <v>1.724120167487E12</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -15932,10 +16250,10 @@
         <v>861</v>
       </c>
       <c r="R182" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T182" t="n">
-        <v>1.721698462909E12</v>
+        <v>1.724120171956E12</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -15967,7 +16285,7 @@
         <v>0.0</v>
       </c>
       <c r="T183" t="n">
-        <v>1.721558425584E12</v>
+        <v>1.724120176931E12</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -15996,10 +16314,10 @@
         <v>885</v>
       </c>
       <c r="R184" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T184" t="n">
-        <v>1.721558428255E12</v>
+        <v>1.724120182821E12</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -16028,10 +16346,10 @@
         <v>890</v>
       </c>
       <c r="R185" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T185" t="n">
-        <v>1.721558433827E12</v>
+        <v>1.724120213982E12</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -16060,10 +16378,10 @@
         <v>895</v>
       </c>
       <c r="R186" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T186" t="n">
-        <v>1.721558456484E12</v>
+        <v>1.724120345215E12</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -16092,10 +16410,10 @@
         <v>890</v>
       </c>
       <c r="R187" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T187" t="n">
-        <v>1.72155849008E12</v>
+        <v>1.724121283883E12</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -16124,10 +16442,10 @@
         <v>901</v>
       </c>
       <c r="R188" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T188" t="n">
-        <v>1.721558493216E12</v>
+        <v>1.724121298923E12</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -16156,10 +16474,10 @@
         <v>906</v>
       </c>
       <c r="R189" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T189" t="n">
-        <v>1.721558497795E12</v>
+        <v>1.724122828197E12</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -16188,10 +16506,10 @@
         <v>579</v>
       </c>
       <c r="R190" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T190" t="n">
-        <v>1.721558518838E12</v>
+        <v>1.724122875401E12</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -16223,7 +16541,7 @@
         <v>0.0</v>
       </c>
       <c r="T191" t="n">
-        <v>1.721558523587E12</v>
+        <v>1.724122892207E12</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -16252,10 +16570,10 @@
         <v>919</v>
       </c>
       <c r="R192" t="n">
-        <v>1.750000000000003</v>
+        <v>1.500000000000003</v>
       </c>
       <c r="T192" t="n">
-        <v>1.723776791722E12</v>
+        <v>1.7241229121E12</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -16284,10 +16602,10 @@
         <v>924</v>
       </c>
       <c r="R193" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T193" t="n">
-        <v>1.72155861308E12</v>
+        <v>1.724122915681E12</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -16319,7 +16637,7 @@
         <v>0.0</v>
       </c>
       <c r="T194" t="n">
-        <v>1.72155861738E12</v>
+        <v>1.724122920085E12</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -16348,10 +16666,10 @@
         <v>934</v>
       </c>
       <c r="R195" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T195" t="n">
-        <v>1.721558701469E12</v>
+        <v>1.724122928107E12</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -16380,10 +16698,10 @@
         <v>939</v>
       </c>
       <c r="R196" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T196" t="n">
-        <v>1.721558704692E12</v>
+        <v>1.724123224191E12</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -16412,10 +16730,10 @@
         <v>944</v>
       </c>
       <c r="R197" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T197" t="n">
-        <v>1.721558761075E12</v>
+        <v>1.72412327757E12</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -16444,10 +16762,10 @@
         <v>949</v>
       </c>
       <c r="R198" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T198" t="n">
-        <v>1.721558764801E12</v>
+        <v>1.724123285834E12</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -16476,10 +16794,10 @@
         <v>954</v>
       </c>
       <c r="R199" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T199" t="n">
-        <v>1.721558767969E12</v>
+        <v>1.724123303485E12</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -16508,10 +16826,10 @@
         <v>959</v>
       </c>
       <c r="R200" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T200" t="n">
-        <v>1.721558922017E12</v>
+        <v>1.724123372081E12</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -16540,10 +16858,10 @@
         <v>964</v>
       </c>
       <c r="R201" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T201" t="n">
-        <v>1.721558928194E12</v>
+        <v>1.724123509852E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -16575,7 +16893,7 @@
         <v>0.0</v>
       </c>
       <c r="T202" t="n">
-        <v>1.721558971674E12</v>
+        <v>1.724134797183E12</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -16604,10 +16922,10 @@
         <v>540</v>
       </c>
       <c r="R203" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T203" t="n">
-        <v>1.721558981668E12</v>
+        <v>1.724134825273E12</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -16636,10 +16954,10 @@
         <v>975</v>
       </c>
       <c r="R204" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T204" t="n">
-        <v>1.721559002315E12</v>
+        <v>1.724134829848E12</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -16668,10 +16986,10 @@
         <v>980</v>
       </c>
       <c r="R205" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T205" t="n">
-        <v>1.721559121662E12</v>
+        <v>1.724134847124E12</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -16700,10 +17018,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>1.6500000000000026</v>
+        <v>2.6500000000000026</v>
       </c>
       <c r="T206" t="n">
-        <v>1.723774949257E12</v>
+        <v>1.72413485169E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -16732,10 +17050,10 @@
         <v>990</v>
       </c>
       <c r="R207" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T207" t="n">
-        <v>1.721559137307E12</v>
+        <v>1.724134873866E12</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -16764,10 +17082,10 @@
         <v>995</v>
       </c>
       <c r="R208" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T208" t="n">
-        <v>1.721559140056E12</v>
+        <v>1.724134880986E12</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -16796,10 +17114,10 @@
         <v>1000</v>
       </c>
       <c r="R209" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T209" t="n">
-        <v>1.721559142643E12</v>
+        <v>1.724134900827E12</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -16828,10 +17146,10 @@
         <v>1004</v>
       </c>
       <c r="R210" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T210" t="n">
-        <v>1.721559146379E12</v>
+        <v>1.724134930305E12</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -16860,10 +17178,10 @@
         <v>1009</v>
       </c>
       <c r="R211" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T211" t="n">
-        <v>1.721559169228E12</v>
+        <v>1.724134965397E12</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -16895,7 +17213,7 @@
         <v>0.0</v>
       </c>
       <c r="T212" t="n">
-        <v>1.721559177511E12</v>
+        <v>1.724134987289E12</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -16924,10 +17242,10 @@
         <v>1015</v>
       </c>
       <c r="R213" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T213" t="n">
-        <v>1.721559182098E12</v>
+        <v>1.724134993443E12</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -16959,7 +17277,7 @@
         <v>0.0</v>
       </c>
       <c r="T214" t="n">
-        <v>1.721559198194E12</v>
+        <v>1.724135003125E12</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -16991,7 +17309,7 @@
         <v>0.0</v>
       </c>
       <c r="T215" t="n">
-        <v>1.72155941183E12</v>
+        <v>1.7241350393E12</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -17020,10 +17338,10 @@
         <v>1030</v>
       </c>
       <c r="R216" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T216" t="n">
-        <v>1.72155946061E12</v>
+        <v>1.724135054672E12</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -17055,7 +17373,7 @@
         <v>0.0</v>
       </c>
       <c r="T217" t="n">
-        <v>1.721559464908E12</v>
+        <v>1.724135063349E12</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -17087,7 +17405,7 @@
         <v>0.0</v>
       </c>
       <c r="T218" t="n">
-        <v>1.721559585875E12</v>
+        <v>1.724135095942E12</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -17116,10 +17434,10 @@
         <v>1041</v>
       </c>
       <c r="R219" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T219" t="n">
-        <v>1.721559594834E12</v>
+        <v>1.724135115052E12</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -17148,10 +17466,10 @@
         <v>1046</v>
       </c>
       <c r="R220" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T220" t="n">
-        <v>1.721559603477E12</v>
+        <v>1.724135164229E12</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -17180,10 +17498,10 @@
         <v>1050</v>
       </c>
       <c r="R221" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T221" t="n">
-        <v>1.721559615815E12</v>
+        <v>1.724135170475E12</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -17212,10 +17530,10 @@
         <v>1055</v>
       </c>
       <c r="R222" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T222" t="n">
-        <v>1.721559620073E12</v>
+        <v>1.724135239866E12</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -17244,10 +17562,10 @@
         <v>1060</v>
       </c>
       <c r="R223" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T223" t="n">
-        <v>1.72155962193E12</v>
+        <v>1.724135262616E12</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -17276,10 +17594,10 @@
         <v>1050</v>
       </c>
       <c r="R224" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T224" t="n">
-        <v>1.721559631566E12</v>
+        <v>1.724135275867E12</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -17308,10 +17626,10 @@
         <v>1066</v>
       </c>
       <c r="R225" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T225" t="n">
-        <v>1.721559637099E12</v>
+        <v>1.72413528289E12</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -17340,10 +17658,10 @@
         <v>1071</v>
       </c>
       <c r="R226" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T226" t="n">
-        <v>1.721698612683E12</v>
+        <v>1.724135479461E12</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -17375,7 +17693,7 @@
         <v>0.0</v>
       </c>
       <c r="T227" t="n">
-        <v>1.721559859813E12</v>
+        <v>1.724135537781E12</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -17404,10 +17722,10 @@
         <v>1080</v>
       </c>
       <c r="R228" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T228" t="n">
-        <v>1.721559874865E12</v>
+        <v>1.72413555685E12</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -17436,10 +17754,10 @@
         <v>1084</v>
       </c>
       <c r="R229" t="n">
-        <v>1.6500000000000035</v>
+        <v>1.4000000000000035</v>
       </c>
       <c r="T229" t="n">
-        <v>1.723774951223E12</v>
+        <v>1.724135574074E12</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -17471,7 +17789,7 @@
         <v>0.0</v>
       </c>
       <c r="T230" t="n">
-        <v>1.721559882943E12</v>
+        <v>1.724135647292E12</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -17503,7 +17821,7 @@
         <v>0.0</v>
       </c>
       <c r="T231" t="n">
-        <v>1.721559890607E12</v>
+        <v>1.724135665353E12</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -17532,10 +17850,10 @@
         <v>1098</v>
       </c>
       <c r="R232" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T232" t="n">
-        <v>1.721559892833E12</v>
+        <v>1.724135670928E12</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -17567,7 +17885,7 @@
         <v>0.0</v>
       </c>
       <c r="T233" t="n">
-        <v>1.721559895299E12</v>
+        <v>1.724135679888E12</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -17599,7 +17917,7 @@
         <v>0.0</v>
       </c>
       <c r="T234" t="n">
-        <v>1.72155990589E12</v>
+        <v>1.72413569181E12</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -17631,7 +17949,7 @@
         <v>0.0</v>
       </c>
       <c r="T235" t="n">
-        <v>1.721559914867E12</v>
+        <v>1.7241356994E12</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -17660,10 +17978,10 @@
         <v>1118</v>
       </c>
       <c r="R236" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T236" t="n">
-        <v>1.721559919988E12</v>
+        <v>1.724135706595E12</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -17692,10 +18010,10 @@
         <v>1118</v>
       </c>
       <c r="R237" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T237" t="n">
-        <v>1.721559958936E12</v>
+        <v>1.724135773756E12</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -17724,10 +18042,10 @@
         <v>1118</v>
       </c>
       <c r="R238" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T238" t="n">
-        <v>1.721559965566E12</v>
+        <v>1.724135803222E12</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -17759,7 +18077,7 @@
         <v>0.0</v>
       </c>
       <c r="T239" t="n">
-        <v>1.721559969539E12</v>
+        <v>1.724135919856E12</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -17788,10 +18106,10 @@
         <v>1129</v>
       </c>
       <c r="R240" t="n">
-        <v>1.4999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T240" t="n">
-        <v>1.723776799317E12</v>
+        <v>1.724135930222E12</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -17823,7 +18141,7 @@
         <v>0.0</v>
       </c>
       <c r="T241" t="n">
-        <v>1.721559991908E12</v>
+        <v>1.724135976663E12</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -17855,7 +18173,7 @@
         <v>0.0</v>
       </c>
       <c r="T242" t="n">
-        <v>1.72155999962E12</v>
+        <v>1.724135985403E12</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -17884,10 +18202,10 @@
         <v>1144</v>
       </c>
       <c r="R243" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T243" t="n">
-        <v>1.721560003519E12</v>
+        <v>1.72413599019E12</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -17916,10 +18234,10 @@
         <v>1149</v>
       </c>
       <c r="R244" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T244" t="n">
-        <v>1.721560007461E12</v>
+        <v>1.724135993218E12</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -17948,10 +18266,10 @@
         <v>1154</v>
       </c>
       <c r="R245" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T245" t="n">
-        <v>1.721560008828E12</v>
+        <v>1.724136268027E12</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -17983,7 +18301,7 @@
         <v>0.0</v>
       </c>
       <c r="T246" t="n">
-        <v>1.721560013729E12</v>
+        <v>1.724136277856E12</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -18012,10 +18330,10 @@
         <v>1164</v>
       </c>
       <c r="R247" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T247" t="n">
-        <v>1.721560017353E12</v>
+        <v>1.724136283359E12</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -18047,7 +18365,7 @@
         <v>0.0</v>
       </c>
       <c r="T248" t="n">
-        <v>1.721560021212E12</v>
+        <v>1.724136288369E12</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -18079,7 +18397,7 @@
         <v>0.0</v>
       </c>
       <c r="T249" t="n">
-        <v>1.721560023485E12</v>
+        <v>1.724136310546E12</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -18111,7 +18429,7 @@
         <v>0.0</v>
       </c>
       <c r="T250" t="n">
-        <v>1.721560028144E12</v>
+        <v>1.724136319406E12</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -18143,7 +18461,7 @@
         <v>0.0</v>
       </c>
       <c r="T251" t="n">
-        <v>1.721560035251E12</v>
+        <v>1.724136368074E12</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -18172,10 +18490,10 @@
         <v>1187</v>
       </c>
       <c r="R252" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T252" t="n">
-        <v>1.721560042169E12</v>
+        <v>1.724136371268E12</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -18207,7 +18525,7 @@
         <v>0.0</v>
       </c>
       <c r="T253" t="n">
-        <v>1.721560108177E12</v>
+        <v>1.724136431263E12</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -18236,10 +18554,10 @@
         <v>1197</v>
       </c>
       <c r="R254" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T254" t="n">
-        <v>1.721560114309E12</v>
+        <v>1.724136440321E12</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -18268,10 +18586,10 @@
         <v>1202</v>
       </c>
       <c r="R255" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T255" t="n">
-        <v>1.721560131028E12</v>
+        <v>1.72413645002E12</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -18300,10 +18618,10 @@
         <v>1206</v>
       </c>
       <c r="R256" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T256" t="n">
-        <v>1.721560135876E12</v>
+        <v>1.724136450094E12</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -18332,10 +18650,10 @@
         <v>1211</v>
       </c>
       <c r="R257" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T257" t="n">
-        <v>1.721560140072E12</v>
+        <v>1.724136466054E12</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -18367,7 +18685,7 @@
         <v>0.0</v>
       </c>
       <c r="T258" t="n">
-        <v>1.72156014423E12</v>
+        <v>1.724136469021E12</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -18396,10 +18714,10 @@
         <v>1221</v>
       </c>
       <c r="R259" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T259" t="n">
-        <v>1.721560154973E12</v>
+        <v>1.72413650446E12</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -18431,7 +18749,7 @@
         <v>0.0</v>
       </c>
       <c r="T260" t="n">
-        <v>1.7215601615E12</v>
+        <v>1.724136510501E12</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -18463,7 +18781,7 @@
         <v>0.0</v>
       </c>
       <c r="T261" t="n">
-        <v>1.72156016876E12</v>
+        <v>1.724136519573E12</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -18492,10 +18810,10 @@
         <v>1231</v>
       </c>
       <c r="R262" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T262" t="n">
-        <v>1.721560177109E12</v>
+        <v>1.724136528885E12</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -18527,7 +18845,7 @@
         <v>0.0</v>
       </c>
       <c r="T263" t="n">
-        <v>1.721560181422E12</v>
+        <v>1.724136544108E12</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -18556,10 +18874,10 @@
         <v>1231</v>
       </c>
       <c r="R264" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T264" t="n">
-        <v>1.721560185173E12</v>
+        <v>1.724136555014E12</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -18591,7 +18909,7 @@
         <v>0.0</v>
       </c>
       <c r="T265" t="n">
-        <v>1.721560190813E12</v>
+        <v>1.724136563562E12</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -18620,10 +18938,10 @@
         <v>1241</v>
       </c>
       <c r="R266" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T266" t="n">
-        <v>1.721560201441E12</v>
+        <v>1.724136590343E12</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -18652,10 +18970,10 @@
         <v>1246</v>
       </c>
       <c r="R267" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T267" t="n">
-        <v>1.721560206473E12</v>
+        <v>1.724136597729E12</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -18684,10 +19002,10 @@
         <v>1251</v>
       </c>
       <c r="R268" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T268" t="n">
-        <v>1.721560236028E12</v>
+        <v>1.724136620207E12</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -18716,10 +19034,10 @@
         <v>1256</v>
       </c>
       <c r="R269" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T269" t="n">
-        <v>1.721560237802E12</v>
+        <v>1.724136628221E12</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -18748,10 +19066,10 @@
         <v>1261</v>
       </c>
       <c r="R270" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T270" t="n">
-        <v>1.721560243229E12</v>
+        <v>1.724136633456E12</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -18780,10 +19098,10 @@
         <v>1266</v>
       </c>
       <c r="R271" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T271" t="n">
-        <v>1.721560244603E12</v>
+        <v>1.72413663696E12</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -18815,7 +19133,7 @@
         <v>0.0</v>
       </c>
       <c r="T272" t="n">
-        <v>1.72156024764E12</v>
+        <v>1.724136643096E12</v>
       </c>
     </row>
     <row r="273" spans="1:20">
@@ -18847,7 +19165,7 @@
         <v>0.0</v>
       </c>
       <c r="T273" t="n">
-        <v>1.721560249837E12</v>
+        <v>1.724136646616E12</v>
       </c>
     </row>
     <row r="274" spans="1:20">
@@ -18876,10 +19194,10 @@
         <v>1280</v>
       </c>
       <c r="R274" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T274" t="n">
-        <v>1.721560253155E12</v>
+        <v>1.724136652949E12</v>
       </c>
     </row>
     <row r="275" spans="1:20">
@@ -18908,10 +19226,10 @@
         <v>1285</v>
       </c>
       <c r="R275" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T275" t="n">
-        <v>1.721560257236E12</v>
+        <v>1.724136656507E12</v>
       </c>
     </row>
     <row r="276" spans="1:20">
@@ -18943,7 +19261,7 @@
         <v>0.0</v>
       </c>
       <c r="T276" t="n">
-        <v>1.721560260104E12</v>
+        <v>1.724136659332E12</v>
       </c>
     </row>
     <row r="277" spans="1:20">
@@ -18975,7 +19293,7 @@
         <v>0.0</v>
       </c>
       <c r="T277" t="n">
-        <v>1.721560265028E12</v>
+        <v>1.724136767575E12</v>
       </c>
     </row>
     <row r="278" spans="1:20">
@@ -19004,10 +19322,10 @@
         <v>1300</v>
       </c>
       <c r="R278" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T278" t="n">
-        <v>1.721560271678E12</v>
+        <v>1.724136787562E12</v>
       </c>
     </row>
     <row r="279" spans="1:20">
@@ -19036,10 +19354,10 @@
         <v>1305</v>
       </c>
       <c r="R279" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T279" t="n">
-        <v>1.721560281278E12</v>
+        <v>1.724136805425E12</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -19068,10 +19386,10 @@
         <v>1305</v>
       </c>
       <c r="R280" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T280" t="n">
-        <v>1.721560288231E12</v>
+        <v>1.724136814086E12</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -19100,10 +19418,10 @@
         <v>1311</v>
       </c>
       <c r="R281" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T281" t="n">
-        <v>1.721560294503E12</v>
+        <v>1.724136832432E12</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -19135,7 +19453,7 @@
         <v>0.0</v>
       </c>
       <c r="T282" t="n">
-        <v>1.721560301287E12</v>
+        <v>1.724136841992E12</v>
       </c>
     </row>
     <row r="283" spans="1:20">
@@ -19164,10 +19482,10 @@
         <v>1321</v>
       </c>
       <c r="R283" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T283" t="n">
-        <v>1.72156030626E12</v>
+        <v>1.724136849773E12</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -19199,7 +19517,7 @@
         <v>0.0</v>
       </c>
       <c r="T284" t="n">
-        <v>1.721560320641E12</v>
+        <v>1.724136863857E12</v>
       </c>
     </row>
     <row r="285" spans="1:20">
@@ -19228,10 +19546,10 @@
         <v>1331</v>
       </c>
       <c r="R285" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T285" t="n">
-        <v>1.721560330004E12</v>
+        <v>1.724136874779E12</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -19260,10 +19578,10 @@
         <v>1336</v>
       </c>
       <c r="R286" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T286" t="n">
-        <v>1.721560337113E12</v>
+        <v>1.724136972597E12</v>
       </c>
     </row>
     <row r="287" spans="1:20">
@@ -19295,7 +19613,7 @@
         <v>0.0</v>
       </c>
       <c r="T287" t="n">
-        <v>1.721560341986E12</v>
+        <v>1.724136992451E12</v>
       </c>
     </row>
     <row r="288" spans="1:20">
@@ -19324,10 +19642,10 @@
         <v>1346</v>
       </c>
       <c r="R288" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T288" t="n">
-        <v>1.721560344515E12</v>
+        <v>1.724137142539E12</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -19359,7 +19677,7 @@
         <v>0.0</v>
       </c>
       <c r="T289" t="n">
-        <v>1.721560347418E12</v>
+        <v>1.724137235084E12</v>
       </c>
     </row>
     <row r="290" spans="1:20">
@@ -19388,10 +19706,10 @@
         <v>1356</v>
       </c>
       <c r="R290" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T290" t="n">
-        <v>1.721560353048E12</v>
+        <v>1.724137797271E12</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -19420,10 +19738,10 @@
         <v>1361</v>
       </c>
       <c r="R291" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T291" t="n">
-        <v>1.721560358079E12</v>
+        <v>1.724138386921E12</v>
       </c>
     </row>
     <row r="292" spans="1:20">
@@ -19452,10 +19770,10 @@
         <v>1366</v>
       </c>
       <c r="R292" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T292" t="n">
-        <v>1.721560360912E12</v>
+        <v>1.724138401083E12</v>
       </c>
     </row>
     <row r="293" spans="1:20">
@@ -19484,10 +19802,10 @@
         <v>454</v>
       </c>
       <c r="R293" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T293" t="n">
-        <v>1.721560364711E12</v>
+        <v>1.724138414148E12</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -19516,10 +19834,10 @@
         <v>1375</v>
       </c>
       <c r="R294" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T294" t="n">
-        <v>1.72156037117E12</v>
+        <v>1.724138428511E12</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -19551,7 +19869,7 @@
         <v>0.0</v>
       </c>
       <c r="T295" t="n">
-        <v>1.721560394184E12</v>
+        <v>1.724138473368E12</v>
       </c>
     </row>
     <row r="296" spans="1:20">
@@ -19580,10 +19898,10 @@
         <v>1382</v>
       </c>
       <c r="R296" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T296" t="n">
-        <v>1.721560396525E12</v>
+        <v>1.724138501247E12</v>
       </c>
     </row>
     <row r="297" spans="1:20">
@@ -19612,10 +19930,10 @@
         <v>1384</v>
       </c>
       <c r="R297" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T297" t="n">
-        <v>1.721560400504E12</v>
+        <v>1.724138531543E12</v>
       </c>
     </row>
     <row r="298" spans="1:20">
@@ -19644,10 +19962,10 @@
         <v>1389</v>
       </c>
       <c r="R298" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T298" t="n">
-        <v>1.721698627448E12</v>
+        <v>1.724138538565E12</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -19676,10 +19994,10 @@
         <v>1389</v>
       </c>
       <c r="R299" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T299" t="n">
-        <v>1.721560406866E12</v>
+        <v>1.724138565395E12</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -19708,10 +20026,10 @@
         <v>1395</v>
       </c>
       <c r="R300" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T300" t="n">
-        <v>1.721560417909E12</v>
+        <v>1.724138600756E12</v>
       </c>
     </row>
     <row r="301" spans="1:20">
@@ -19740,10 +20058,10 @@
         <v>1399</v>
       </c>
       <c r="R301" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T301" t="n">
-        <v>1.721698644538E12</v>
+        <v>1.724138631292E12</v>
       </c>
     </row>
     <row r="302" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3854" uniqueCount="2469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="2471">
   <si>
     <t>题型</t>
   </si>
@@ -7484,6 +7484,12 @@
   </si>
   <si>
     <t>您一共做了: 100题	您的得分： 74.0	做题时长约为64.05Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 57.99999999999999	做题时长约为50.583333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 57.99999999999999	做题时长约为28.033333333333335Min</t>
   </si>
 </sst>
 </file>
@@ -8127,7 +8133,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1654">
+  <cellXfs count="1854">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9684,6 +9690,206 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10275,7 +10481,7 @@
         <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.0</v>
+        <v>501.0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -13599,6 +13805,9 @@
       <c r="T99" t="n">
         <v>1.724117573717E12</v>
       </c>
+      <c r="AA99" t="s">
+        <v>2469</v>
+      </c>
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="1">
@@ -13631,6 +13840,9 @@
       <c r="T100" t="n">
         <v>1.724117581168E12</v>
       </c>
+      <c r="AA100" t="s">
+        <v>2470</v>
+      </c>
     </row>
     <row r="101" spans="1:20">
       <c r="A101" s="1">
@@ -20093,7 +20305,7 @@
         <v>0.0</v>
       </c>
       <c r="T302" t="n">
-        <v>1.721560438006E12</v>
+        <v>1.724139894747E12</v>
       </c>
     </row>
     <row r="303" spans="1:20">
@@ -20125,7 +20337,7 @@
         <v>0.0</v>
       </c>
       <c r="T303" t="n">
-        <v>1.721560458925E12</v>
+        <v>1.72413990889E12</v>
       </c>
     </row>
     <row r="304" spans="1:20">
@@ -20154,10 +20366,10 @@
         <v>1414</v>
       </c>
       <c r="R304" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T304" t="n">
-        <v>1.721560467535E12</v>
+        <v>1.724139926598E12</v>
       </c>
     </row>
     <row r="305" spans="1:20">
@@ -20186,10 +20398,10 @@
         <v>1419</v>
       </c>
       <c r="R305" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T305" t="n">
-        <v>1.721560471527E12</v>
+        <v>1.724139930567E12</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -20221,7 +20433,7 @@
         <v>0.0</v>
       </c>
       <c r="T306" t="n">
-        <v>1.721560484003E12</v>
+        <v>1.7241399332E12</v>
       </c>
     </row>
     <row r="307" spans="1:20">
@@ -20250,10 +20462,10 @@
         <v>1429</v>
       </c>
       <c r="R307" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T307" t="n">
-        <v>1.721560490287E12</v>
+        <v>1.724139935719E12</v>
       </c>
     </row>
     <row r="308" spans="1:20">
@@ -20282,10 +20494,10 @@
         <v>487</v>
       </c>
       <c r="R308" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T308" t="n">
-        <v>1.721560499033E12</v>
+        <v>1.724139938645E12</v>
       </c>
     </row>
     <row r="309" spans="1:20">
@@ -20314,10 +20526,10 @@
         <v>1439</v>
       </c>
       <c r="R309" t="n">
-        <v>1.5499999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T309" t="n">
-        <v>1.723774979897E12</v>
+        <v>1.724139942145E12</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -20346,10 +20558,10 @@
         <v>1445</v>
       </c>
       <c r="R310" t="n">
-        <v>1.5000000000000053</v>
+        <v>1.2500000000000053</v>
       </c>
       <c r="T310" t="n">
-        <v>1.723774983781E12</v>
+        <v>1.72413994539E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -20378,10 +20590,10 @@
         <v>1449</v>
       </c>
       <c r="R311" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T311" t="n">
-        <v>1.721560518063E12</v>
+        <v>1.724139951023E12</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -20413,7 +20625,7 @@
         <v>0.0</v>
       </c>
       <c r="T312" t="n">
-        <v>1.721560522237E12</v>
+        <v>1.724139955758E12</v>
       </c>
     </row>
     <row r="313" spans="1:20">
@@ -20442,10 +20654,10 @@
         <v>1460</v>
       </c>
       <c r="R313" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T313" t="n">
-        <v>1.721560527153E12</v>
+        <v>1.724139967973E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -20474,10 +20686,10 @@
         <v>1465</v>
       </c>
       <c r="R314" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T314" t="n">
-        <v>1.721560557203E12</v>
+        <v>1.724139980087E12</v>
       </c>
     </row>
     <row r="315" spans="1:20">
@@ -20509,7 +20721,7 @@
         <v>0.0</v>
       </c>
       <c r="T315" t="n">
-        <v>1.721560559929E12</v>
+        <v>1.724139987315E12</v>
       </c>
     </row>
     <row r="316" spans="1:20">
@@ -20538,10 +20750,10 @@
         <v>1475</v>
       </c>
       <c r="R316" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T316" t="n">
-        <v>1.721560567298E12</v>
+        <v>1.724139992488E12</v>
       </c>
     </row>
     <row r="317" spans="1:20">
@@ -20570,10 +20782,10 @@
         <v>1480</v>
       </c>
       <c r="R317" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T317" t="n">
-        <v>1.721560649032E12</v>
+        <v>1.724140002642E12</v>
       </c>
     </row>
     <row r="318" spans="1:20">
@@ -20605,7 +20817,7 @@
         <v>0.0</v>
       </c>
       <c r="T318" t="n">
-        <v>1.721560652965E12</v>
+        <v>1.724140032016E12</v>
       </c>
     </row>
     <row r="319" spans="1:20">
@@ -20634,10 +20846,10 @@
         <v>1490</v>
       </c>
       <c r="R319" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T319" t="n">
-        <v>1.721560659275E12</v>
+        <v>1.724140040879E12</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -20669,7 +20881,7 @@
         <v>0.0</v>
       </c>
       <c r="T320" t="n">
-        <v>1.721560665173E12</v>
+        <v>1.724140086568E12</v>
       </c>
     </row>
     <row r="321" spans="1:20">
@@ -20698,10 +20910,10 @@
         <v>1501</v>
       </c>
       <c r="R321" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T321" t="n">
-        <v>1.721560670275E12</v>
+        <v>1.724140093427E12</v>
       </c>
     </row>
     <row r="322" spans="1:20">
@@ -20730,10 +20942,10 @@
         <v>1506</v>
       </c>
       <c r="R322" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T322" t="n">
-        <v>1.721560675658E12</v>
+        <v>1.724140105371E12</v>
       </c>
     </row>
     <row r="323" spans="1:20">
@@ -20762,10 +20974,10 @@
         <v>1511</v>
       </c>
       <c r="R323" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T323" t="n">
-        <v>1.721560677036E12</v>
+        <v>1.724140111338E12</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -20794,10 +21006,10 @@
         <v>1283</v>
       </c>
       <c r="R324" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T324" t="n">
-        <v>1.721560683007E12</v>
+        <v>1.724140118414E12</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -20826,10 +21038,10 @@
         <v>1518</v>
       </c>
       <c r="R325" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T325" t="n">
-        <v>1.721560685516E12</v>
+        <v>1.724140189382E12</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -20858,10 +21070,10 @@
         <v>1521</v>
       </c>
       <c r="R326" t="n">
-        <v>1.399999999999999</v>
+        <v>1.149999999999999</v>
       </c>
       <c r="T326" t="n">
-        <v>1.723774986731E12</v>
+        <v>1.724140196913E12</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -20890,10 +21102,10 @@
         <v>1527</v>
       </c>
       <c r="R327" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T327" t="n">
-        <v>1.721560724317E12</v>
+        <v>1.724140204739E12</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -20922,10 +21134,10 @@
         <v>1532</v>
       </c>
       <c r="R328" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T328" t="n">
-        <v>1.721560740819E12</v>
+        <v>1.724140252603E12</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -20954,10 +21166,10 @@
         <v>1537</v>
       </c>
       <c r="R329" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T329" t="n">
-        <v>1.721560744356E12</v>
+        <v>1.724140258809E12</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -20986,10 +21198,10 @@
         <v>1543</v>
       </c>
       <c r="R330" t="n">
-        <v>1.4000000000000004</v>
+        <v>1.1500000000000004</v>
       </c>
       <c r="T330" t="n">
-        <v>1.72377498859E12</v>
+        <v>1.724140262442E12</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -21021,7 +21233,7 @@
         <v>0.0</v>
       </c>
       <c r="T331" t="n">
-        <v>1.721560765512E12</v>
+        <v>1.724140269528E12</v>
       </c>
     </row>
     <row r="332" spans="1:20">
@@ -21050,10 +21262,10 @@
         <v>1554</v>
       </c>
       <c r="R332" t="n">
-        <v>1.6999999999999988</v>
+        <v>1.4499999999999988</v>
       </c>
       <c r="T332" t="n">
-        <v>1.723776806138E12</v>
+        <v>1.724140316974E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -21082,10 +21294,10 @@
         <v>1559</v>
       </c>
       <c r="R333" t="n">
-        <v>1.6500000000000008</v>
+        <v>1.4000000000000008</v>
       </c>
       <c r="T333" t="n">
-        <v>1.723775023804E12</v>
+        <v>1.724140331472E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -21114,10 +21326,10 @@
         <v>1564</v>
       </c>
       <c r="R334" t="n">
-        <v>1.4999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T334" t="n">
-        <v>1.723776810257E12</v>
+        <v>1.724140391604E12</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -21146,10 +21358,10 @@
         <v>1238</v>
       </c>
       <c r="R335" t="n">
-        <v>1.4999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T335" t="n">
-        <v>1.723775060845E12</v>
+        <v>1.724140430275E12</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -21178,10 +21390,10 @@
         <v>1573</v>
       </c>
       <c r="R336" t="n">
-        <v>1.7000000000000033</v>
+        <v>1.4500000000000033</v>
       </c>
       <c r="T336" t="n">
-        <v>1.723511507369E12</v>
+        <v>1.724140439955E12</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -21210,10 +21422,10 @@
         <v>1578</v>
       </c>
       <c r="R337" t="n">
-        <v>1.5499999999999998</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="T337" t="n">
-        <v>1.723775070521E12</v>
+        <v>1.724140465304E12</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -21242,10 +21454,10 @@
         <v>1583</v>
       </c>
       <c r="R338" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T338" t="n">
-        <v>1.721560858474E12</v>
+        <v>1.724140494326E12</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -21277,7 +21489,7 @@
         <v>0.0</v>
       </c>
       <c r="T339" t="n">
-        <v>1.721560863778E12</v>
+        <v>1.724140500668E12</v>
       </c>
     </row>
     <row r="340" spans="1:20">
@@ -21309,7 +21521,7 @@
         <v>0.0</v>
       </c>
       <c r="T340" t="n">
-        <v>1.721560868836E12</v>
+        <v>1.724140511002E12</v>
       </c>
     </row>
     <row r="341" spans="1:20">
@@ -21341,7 +21553,7 @@
         <v>0.0</v>
       </c>
       <c r="T341" t="n">
-        <v>1.721560871514E12</v>
+        <v>1.724140535004E12</v>
       </c>
     </row>
     <row r="342" spans="1:20">
@@ -21370,10 +21582,10 @@
         <v>1604</v>
       </c>
       <c r="R342" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T342" t="n">
-        <v>1.721560875828E12</v>
+        <v>1.724140540054E12</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -21402,10 +21614,10 @@
         <v>1609</v>
       </c>
       <c r="R343" t="n">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="T343" t="n">
-        <v>1.721699025675E12</v>
+        <v>1.724140545968E12</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -21434,10 +21646,10 @@
         <v>1614</v>
       </c>
       <c r="R344" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T344" t="n">
-        <v>1.721560882096E12</v>
+        <v>1.724140554263E12</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -21466,10 +21678,10 @@
         <v>1618</v>
       </c>
       <c r="R345" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T345" t="n">
-        <v>1.72156088499E12</v>
+        <v>1.724140566816E12</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -21498,10 +21710,10 @@
         <v>1622</v>
       </c>
       <c r="R346" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T346" t="n">
-        <v>1.721560904947E12</v>
+        <v>1.724140607738E12</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -21530,10 +21742,10 @@
         <v>1626</v>
       </c>
       <c r="R347" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T347" t="n">
-        <v>1.721560911971E12</v>
+        <v>1.724140613142E12</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -21562,10 +21774,10 @@
         <v>1631</v>
       </c>
       <c r="R348" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T348" t="n">
-        <v>1.721560917573E12</v>
+        <v>1.724140623781E12</v>
       </c>
     </row>
     <row r="349" spans="1:20">
@@ -21594,10 +21806,10 @@
         <v>1635</v>
       </c>
       <c r="R349" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T349" t="n">
-        <v>1.721699029608E12</v>
+        <v>1.724140639781E12</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -21626,10 +21838,10 @@
         <v>1640</v>
       </c>
       <c r="R350" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T350" t="n">
-        <v>1.721560927734E12</v>
+        <v>1.724140671894E12</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -21658,10 +21870,10 @@
         <v>1645</v>
       </c>
       <c r="R351" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T351" t="n">
-        <v>1.721560930492E12</v>
+        <v>1.724140678357E12</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -21693,7 +21905,7 @@
         <v>0.0</v>
       </c>
       <c r="T352" t="n">
-        <v>1.72156093298E12</v>
+        <v>1.72414069359E12</v>
       </c>
     </row>
     <row r="353" spans="1:20">
@@ -21722,10 +21934,10 @@
         <v>1651</v>
       </c>
       <c r="R353" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T353" t="n">
-        <v>1.721560937454E12</v>
+        <v>1.724140698527E12</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -21754,10 +21966,10 @@
         <v>1656</v>
       </c>
       <c r="R354" t="n">
-        <v>1.65</v>
+        <v>2.65</v>
       </c>
       <c r="T354" t="n">
-        <v>1.72169903841E12</v>
+        <v>1.724140747712E12</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -21786,10 +21998,10 @@
         <v>1661</v>
       </c>
       <c r="R355" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T355" t="n">
-        <v>1.721560952652E12</v>
+        <v>1.72414077072E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -21818,10 +22030,10 @@
         <v>1666</v>
       </c>
       <c r="R356" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T356" t="n">
-        <v>1.72156096882E12</v>
+        <v>1.724140842415E12</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -21853,7 +22065,7 @@
         <v>0.0</v>
       </c>
       <c r="T357" t="n">
-        <v>1.721560971612E12</v>
+        <v>1.724140891884E12</v>
       </c>
     </row>
     <row r="358" spans="1:20">
@@ -21882,10 +22094,10 @@
         <v>1676</v>
       </c>
       <c r="R358" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T358" t="n">
-        <v>1.721560975357E12</v>
+        <v>1.724140897385E12</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -21914,10 +22126,10 @@
         <v>1681</v>
       </c>
       <c r="R359" t="n">
-        <v>1.6500000000000115</v>
+        <v>1.4000000000000115</v>
       </c>
       <c r="T359" t="n">
-        <v>1.723775074336E12</v>
+        <v>1.72414094215E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -21949,7 +22161,7 @@
         <v>0.0</v>
       </c>
       <c r="T360" t="n">
-        <v>1.721561008575E12</v>
+        <v>1.724141282518E12</v>
       </c>
     </row>
     <row r="361" spans="1:20">
@@ -21981,7 +22193,7 @@
         <v>0.0</v>
       </c>
       <c r="T361" t="n">
-        <v>1.721561013184E12</v>
+        <v>1.724141294037E12</v>
       </c>
     </row>
     <row r="362" spans="1:20">
@@ -22010,10 +22222,10 @@
         <v>1695</v>
       </c>
       <c r="R362" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T362" t="n">
-        <v>1.721561015788E12</v>
+        <v>1.724141302009E12</v>
       </c>
     </row>
     <row r="363" spans="1:20">
@@ -22045,7 +22257,7 @@
         <v>0.0</v>
       </c>
       <c r="T363" t="n">
-        <v>1.721561068775E12</v>
+        <v>1.724141318431E12</v>
       </c>
     </row>
     <row r="364" spans="1:20">
@@ -22074,10 +22286,10 @@
         <v>1705</v>
       </c>
       <c r="R364" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T364" t="n">
-        <v>1.721561090711E12</v>
+        <v>1.724141334302E12</v>
       </c>
     </row>
     <row r="365" spans="1:20">
@@ -22109,7 +22321,7 @@
         <v>0.0</v>
       </c>
       <c r="T365" t="n">
-        <v>1.721561105814E12</v>
+        <v>1.724141344966E12</v>
       </c>
     </row>
     <row r="366" spans="1:20">
@@ -22138,10 +22350,10 @@
         <v>1715</v>
       </c>
       <c r="R366" t="n">
-        <v>1.6500000000000008</v>
+        <v>1.4000000000000008</v>
       </c>
       <c r="T366" t="n">
-        <v>1.723446122588E12</v>
+        <v>1.724141348653E12</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -22170,10 +22382,10 @@
         <v>1720</v>
       </c>
       <c r="R367" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T367" t="n">
-        <v>1.72156111751E12</v>
+        <v>1.724141378313E12</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -22205,7 +22417,7 @@
         <v>0.0</v>
       </c>
       <c r="T368" t="n">
-        <v>1.721561122223E12</v>
+        <v>1.724141387464E12</v>
       </c>
     </row>
     <row r="369" spans="1:20">
@@ -22234,10 +22446,10 @@
         <v>1730</v>
       </c>
       <c r="R369" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T369" t="n">
-        <v>1.721561124923E12</v>
+        <v>1.724141392987E12</v>
       </c>
     </row>
     <row r="370" spans="1:20">
@@ -22266,10 +22478,10 @@
         <v>1735</v>
       </c>
       <c r="R370" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T370" t="n">
-        <v>1.721561127393E12</v>
+        <v>1.724141407309E12</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -22298,10 +22510,10 @@
         <v>1740</v>
       </c>
       <c r="R371" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T371" t="n">
-        <v>1.721561132153E12</v>
+        <v>1.724141476059E12</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -22330,10 +22542,10 @@
         <v>779</v>
       </c>
       <c r="R372" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T372" t="n">
-        <v>1.721561137906E12</v>
+        <v>1.724141486916E12</v>
       </c>
     </row>
     <row r="373" spans="1:20">
@@ -22362,10 +22574,10 @@
         <v>1748</v>
       </c>
       <c r="R373" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T373" t="n">
-        <v>1.721561141423E12</v>
+        <v>1.724141507485E12</v>
       </c>
     </row>
     <row r="374" spans="1:20">
@@ -22394,10 +22606,10 @@
         <v>1753</v>
       </c>
       <c r="R374" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T374" t="n">
-        <v>1.721561148593E12</v>
+        <v>1.724141514489E12</v>
       </c>
     </row>
     <row r="375" spans="1:20">
@@ -22426,10 +22638,10 @@
         <v>1758</v>
       </c>
       <c r="R375" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T375" t="n">
-        <v>1.721561301166E12</v>
+        <v>1.724141542706E12</v>
       </c>
     </row>
     <row r="376" spans="1:20">
@@ -22461,7 +22673,7 @@
         <v>0.0</v>
       </c>
       <c r="T376" t="n">
-        <v>1.721561306026E12</v>
+        <v>1.724141566072E12</v>
       </c>
     </row>
     <row r="377" spans="1:20">
@@ -22490,10 +22702,10 @@
         <v>1767</v>
       </c>
       <c r="R377" t="n">
-        <v>1.5000000000000053</v>
+        <v>1.2500000000000053</v>
       </c>
       <c r="T377" t="n">
-        <v>1.723775088613E12</v>
+        <v>1.724141575726E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -22522,10 +22734,10 @@
         <v>1771</v>
       </c>
       <c r="R378" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T378" t="n">
-        <v>1.721561323058E12</v>
+        <v>1.724141616064E12</v>
       </c>
     </row>
     <row r="379" spans="1:20">
@@ -22554,10 +22766,10 @@
         <v>1621</v>
       </c>
       <c r="R379" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T379" t="n">
-        <v>1.7215613289E12</v>
+        <v>1.724141627848E12</v>
       </c>
     </row>
     <row r="380" spans="1:20">
@@ -22589,7 +22801,7 @@
         <v>0.0</v>
       </c>
       <c r="T380" t="n">
-        <v>1.721561332491E12</v>
+        <v>1.724141742888E12</v>
       </c>
     </row>
     <row r="381" spans="1:20">
@@ -22621,7 +22833,7 @@
         <v>0.0</v>
       </c>
       <c r="T381" t="n">
-        <v>1.72156133607E12</v>
+        <v>1.724141746191E12</v>
       </c>
     </row>
     <row r="382" spans="1:20">
@@ -22653,7 +22865,7 @@
         <v>0.0</v>
       </c>
       <c r="T382" t="n">
-        <v>1.721561339575E12</v>
+        <v>1.72414176979E12</v>
       </c>
     </row>
     <row r="383" spans="1:20">
@@ -22682,10 +22894,10 @@
         <v>1793</v>
       </c>
       <c r="R383" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T383" t="n">
-        <v>1.721561343313E12</v>
+        <v>1.724141777369E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -22714,10 +22926,10 @@
         <v>1798</v>
       </c>
       <c r="R384" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T384" t="n">
-        <v>1.721561349842E12</v>
+        <v>1.724141783143E12</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -22746,10 +22958,10 @@
         <v>1803</v>
       </c>
       <c r="R385" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T385" t="n">
-        <v>1.721561355467E12</v>
+        <v>1.724141829878E12</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -22778,10 +22990,10 @@
         <v>1808</v>
       </c>
       <c r="R386" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T386" t="n">
-        <v>1.721561363616E12</v>
+        <v>1.724141835254E12</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -22810,10 +23022,10 @@
         <v>1813</v>
       </c>
       <c r="R387" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T387" t="n">
-        <v>1.721561367457E12</v>
+        <v>1.724141847196E12</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -22842,10 +23054,10 @@
         <v>1818</v>
       </c>
       <c r="R388" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T388" t="n">
-        <v>1.721561372536E12</v>
+        <v>1.724141862368E12</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -22877,7 +23089,7 @@
         <v>0.0</v>
       </c>
       <c r="T389" t="n">
-        <v>1.721561375666E12</v>
+        <v>1.724141871142E12</v>
       </c>
     </row>
     <row r="390" spans="1:20">
@@ -22909,7 +23121,7 @@
         <v>0.0</v>
       </c>
       <c r="T390" t="n">
-        <v>1.721561379497E12</v>
+        <v>1.724141875306E12</v>
       </c>
     </row>
     <row r="391" spans="1:20">
@@ -22941,7 +23153,7 @@
         <v>0.0</v>
       </c>
       <c r="T391" t="n">
-        <v>1.721561381831E12</v>
+        <v>1.724141878391E12</v>
       </c>
     </row>
     <row r="392" spans="1:20">
@@ -22973,7 +23185,7 @@
         <v>0.0</v>
       </c>
       <c r="T392" t="n">
-        <v>1.721561386376E12</v>
+        <v>1.724141882048E12</v>
       </c>
     </row>
     <row r="393" spans="1:20">
@@ -23002,10 +23214,10 @@
         <v>1841</v>
       </c>
       <c r="R393" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T393" t="n">
-        <v>1.72156139317E12</v>
+        <v>1.724141886132E12</v>
       </c>
     </row>
     <row r="394" spans="1:20">
@@ -23034,10 +23246,10 @@
         <v>1846</v>
       </c>
       <c r="R394" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T394" t="n">
-        <v>1.721561399125E12</v>
+        <v>1.724141914871E12</v>
       </c>
     </row>
     <row r="395" spans="1:20">
@@ -23066,10 +23278,10 @@
         <v>1851</v>
       </c>
       <c r="R395" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T395" t="n">
-        <v>1.721561404297E12</v>
+        <v>1.724141920299E12</v>
       </c>
     </row>
     <row r="396" spans="1:20">
@@ -23098,10 +23310,10 @@
         <v>1856</v>
       </c>
       <c r="R396" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T396" t="n">
-        <v>1.721561410828E12</v>
+        <v>1.724141935087E12</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -23133,7 +23345,7 @@
         <v>0.0</v>
       </c>
       <c r="T397" t="n">
-        <v>1.721561415023E12</v>
+        <v>1.724141941172E12</v>
       </c>
     </row>
     <row r="398" spans="1:20">
@@ -23162,10 +23374,10 @@
         <v>1865</v>
       </c>
       <c r="R398" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T398" t="n">
-        <v>1.721561419745E12</v>
+        <v>1.724142045614E12</v>
       </c>
     </row>
     <row r="399" spans="1:20">
@@ -23194,10 +23406,10 @@
         <v>1870</v>
       </c>
       <c r="R399" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T399" t="n">
-        <v>1.721561426885E12</v>
+        <v>1.724142053644E12</v>
       </c>
     </row>
     <row r="400" spans="1:20">
@@ -23226,10 +23438,10 @@
         <v>1875</v>
       </c>
       <c r="R400" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T400" t="n">
-        <v>1.721561433711E12</v>
+        <v>1.724142893265E12</v>
       </c>
     </row>
     <row r="401" spans="1:20">
@@ -23258,10 +23470,10 @@
         <v>1880</v>
       </c>
       <c r="R401" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T401" t="n">
-        <v>1.721561438932E12</v>
+        <v>1.724142928919E12</v>
       </c>
     </row>
     <row r="402" spans="1:20">
@@ -23290,10 +23502,10 @@
         <v>1885</v>
       </c>
       <c r="R402" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T402" t="n">
-        <v>1.72156421891E12</v>
+        <v>1.72414372637E12</v>
       </c>
     </row>
     <row r="403" spans="1:20">
@@ -23322,10 +23534,10 @@
         <v>1890</v>
       </c>
       <c r="R403" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T403" t="n">
-        <v>1.721564224599E12</v>
+        <v>1.724143781228E12</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -23354,10 +23566,10 @@
         <v>1895</v>
       </c>
       <c r="R404" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T404" t="n">
-        <v>1.721564233101E12</v>
+        <v>1.724143790877E12</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -23386,10 +23598,10 @@
         <v>1900</v>
       </c>
       <c r="R405" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T405" t="n">
-        <v>1.721564236283E12</v>
+        <v>1.724143814786E12</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -23418,10 +23630,10 @@
         <v>1905</v>
       </c>
       <c r="R406" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T406" t="n">
-        <v>1.721564238853E12</v>
+        <v>1.724144079924E12</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -23450,10 +23662,10 @@
         <v>1910</v>
       </c>
       <c r="R407" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T407" t="n">
-        <v>1.72156424261E12</v>
+        <v>1.724144084943E12</v>
       </c>
     </row>
     <row r="408" spans="1:20">
@@ -23485,7 +23697,7 @@
         <v>0.0</v>
       </c>
       <c r="T408" t="n">
-        <v>1.721564254952E12</v>
+        <v>1.724144110777E12</v>
       </c>
     </row>
     <row r="409" spans="1:20">
@@ -23514,10 +23726,10 @@
         <v>1920</v>
       </c>
       <c r="R409" t="n">
-        <v>1.4999999999999996</v>
+        <v>1.2499999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.723775096961E12</v>
+        <v>1.724144115628E12</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -23546,10 +23758,10 @@
         <v>1925</v>
       </c>
       <c r="R410" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T410" t="n">
-        <v>1.721564286751E12</v>
+        <v>1.724144119916E12</v>
       </c>
     </row>
     <row r="411" spans="1:20">
@@ -23581,7 +23793,7 @@
         <v>0.0</v>
       </c>
       <c r="T411" t="n">
-        <v>1.721564289963E12</v>
+        <v>1.72414417835E12</v>
       </c>
     </row>
     <row r="412" spans="1:20">
@@ -23613,7 +23825,7 @@
         <v>0.0</v>
       </c>
       <c r="T412" t="n">
-        <v>1.721564292891E12</v>
+        <v>1.724144182243E12</v>
       </c>
     </row>
     <row r="413" spans="1:20">
@@ -23642,10 +23854,10 @@
         <v>1000</v>
       </c>
       <c r="R413" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T413" t="n">
-        <v>1.721564302475E12</v>
+        <v>1.724144189915E12</v>
       </c>
     </row>
     <row r="414" spans="1:20">
@@ -23674,10 +23886,10 @@
         <v>1943</v>
       </c>
       <c r="R414" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T414" t="n">
-        <v>1.72156430525E12</v>
+        <v>1.724144200938E12</v>
       </c>
     </row>
     <row r="415" spans="1:20">
@@ -23706,10 +23918,10 @@
         <v>1948</v>
       </c>
       <c r="R415" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T415" t="n">
-        <v>1.72156430895E12</v>
+        <v>1.724144209536E12</v>
       </c>
     </row>
     <row r="416" spans="1:20">
@@ -23741,7 +23953,7 @@
         <v>0.0</v>
       </c>
       <c r="T416" t="n">
-        <v>1.721564322555E12</v>
+        <v>1.724144249261E12</v>
       </c>
     </row>
     <row r="417" spans="1:20">
@@ -23773,7 +23985,7 @@
         <v>0.0</v>
       </c>
       <c r="T417" t="n">
-        <v>1.721564327318E12</v>
+        <v>1.724144259673E12</v>
       </c>
     </row>
     <row r="418" spans="1:20">
@@ -23802,10 +24014,10 @@
         <v>1963</v>
       </c>
       <c r="R418" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T418" t="n">
-        <v>1.72156433899E12</v>
+        <v>1.72414427323E12</v>
       </c>
     </row>
     <row r="419" spans="1:20">
@@ -23837,7 +24049,7 @@
         <v>0.0</v>
       </c>
       <c r="T419" t="n">
-        <v>1.721564345057E12</v>
+        <v>1.724144286372E12</v>
       </c>
     </row>
     <row r="420" spans="1:20">
@@ -23866,10 +24078,10 @@
         <v>1970</v>
       </c>
       <c r="R420" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T420" t="n">
-        <v>1.721564363311E12</v>
+        <v>1.724144293518E12</v>
       </c>
     </row>
     <row r="421" spans="1:20">
@@ -23898,10 +24110,10 @@
         <v>1975</v>
       </c>
       <c r="R421" t="n">
-        <v>1.4499999999999993</v>
+        <v>1.1999999999999993</v>
       </c>
       <c r="T421" t="n">
-        <v>1.723775100504E12</v>
+        <v>1.724144299015E12</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -23933,7 +24145,7 @@
         <v>0.0</v>
       </c>
       <c r="T422" t="n">
-        <v>1.72156437662E12</v>
+        <v>1.724144305191E12</v>
       </c>
     </row>
     <row r="423" spans="1:20">
@@ -23962,10 +24174,10 @@
         <v>208</v>
       </c>
       <c r="R423" t="n">
-        <v>1.5500000000000047</v>
+        <v>1.3000000000000047</v>
       </c>
       <c r="T423" t="n">
-        <v>1.723775104049E12</v>
+        <v>1.724144366342E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -23994,10 +24206,10 @@
         <v>1986</v>
       </c>
       <c r="R424" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T424" t="n">
-        <v>1.721564396057E12</v>
+        <v>1.724144370346E12</v>
       </c>
     </row>
     <row r="425" spans="1:20">
@@ -24026,10 +24238,10 @@
         <v>1991</v>
       </c>
       <c r="R425" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T425" t="n">
-        <v>1.721564404811E12</v>
+        <v>1.724144389927E12</v>
       </c>
     </row>
     <row r="426" spans="1:20">
@@ -24058,10 +24270,10 @@
         <v>1996</v>
       </c>
       <c r="R426" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T426" t="n">
-        <v>1.721564409658E12</v>
+        <v>1.724144397373E12</v>
       </c>
     </row>
     <row r="427" spans="1:20">
@@ -24090,10 +24302,10 @@
         <v>2001</v>
       </c>
       <c r="R427" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T427" t="n">
-        <v>1.721564412711E12</v>
+        <v>1.724144409297E12</v>
       </c>
     </row>
     <row r="428" spans="1:20">
@@ -24125,7 +24337,7 @@
         <v>0.0</v>
       </c>
       <c r="T428" t="n">
-        <v>1.721564416218E12</v>
+        <v>1.724144447619E12</v>
       </c>
     </row>
     <row r="429" spans="1:20">
@@ -24154,10 +24366,10 @@
         <v>2011</v>
       </c>
       <c r="R429" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T429" t="n">
-        <v>1.721564420764E12</v>
+        <v>1.724144451249E12</v>
       </c>
     </row>
     <row r="430" spans="1:20">
@@ -24186,10 +24398,10 @@
         <v>2016</v>
       </c>
       <c r="R430" t="n">
-        <v>1.3999999999999995</v>
+        <v>1.1499999999999995</v>
       </c>
       <c r="T430" t="n">
-        <v>1.723775112927E12</v>
+        <v>1.724144456909E12</v>
       </c>
     </row>
     <row r="431" spans="1:20">
@@ -24218,10 +24430,10 @@
         <v>2021</v>
       </c>
       <c r="R431" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T431" t="n">
-        <v>1.721564427794E12</v>
+        <v>1.724144460774E12</v>
       </c>
     </row>
     <row r="432" spans="1:20">
@@ -24250,10 +24462,10 @@
         <v>2026</v>
       </c>
       <c r="R432" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T432" t="n">
-        <v>1.72156444272E12</v>
+        <v>1.724144467928E12</v>
       </c>
     </row>
     <row r="433" spans="1:20">
@@ -24282,10 +24494,10 @@
         <v>2031</v>
       </c>
       <c r="R433" t="n">
-        <v>1.7999999999999994</v>
+        <v>1.5499999999999994</v>
       </c>
       <c r="T433" t="n">
-        <v>1.723776812681E12</v>
+        <v>1.724144475382E12</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -24314,10 +24526,10 @@
         <v>2036</v>
       </c>
       <c r="R434" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T434" t="n">
-        <v>1.721564453469E12</v>
+        <v>1.724144483968E12</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -24346,10 +24558,10 @@
         <v>2041</v>
       </c>
       <c r="R435" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T435" t="n">
-        <v>1.721564457794E12</v>
+        <v>1.724144496923E12</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -24378,10 +24590,10 @@
         <v>2046</v>
       </c>
       <c r="R436" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T436" t="n">
-        <v>1.721564461968E12</v>
+        <v>1.724144505174E12</v>
       </c>
     </row>
     <row r="437" spans="1:20">
@@ -24410,10 +24622,10 @@
         <v>2049</v>
       </c>
       <c r="R437" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T437" t="n">
-        <v>1.721564471744E12</v>
+        <v>1.724144531628E12</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -24442,10 +24654,10 @@
         <v>2054</v>
       </c>
       <c r="R438" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T438" t="n">
-        <v>1.721564478258E12</v>
+        <v>1.724144538322E12</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -24474,10 +24686,10 @@
         <v>2058</v>
       </c>
       <c r="R439" t="n">
-        <v>1.6500000000000026</v>
+        <v>1.4000000000000026</v>
       </c>
       <c r="T439" t="n">
-        <v>1.723775130291E12</v>
+        <v>1.724144546398E12</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -24506,10 +24718,10 @@
         <v>2058</v>
       </c>
       <c r="R440" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T440" t="n">
-        <v>1.7215644962E12</v>
+        <v>1.724144554974E12</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -24538,10 +24750,10 @@
         <v>2058</v>
       </c>
       <c r="R441" t="n">
-        <v>1.5500000000000047</v>
+        <v>1.3000000000000047</v>
       </c>
       <c r="T441" t="n">
-        <v>1.723775132921E12</v>
+        <v>1.724144559188E12</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -24570,10 +24782,10 @@
         <v>2065</v>
       </c>
       <c r="R442" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T442" t="n">
-        <v>1.72156453315E12</v>
+        <v>1.724144561598E12</v>
       </c>
     </row>
     <row r="443" spans="1:20">
@@ -24602,10 +24814,10 @@
         <v>2058</v>
       </c>
       <c r="R443" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T443" t="n">
-        <v>1.721564537069E12</v>
+        <v>1.724144566343E12</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -24634,10 +24846,10 @@
         <v>2072</v>
       </c>
       <c r="R444" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T444" t="n">
-        <v>1.721564546076E12</v>
+        <v>1.724144598133E12</v>
       </c>
     </row>
     <row r="445" spans="1:20">
@@ -24666,10 +24878,10 @@
         <v>2077</v>
       </c>
       <c r="R445" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T445" t="n">
-        <v>1.72156455245E12</v>
+        <v>1.724144617052E12</v>
       </c>
     </row>
     <row r="446" spans="1:20">
@@ -24698,10 +24910,10 @@
         <v>2082</v>
       </c>
       <c r="R446" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T446" t="n">
-        <v>1.721564559577E12</v>
+        <v>1.72414462847E12</v>
       </c>
     </row>
     <row r="447" spans="1:20">
@@ -24733,7 +24945,7 @@
         <v>0.0</v>
       </c>
       <c r="T447" t="n">
-        <v>1.72156456254E12</v>
+        <v>1.724144634318E12</v>
       </c>
     </row>
     <row r="448" spans="1:20">
@@ -24762,10 +24974,10 @@
         <v>2091</v>
       </c>
       <c r="R448" t="n">
-        <v>1.6999999999999997</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T448" t="n">
-        <v>1.723774923455E12</v>
+        <v>1.724144672222E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -24797,7 +25009,7 @@
         <v>0.0</v>
       </c>
       <c r="T449" t="n">
-        <v>1.721564573613E12</v>
+        <v>1.72414467854E12</v>
       </c>
     </row>
     <row r="450" spans="1:20">
@@ -24826,10 +25038,10 @@
         <v>2101</v>
       </c>
       <c r="R450" t="n">
-        <v>1.4999999999999996</v>
+        <v>2.4999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.723775140353E12</v>
+        <v>1.724144685878E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -24858,10 +25070,10 @@
         <v>2106</v>
       </c>
       <c r="R451" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T451" t="n">
-        <v>1.721564584425E12</v>
+        <v>1.724144705213E12</v>
       </c>
     </row>
     <row r="452" spans="1:20">
@@ -24890,10 +25102,10 @@
         <v>2111</v>
       </c>
       <c r="R452" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T452" t="n">
-        <v>1.721564589541E12</v>
+        <v>1.724144712283E12</v>
       </c>
     </row>
     <row r="453" spans="1:20">
@@ -24922,10 +25134,10 @@
         <v>2116</v>
       </c>
       <c r="R453" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T453" t="n">
-        <v>1.721564601688E12</v>
+        <v>1.724144733675E12</v>
       </c>
     </row>
     <row r="454" spans="1:20">
@@ -24954,10 +25166,10 @@
         <v>2121</v>
       </c>
       <c r="R454" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T454" t="n">
-        <v>1.721564607221E12</v>
+        <v>1.724144739365E12</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -24986,10 +25198,10 @@
         <v>2126</v>
       </c>
       <c r="R455" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T455" t="n">
-        <v>1.721564638851E12</v>
+        <v>1.724144760473E12</v>
       </c>
     </row>
     <row r="456" spans="1:20">
@@ -25021,7 +25233,7 @@
         <v>0.0</v>
       </c>
       <c r="T456" t="n">
-        <v>1.721564643941E12</v>
+        <v>1.724144765044E12</v>
       </c>
     </row>
     <row r="457" spans="1:20">
@@ -25053,7 +25265,7 @@
         <v>0.0</v>
       </c>
       <c r="T457" t="n">
-        <v>1.721564649544E12</v>
+        <v>1.724144769593E12</v>
       </c>
     </row>
     <row r="458" spans="1:20">
@@ -25082,10 +25294,10 @@
         <v>2141</v>
       </c>
       <c r="R458" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T458" t="n">
-        <v>1.721564652378E12</v>
+        <v>1.72414477273E12</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -25114,10 +25326,10 @@
         <v>2143</v>
       </c>
       <c r="R459" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T459" t="n">
-        <v>1.72156465617E12</v>
+        <v>1.724144784721E12</v>
       </c>
     </row>
     <row r="460" spans="1:20">
@@ -25146,10 +25358,10 @@
         <v>2148</v>
       </c>
       <c r="R460" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T460" t="n">
-        <v>1.721564658434E12</v>
+        <v>1.724144789046E12</v>
       </c>
     </row>
     <row r="461" spans="1:20">
@@ -25178,10 +25390,10 @@
         <v>2153</v>
       </c>
       <c r="R461" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T461" t="n">
-        <v>1.721564661772E12</v>
+        <v>1.724144822899E12</v>
       </c>
     </row>
     <row r="462" spans="1:20">
@@ -25210,10 +25422,10 @@
         <v>2158</v>
       </c>
       <c r="R462" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T462" t="n">
-        <v>1.721564665372E12</v>
+        <v>1.724144834698E12</v>
       </c>
     </row>
     <row r="463" spans="1:20">
@@ -25242,10 +25454,10 @@
         <v>2163</v>
       </c>
       <c r="R463" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T463" t="n">
-        <v>1.721564672518E12</v>
+        <v>1.724144850403E12</v>
       </c>
     </row>
     <row r="464" spans="1:20">
@@ -25274,10 +25486,10 @@
         <v>2168</v>
       </c>
       <c r="R464" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T464" t="n">
-        <v>1.721564677325E12</v>
+        <v>1.724144853523E12</v>
       </c>
     </row>
     <row r="465" spans="1:20">
@@ -25306,10 +25518,10 @@
         <v>2172</v>
       </c>
       <c r="R465" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T465" t="n">
-        <v>1.721564681834E12</v>
+        <v>1.724144859107E12</v>
       </c>
     </row>
     <row r="466" spans="1:20">
@@ -25338,10 +25550,10 @@
         <v>2177</v>
       </c>
       <c r="R466" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T466" t="n">
-        <v>1.72156468447E12</v>
+        <v>1.724144904235E12</v>
       </c>
     </row>
     <row r="467" spans="1:20">
@@ -25373,7 +25585,7 @@
         <v>0.0</v>
       </c>
       <c r="T467" t="n">
-        <v>1.721564686551E12</v>
+        <v>1.724144912266E12</v>
       </c>
     </row>
     <row r="468" spans="1:20">
@@ -25402,10 +25614,10 @@
         <v>2187</v>
       </c>
       <c r="R468" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T468" t="n">
-        <v>1.721564688473E12</v>
+        <v>1.724144916547E12</v>
       </c>
     </row>
     <row r="469" spans="1:20">
@@ -25434,10 +25646,10 @@
         <v>2192</v>
       </c>
       <c r="R469" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T469" t="n">
-        <v>1.721564693753E12</v>
+        <v>1.72414493021E12</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -25466,10 +25678,10 @@
         <v>2197</v>
       </c>
       <c r="R470" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T470" t="n">
-        <v>1.721564697511E12</v>
+        <v>1.72414497924E12</v>
       </c>
     </row>
     <row r="471" spans="1:20">
@@ -25498,10 +25710,10 @@
         <v>2202</v>
       </c>
       <c r="R471" t="n">
-        <v>1.649999999999999</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="T471" t="n">
-        <v>1.723776814541E12</v>
+        <v>1.724144984166E12</v>
       </c>
     </row>
     <row r="472" spans="1:20">
@@ -25533,7 +25745,7 @@
         <v>0.0</v>
       </c>
       <c r="T472" t="n">
-        <v>1.721564704728E12</v>
+        <v>1.724145031228E12</v>
       </c>
     </row>
     <row r="473" spans="1:20">
@@ -25562,10 +25774,10 @@
         <v>800</v>
       </c>
       <c r="R473" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T473" t="n">
-        <v>1.721564707961E12</v>
+        <v>1.724145036865E12</v>
       </c>
     </row>
     <row r="474" spans="1:20">
@@ -25594,10 +25806,10 @@
         <v>2216</v>
       </c>
       <c r="R474" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T474" t="n">
-        <v>1.721564712815E12</v>
+        <v>1.724145082683E12</v>
       </c>
     </row>
     <row r="475" spans="1:20">
@@ -25626,10 +25838,10 @@
         <v>2221</v>
       </c>
       <c r="R475" t="n">
-        <v>1.6</v>
+        <v>1.35</v>
       </c>
       <c r="T475" t="n">
-        <v>1.721564716319E12</v>
+        <v>1.72414509279E12</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -25658,10 +25870,10 @@
         <v>2226</v>
       </c>
       <c r="R476" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T476" t="n">
-        <v>1.721564722748E12</v>
+        <v>1.724145103751E12</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -25690,10 +25902,10 @@
         <v>2231</v>
       </c>
       <c r="R477" t="n">
-        <v>1.5500000000000136</v>
+        <v>1.3000000000000136</v>
       </c>
       <c r="T477" t="n">
-        <v>1.723775204845E12</v>
+        <v>1.724145119394E12</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -25722,10 +25934,10 @@
         <v>2236</v>
       </c>
       <c r="R478" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T478" t="n">
-        <v>1.721564741273E12</v>
+        <v>1.724145128122E12</v>
       </c>
     </row>
     <row r="479" spans="1:20">
@@ -25754,10 +25966,10 @@
         <v>2241</v>
       </c>
       <c r="R479" t="n">
-        <v>1.6999999999999997</v>
+        <v>1.4499999999999997</v>
       </c>
       <c r="T479" t="n">
-        <v>1.723081689484E12</v>
+        <v>1.724145131405E12</v>
       </c>
     </row>
     <row r="480" spans="1:20">
@@ -25786,10 +25998,10 @@
         <v>502</v>
       </c>
       <c r="R480" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T480" t="n">
-        <v>1.721564753054E12</v>
+        <v>1.724145145782E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -25818,10 +26030,10 @@
         <v>2249</v>
       </c>
       <c r="R481" t="n">
-        <v>1.0</v>
+        <v>0.75</v>
       </c>
       <c r="T481" t="n">
-        <v>1.721564757646E12</v>
+        <v>1.724145193156E12</v>
       </c>
     </row>
     <row r="482" spans="1:20">
@@ -25850,10 +26062,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>1.6500000000000035</v>
+        <v>2.6500000000000035</v>
       </c>
       <c r="T482" t="n">
-        <v>1.723775207563E12</v>
+        <v>1.724145201206E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -25882,10 +26094,10 @@
         <v>2257</v>
       </c>
       <c r="R483" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="T483" t="n">
-        <v>1.721564769425E12</v>
+        <v>1.724145206669E12</v>
       </c>
     </row>
     <row r="484" spans="1:20">
@@ -25914,10 +26126,10 @@
         <v>2262</v>
       </c>
       <c r="R484" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T484" t="n">
-        <v>1.721564771921E12</v>
+        <v>1.724145219302E12</v>
       </c>
     </row>
     <row r="485" spans="1:20">
@@ -25946,10 +26158,10 @@
         <v>2267</v>
       </c>
       <c r="R485" t="n">
-        <v>1.6000000000000036</v>
+        <v>1.3500000000000036</v>
       </c>
       <c r="T485" t="n">
-        <v>1.723775210714E12</v>
+        <v>1.724145229072E12</v>
       </c>
     </row>
     <row r="486" spans="1:20">
@@ -25978,10 +26190,10 @@
         <v>2272</v>
       </c>
       <c r="R486" t="n">
-        <v>1.6500000000000008</v>
+        <v>1.4000000000000008</v>
       </c>
       <c r="T486" t="n">
-        <v>1.723446166769E12</v>
+        <v>1.724145264522E12</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -26010,10 +26222,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>1.4000000000000021</v>
+        <v>2.400000000000002</v>
       </c>
       <c r="T487" t="n">
-        <v>1.723775230234E12</v>
+        <v>1.72414529142E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26030,10 +26242,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="T488" t="n">
-        <v>1.72156479117E12</v>
+        <v>1.724145299196E12</v>
       </c>
     </row>
     <row r="489" spans="1:20">
@@ -26053,7 +26265,7 @@
         <v>0.0</v>
       </c>
       <c r="T489" t="n">
-        <v>1.721564794341E12</v>
+        <v>1.724145302671E12</v>
       </c>
     </row>
     <row r="490" spans="1:20">
@@ -26070,10 +26282,10 @@
         <v>4</v>
       </c>
       <c r="R490" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T490" t="n">
-        <v>1.721564797716E12</v>
+        <v>1.724145306311E12</v>
       </c>
     </row>
     <row r="491" spans="1:20">
@@ -26090,10 +26302,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T491" t="n">
-        <v>1.721564800042E12</v>
+        <v>1.724145309212E12</v>
       </c>
     </row>
     <row r="492" spans="1:20">
@@ -26113,7 +26325,7 @@
         <v>0.0</v>
       </c>
       <c r="T492" t="n">
-        <v>1.721564803357E12</v>
+        <v>1.724145313792E12</v>
       </c>
     </row>
     <row r="493" spans="1:20">
@@ -26130,10 +26342,10 @@
         <v>3</v>
       </c>
       <c r="R493" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T493" t="n">
-        <v>1.721564806237E12</v>
+        <v>1.724145317333E12</v>
       </c>
     </row>
     <row r="494" spans="1:20">
@@ -26153,7 +26365,7 @@
         <v>0.0</v>
       </c>
       <c r="T494" t="n">
-        <v>1.721564810147E12</v>
+        <v>1.724145320003E12</v>
       </c>
     </row>
     <row r="495" spans="1:20">
@@ -26173,7 +26385,7 @@
         <v>0.0</v>
       </c>
       <c r="T495" t="n">
-        <v>1.721564813527E12</v>
+        <v>1.724145324308E12</v>
       </c>
     </row>
     <row r="496" spans="1:20">
@@ -26190,10 +26402,10 @@
         <v>4</v>
       </c>
       <c r="R496" t="n">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="T496" t="n">
-        <v>1.721564815338E12</v>
+        <v>1.724145354726E12</v>
       </c>
     </row>
     <row r="497" spans="1:20">
@@ -26213,7 +26425,7 @@
         <v>0.0</v>
       </c>
       <c r="T497" t="n">
-        <v>1.721564819509E12</v>
+        <v>1.724145357084E12</v>
       </c>
     </row>
     <row r="498" spans="1:20">
@@ -26230,10 +26442,10 @@
         <v>4</v>
       </c>
       <c r="R498" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T498" t="n">
-        <v>1.721564820815E12</v>
+        <v>1.724145359199E12</v>
       </c>
     </row>
     <row r="499" spans="1:20">
@@ -26250,10 +26462,10 @@
         <v>4</v>
       </c>
       <c r="R499" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T499" t="n">
-        <v>1.721564822735E12</v>
+        <v>1.724145389832E12</v>
       </c>
     </row>
     <row r="500" spans="1:20">
@@ -26273,7 +26485,7 @@
         <v>0.0</v>
       </c>
       <c r="T500" t="n">
-        <v>1.721564825195E12</v>
+        <v>1.724145393079E12</v>
       </c>
     </row>
     <row r="501" spans="1:20">
@@ -26293,7 +26505,7 @@
         <v>0.0</v>
       </c>
       <c r="T501" t="n">
-        <v>1.721564828831E12</v>
+        <v>1.724145404918E12</v>
       </c>
     </row>
     <row r="502" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3856" uniqueCount="2471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="2474">
   <si>
     <t>题型</t>
   </si>
@@ -7490,6 +7490,15 @@
   </si>
   <si>
     <t>您一共做了: 100题	您的得分： 57.99999999999999	做题时长约为28.033333333333335Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 99题	您的得分： 91.91919191919192	做题时长约为64.03333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 75.0	做题时长约为0.6166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.23333333333333334Min</t>
   </si>
 </sst>
 </file>
@@ -8133,7 +8142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1854">
+  <cellXfs count="1963">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9790,97 +9799,206 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10615,10 +10733,10 @@
         <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.724057776237E12</v>
+        <v>1.72420169877E12</v>
       </c>
       <c r="AA8" t="s">
         <v>50</v>
@@ -11140,10 +11258,10 @@
         <v>128</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724058407304E12</v>
+        <v>1.724201703975E12</v>
       </c>
       <c r="AA23" t="s">
         <v>2405</v>
@@ -11210,10 +11328,10 @@
         <v>138</v>
       </c>
       <c r="R25" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.724058447687E12</v>
+        <v>1.72420170974E12</v>
       </c>
       <c r="AA25" t="s">
         <v>2407</v>
@@ -11525,10 +11643,10 @@
         <v>183</v>
       </c>
       <c r="R34" t="n">
-        <v>2.65</v>
+        <v>4.15</v>
       </c>
       <c r="T34" t="n">
-        <v>1.724058707327E12</v>
+        <v>1.724205595004E12</v>
       </c>
       <c r="AA34" t="s">
         <v>2416</v>
@@ -11595,10 +11713,10 @@
         <v>193</v>
       </c>
       <c r="R36" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T36" t="n">
-        <v>1.724113549045E12</v>
+        <v>1.724201718305E12</v>
       </c>
       <c r="AA36" t="s">
         <v>2418</v>
@@ -11805,10 +11923,10 @@
         <v>223</v>
       </c>
       <c r="R42" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T42" t="n">
-        <v>1.724113784999E12</v>
+        <v>1.724201736818E12</v>
       </c>
       <c r="AA42" t="s">
         <v>2423</v>
@@ -12155,10 +12273,10 @@
         <v>271</v>
       </c>
       <c r="R52" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T52" t="n">
-        <v>1.724116764735E12</v>
+        <v>1.724201740417E12</v>
       </c>
       <c r="AA52" t="s">
         <v>2430</v>
@@ -12260,10 +12378,10 @@
         <v>286</v>
       </c>
       <c r="R55" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724116865103E12</v>
+        <v>1.724201751887E12</v>
       </c>
       <c r="AA55" t="s">
         <v>2433</v>
@@ -12365,10 +12483,10 @@
         <v>301</v>
       </c>
       <c r="R58" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.724116927999E12</v>
+        <v>1.724201755642E12</v>
       </c>
       <c r="AA58" t="s">
         <v>50</v>
@@ -12645,10 +12763,10 @@
         <v>340</v>
       </c>
       <c r="R66" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T66" t="n">
-        <v>1.724117186915E12</v>
+        <v>1.72420343495E12</v>
       </c>
       <c r="AA66" t="s">
         <v>2441</v>
@@ -12750,10 +12868,10 @@
         <v>354</v>
       </c>
       <c r="R69" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T69" t="n">
-        <v>1.7241172559E12</v>
+        <v>1.724203440391E12</v>
       </c>
       <c r="AA69" t="s">
         <v>2436</v>
@@ -12785,10 +12903,10 @@
         <v>359</v>
       </c>
       <c r="R70" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T70" t="n">
-        <v>1.724117277528E12</v>
+        <v>1.724203444553E12</v>
       </c>
       <c r="AA70" t="s">
         <v>2443</v>
@@ -12925,10 +13043,10 @@
         <v>379</v>
       </c>
       <c r="R74" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724117334978E12</v>
+        <v>1.724203471009E12</v>
       </c>
       <c r="AA74" t="s">
         <v>2447</v>
@@ -13205,10 +13323,10 @@
         <v>301</v>
       </c>
       <c r="R82" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724117416094E12</v>
+        <v>1.724203473142E12</v>
       </c>
       <c r="AA82" t="s">
         <v>2453</v>
@@ -13765,10 +13883,10 @@
         <v>492</v>
       </c>
       <c r="R98" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T98" t="n">
-        <v>1.724117566381E12</v>
+        <v>1.724203474827E12</v>
       </c>
       <c r="AA98" t="s">
         <v>2468</v>
@@ -13875,6 +13993,9 @@
       <c r="T101" t="n">
         <v>1.724117605232E12</v>
       </c>
+      <c r="AA101" t="s">
+        <v>2471</v>
+      </c>
     </row>
     <row r="102" spans="1:20">
       <c r="A102" s="1">
@@ -13907,6 +14028,9 @@
       <c r="T102" t="n">
         <v>1.724118050484E12</v>
       </c>
+      <c r="AA102" t="s">
+        <v>2472</v>
+      </c>
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="1">
@@ -13939,6 +14063,9 @@
       <c r="T103" t="n">
         <v>1.724118111561E12</v>
       </c>
+      <c r="AA103" t="s">
+        <v>2473</v>
+      </c>
     </row>
     <row r="104" spans="1:20">
       <c r="A104" s="1">
@@ -14318,10 +14445,10 @@
         <v>568</v>
       </c>
       <c r="R115" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T115" t="n">
-        <v>1.724118502352E12</v>
+        <v>1.724203520066E12</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -14638,10 +14765,10 @@
         <v>616</v>
       </c>
       <c r="R125" t="n">
-        <v>2.450000000000001</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="T125" t="n">
-        <v>1.724118956006E12</v>
+        <v>1.724203524141E12</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14798,10 +14925,10 @@
         <v>640</v>
       </c>
       <c r="R130" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T130" t="n">
-        <v>1.724119041869E12</v>
+        <v>1.724203528225E12</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -14830,10 +14957,10 @@
         <v>645</v>
       </c>
       <c r="R131" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724119061032E12</v>
+        <v>1.724203533412E12</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -15022,10 +15149,10 @@
         <v>671</v>
       </c>
       <c r="R137" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T137" t="n">
-        <v>1.72411913725E12</v>
+        <v>1.724203537104E12</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -15054,10 +15181,10 @@
         <v>676</v>
       </c>
       <c r="R138" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724119154897E12</v>
+        <v>1.724203543628E12</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -15182,10 +15309,10 @@
         <v>695</v>
       </c>
       <c r="R142" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T142" t="n">
-        <v>1.724119223847E12</v>
+        <v>1.724203553221E12</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -15214,10 +15341,10 @@
         <v>700</v>
       </c>
       <c r="R143" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T143" t="n">
-        <v>1.724119243734E12</v>
+        <v>1.724203556463E12</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -15438,10 +15565,10 @@
         <v>734</v>
       </c>
       <c r="R150" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T150" t="n">
-        <v>1.724119339519E12</v>
+        <v>1.724203560926E12</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -15566,10 +15693,10 @@
         <v>753</v>
       </c>
       <c r="R154" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T154" t="n">
-        <v>1.7241194007E12</v>
+        <v>1.724203566856E12</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -15694,10 +15821,10 @@
         <v>771</v>
       </c>
       <c r="R158" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T158" t="n">
-        <v>1.724119640256E12</v>
+        <v>1.724203569268E12</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -15918,10 +16045,10 @@
         <v>805</v>
       </c>
       <c r="R165" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724119888605E12</v>
+        <v>1.72420357211E12</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -16110,10 +16237,10 @@
         <v>834</v>
       </c>
       <c r="R171" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T171" t="n">
-        <v>1.724120063165E12</v>
+        <v>1.724203601221E12</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -16174,10 +16301,10 @@
         <v>844</v>
       </c>
       <c r="R173" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724120083217E12</v>
+        <v>1.724204195373E12</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -16270,10 +16397,10 @@
         <v>275</v>
       </c>
       <c r="R176" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T176" t="n">
-        <v>1.724120126237E12</v>
+        <v>1.724204200747E12</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -16334,10 +16461,10 @@
         <v>862</v>
       </c>
       <c r="R178" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T178" t="n">
-        <v>1.724120140583E12</v>
+        <v>1.724204247503E12</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -16526,10 +16653,10 @@
         <v>885</v>
       </c>
       <c r="R184" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T184" t="n">
-        <v>1.724120182821E12</v>
+        <v>1.724205549364E12</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -16622,10 +16749,10 @@
         <v>890</v>
       </c>
       <c r="R187" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T187" t="n">
-        <v>1.724121283883E12</v>
+        <v>1.72420425368E12</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -16686,10 +16813,10 @@
         <v>906</v>
       </c>
       <c r="R189" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T189" t="n">
-        <v>1.724122828197E12</v>
+        <v>1.724204256937E12</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -16878,10 +17005,10 @@
         <v>934</v>
       </c>
       <c r="R195" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T195" t="n">
-        <v>1.724122928107E12</v>
+        <v>1.724204261555E12</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -16910,10 +17037,10 @@
         <v>939</v>
       </c>
       <c r="R196" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T196" t="n">
-        <v>1.724123224191E12</v>
+        <v>1.724204266272E12</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -17038,10 +17165,10 @@
         <v>959</v>
       </c>
       <c r="R200" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T200" t="n">
-        <v>1.724123372081E12</v>
+        <v>1.724204269209E12</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -17198,10 +17325,10 @@
         <v>980</v>
       </c>
       <c r="R205" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724134847124E12</v>
+        <v>1.724204273325E12</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -17230,10 +17357,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>2.6500000000000026</v>
+        <v>2.1500000000000026</v>
       </c>
       <c r="T206" t="n">
-        <v>1.72413485169E12</v>
+        <v>1.724204277815E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -17454,10 +17581,10 @@
         <v>1015</v>
       </c>
       <c r="R213" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T213" t="n">
-        <v>1.724134993443E12</v>
+        <v>1.72420452739E12</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -18062,10 +18189,10 @@
         <v>1098</v>
       </c>
       <c r="R232" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T232" t="n">
-        <v>1.724135670928E12</v>
+        <v>1.72420555238E12</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -18766,10 +18893,10 @@
         <v>1197</v>
       </c>
       <c r="R254" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T254" t="n">
-        <v>1.724136440321E12</v>
+        <v>1.724204599052E12</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -18926,10 +19053,10 @@
         <v>1221</v>
       </c>
       <c r="R259" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T259" t="n">
-        <v>1.72413650446E12</v>
+        <v>1.724204602515E12</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -19150,10 +19277,10 @@
         <v>1241</v>
       </c>
       <c r="R266" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724136590343E12</v>
+        <v>1.724205555494E12</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -19246,10 +19373,10 @@
         <v>1256</v>
       </c>
       <c r="R269" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T269" t="n">
-        <v>1.724136628221E12</v>
+        <v>1.72420482131E12</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -19630,10 +19757,10 @@
         <v>1311</v>
       </c>
       <c r="R281" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724136832432E12</v>
+        <v>1.724204828162E12</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -20046,10 +20173,10 @@
         <v>1375</v>
       </c>
       <c r="R294" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T294" t="n">
-        <v>1.724138428511E12</v>
+        <v>1.724204835299E12</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -20206,10 +20333,10 @@
         <v>1389</v>
       </c>
       <c r="R299" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T299" t="n">
-        <v>1.724138565395E12</v>
+        <v>1.724204838419E12</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -20270,10 +20397,10 @@
         <v>1399</v>
       </c>
       <c r="R301" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724138631292E12</v>
+        <v>1.724204884368E12</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -20398,10 +20525,10 @@
         <v>1419</v>
       </c>
       <c r="R305" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T305" t="n">
-        <v>1.724139930567E12</v>
+        <v>1.724204886271E12</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -20590,10 +20717,10 @@
         <v>1449</v>
       </c>
       <c r="R311" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T311" t="n">
-        <v>1.724139951023E12</v>
+        <v>1.724204923188E12</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -20654,10 +20781,10 @@
         <v>1460</v>
       </c>
       <c r="R313" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724139967973E12</v>
+        <v>1.724204943872E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -20846,10 +20973,10 @@
         <v>1490</v>
       </c>
       <c r="R319" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T319" t="n">
-        <v>1.724140040879E12</v>
+        <v>1.724204947517E12</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -21038,10 +21165,10 @@
         <v>1518</v>
       </c>
       <c r="R325" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724140189382E12</v>
+        <v>1.724204979032E12</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -21134,10 +21261,10 @@
         <v>1532</v>
       </c>
       <c r="R328" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="T328" t="n">
-        <v>1.724140252603E12</v>
+        <v>1.724205562068E12</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -21454,10 +21581,10 @@
         <v>1583</v>
       </c>
       <c r="R338" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724140494326E12</v>
+        <v>1.724205014466E12</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -21646,10 +21773,10 @@
         <v>1614</v>
       </c>
       <c r="R344" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T344" t="n">
-        <v>1.724140554263E12</v>
+        <v>1.724205016517E12</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -21678,10 +21805,10 @@
         <v>1618</v>
       </c>
       <c r="R345" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T345" t="n">
-        <v>1.724140566816E12</v>
+        <v>1.72420501892E12</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -21710,10 +21837,10 @@
         <v>1622</v>
       </c>
       <c r="R346" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724140607738E12</v>
+        <v>1.724205022E12</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -21806,10 +21933,10 @@
         <v>1635</v>
       </c>
       <c r="R349" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724140639781E12</v>
+        <v>1.724205024457E12</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -21870,10 +21997,10 @@
         <v>1645</v>
       </c>
       <c r="R351" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724140678357E12</v>
+        <v>1.724205026968E12</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -21934,10 +22061,10 @@
         <v>1651</v>
       </c>
       <c r="R353" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724140698527E12</v>
+        <v>1.724205029659E12</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -21966,10 +22093,10 @@
         <v>1656</v>
       </c>
       <c r="R354" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="T354" t="n">
-        <v>1.724140747712E12</v>
+        <v>1.724205035457E12</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -21998,10 +22125,10 @@
         <v>1661</v>
       </c>
       <c r="R355" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T355" t="n">
-        <v>1.72414077072E12</v>
+        <v>1.724205037701E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -22094,10 +22221,10 @@
         <v>1676</v>
       </c>
       <c r="R358" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T358" t="n">
-        <v>1.724140897385E12</v>
+        <v>1.724205117397E12</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -22478,10 +22605,10 @@
         <v>1735</v>
       </c>
       <c r="R370" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724141407309E12</v>
+        <v>1.724205120877E12</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -22574,10 +22701,10 @@
         <v>1748</v>
       </c>
       <c r="R373" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T373" t="n">
-        <v>1.724141507485E12</v>
+        <v>1.724205125329E12</v>
       </c>
     </row>
     <row r="374" spans="1:20">
@@ -22734,10 +22861,10 @@
         <v>1771</v>
       </c>
       <c r="R378" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724141616064E12</v>
+        <v>1.724205130403E12</v>
       </c>
     </row>
     <row r="379" spans="1:20">
@@ -22894,10 +23021,10 @@
         <v>1793</v>
       </c>
       <c r="R383" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724141777369E12</v>
+        <v>1.724205135603E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -22958,10 +23085,10 @@
         <v>1803</v>
       </c>
       <c r="R385" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724141829878E12</v>
+        <v>1.724205564555E12</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -22990,10 +23117,10 @@
         <v>1808</v>
       </c>
       <c r="R386" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T386" t="n">
-        <v>1.724141835254E12</v>
+        <v>1.724205208764E12</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -23054,10 +23181,10 @@
         <v>1818</v>
       </c>
       <c r="R388" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724141862368E12</v>
+        <v>1.724205215233E12</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -23214,10 +23341,10 @@
         <v>1841</v>
       </c>
       <c r="R393" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T393" t="n">
-        <v>1.724141886132E12</v>
+        <v>1.724205244963E12</v>
       </c>
     </row>
     <row r="394" spans="1:20">
@@ -23278,10 +23405,10 @@
         <v>1851</v>
       </c>
       <c r="R395" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T395" t="n">
-        <v>1.724141920299E12</v>
+        <v>1.724205248674E12</v>
       </c>
     </row>
     <row r="396" spans="1:20">
@@ -23406,10 +23533,10 @@
         <v>1870</v>
       </c>
       <c r="R399" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724142053644E12</v>
+        <v>1.724205252141E12</v>
       </c>
     </row>
     <row r="400" spans="1:20">
@@ -23438,10 +23565,10 @@
         <v>1875</v>
       </c>
       <c r="R400" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724142893265E12</v>
+        <v>1.724205255415E12</v>
       </c>
     </row>
     <row r="401" spans="1:20">
@@ -23534,10 +23661,10 @@
         <v>1890</v>
       </c>
       <c r="R403" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T403" t="n">
-        <v>1.724143781228E12</v>
+        <v>1.724205257832E12</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -23566,10 +23693,10 @@
         <v>1895</v>
       </c>
       <c r="R404" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T404" t="n">
-        <v>1.724143790877E12</v>
+        <v>1.724205260097E12</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -23758,10 +23885,10 @@
         <v>1925</v>
       </c>
       <c r="R410" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T410" t="n">
-        <v>1.724144119916E12</v>
+        <v>1.724205262397E12</v>
       </c>
     </row>
     <row r="411" spans="1:20">
@@ -24270,10 +24397,10 @@
         <v>1996</v>
       </c>
       <c r="R426" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T426" t="n">
-        <v>1.724144397373E12</v>
+        <v>1.724205265891E12</v>
       </c>
     </row>
     <row r="427" spans="1:20">
@@ -24366,10 +24493,10 @@
         <v>2011</v>
       </c>
       <c r="R429" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T429" t="n">
-        <v>1.724144451249E12</v>
+        <v>1.724205276943E12</v>
       </c>
     </row>
     <row r="430" spans="1:20">
@@ -24526,10 +24653,10 @@
         <v>2036</v>
       </c>
       <c r="R434" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T434" t="n">
-        <v>1.724144483968E12</v>
+        <v>1.724205299405E12</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -24558,10 +24685,10 @@
         <v>2041</v>
       </c>
       <c r="R435" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T435" t="n">
-        <v>1.724144496923E12</v>
+        <v>1.724205301647E12</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -24718,10 +24845,10 @@
         <v>2058</v>
       </c>
       <c r="R440" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724144554974E12</v>
+        <v>1.724205433853E12</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -24814,10 +24941,10 @@
         <v>2058</v>
       </c>
       <c r="R443" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T443" t="n">
-        <v>1.724144566343E12</v>
+        <v>1.724205465483E12</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -24846,10 +24973,10 @@
         <v>2072</v>
       </c>
       <c r="R444" t="n">
-        <v>2.0</v>
+        <v>2.5</v>
       </c>
       <c r="T444" t="n">
-        <v>1.724144598133E12</v>
+        <v>1.724205571045E12</v>
       </c>
     </row>
     <row r="445" spans="1:20">
@@ -24910,10 +25037,10 @@
         <v>2082</v>
       </c>
       <c r="R446" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T446" t="n">
-        <v>1.72414462847E12</v>
+        <v>1.724205477324E12</v>
       </c>
     </row>
     <row r="447" spans="1:20">
@@ -25038,10 +25165,10 @@
         <v>2101</v>
       </c>
       <c r="R450" t="n">
-        <v>2.4999999999999996</v>
+        <v>1.9999999999999996</v>
       </c>
       <c r="T450" t="n">
-        <v>1.724144685878E12</v>
+        <v>1.724205479458E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -25166,10 +25293,10 @@
         <v>2121</v>
       </c>
       <c r="R454" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724144739365E12</v>
+        <v>1.724205486156E12</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -25294,10 +25421,10 @@
         <v>2141</v>
       </c>
       <c r="R458" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T458" t="n">
-        <v>1.72414477273E12</v>
+        <v>1.724205488954E12</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -25486,10 +25613,10 @@
         <v>2168</v>
       </c>
       <c r="R464" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T464" t="n">
-        <v>1.724144853523E12</v>
+        <v>1.724205491164E12</v>
       </c>
     </row>
     <row r="465" spans="1:20">
@@ -25806,10 +25933,10 @@
         <v>2216</v>
       </c>
       <c r="R474" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T474" t="n">
-        <v>1.724145082683E12</v>
+        <v>1.724205493497E12</v>
       </c>
     </row>
     <row r="475" spans="1:20">
@@ -25870,10 +25997,10 @@
         <v>2226</v>
       </c>
       <c r="R476" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T476" t="n">
-        <v>1.724145103751E12</v>
+        <v>1.724205495509E12</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -25998,10 +26125,10 @@
         <v>502</v>
       </c>
       <c r="R480" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T480" t="n">
-        <v>1.724145145782E12</v>
+        <v>1.724205498534E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -26062,10 +26189,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>2.6500000000000035</v>
+        <v>2.1500000000000035</v>
       </c>
       <c r="T482" t="n">
-        <v>1.724145201206E12</v>
+        <v>1.72420550383E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -26094,10 +26221,10 @@
         <v>2257</v>
       </c>
       <c r="R483" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="T483" t="n">
-        <v>1.724145206669E12</v>
+        <v>1.724205514347E12</v>
       </c>
     </row>
     <row r="484" spans="1:20">
@@ -26222,10 +26349,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>2.400000000000002</v>
+        <v>3.900000000000002</v>
       </c>
       <c r="T487" t="n">
-        <v>1.72414529142E12</v>
+        <v>1.724205598105E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26242,10 +26369,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="T488" t="n">
-        <v>1.724145299196E12</v>
+        <v>1.724205524173E12</v>
       </c>
     </row>
     <row r="489" spans="1:20">
@@ -26302,10 +26429,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>2.0</v>
+        <v>1.5</v>
       </c>
       <c r="T491" t="n">
-        <v>1.724145309212E12</v>
+        <v>1.724205526399E12</v>
       </c>
     </row>
     <row r="492" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="2474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="2478">
   <si>
     <t>题型</t>
   </si>
@@ -7499,6 +7499,18 @@
   </si>
   <si>
     <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.23333333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.5166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 4题	您的得分： 50.0	做题时长约为1.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 31题	您的得分： 87.09677419354838	做题时长约为7.3Min</t>
   </si>
 </sst>
 </file>
@@ -8142,7 +8154,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1963">
+  <cellXfs count="2001">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -9999,77 +10011,115 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10733,10 +10783,10 @@
         <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72420169877E12</v>
+        <v>1.72423163829E12</v>
       </c>
       <c r="AA8" t="s">
         <v>50</v>
@@ -11643,10 +11693,10 @@
         <v>183</v>
       </c>
       <c r="R34" t="n">
-        <v>4.15</v>
+        <v>3.5200000000000005</v>
       </c>
       <c r="T34" t="n">
-        <v>1.724205595004E12</v>
+        <v>1.724231641957E12</v>
       </c>
       <c r="AA34" t="s">
         <v>2416</v>
@@ -12378,10 +12428,10 @@
         <v>286</v>
       </c>
       <c r="R55" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724201751887E12</v>
+        <v>1.724231648413E12</v>
       </c>
       <c r="AA55" t="s">
         <v>2433</v>
@@ -13883,10 +13933,10 @@
         <v>492</v>
       </c>
       <c r="R98" t="n">
-        <v>2.15</v>
+        <v>3.15</v>
       </c>
       <c r="T98" t="n">
-        <v>1.724203474827E12</v>
+        <v>1.724231663765E12</v>
       </c>
       <c r="AA98" t="s">
         <v>2468</v>
@@ -14098,6 +14148,9 @@
       <c r="T104" t="n">
         <v>1.724118120564E12</v>
       </c>
+      <c r="AA104" t="s">
+        <v>2474</v>
+      </c>
     </row>
     <row r="105" spans="1:20">
       <c r="A105" s="1">
@@ -14130,6 +14183,9 @@
       <c r="T105" t="n">
         <v>1.724118143521E12</v>
       </c>
+      <c r="AA105" t="s">
+        <v>2475</v>
+      </c>
     </row>
     <row r="106" spans="1:20">
       <c r="A106" s="1">
@@ -14162,6 +14218,9 @@
       <c r="T106" t="n">
         <v>1.724118156827E12</v>
       </c>
+      <c r="AA106" t="s">
+        <v>2476</v>
+      </c>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="1">
@@ -14194,6 +14253,9 @@
       <c r="T107" t="n">
         <v>1.724118178555E12</v>
       </c>
+      <c r="AA107" t="s">
+        <v>2477</v>
+      </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="1">
@@ -14925,10 +14987,10 @@
         <v>640</v>
       </c>
       <c r="R130" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T130" t="n">
-        <v>1.724203528225E12</v>
+        <v>1.724231668163E12</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -15181,10 +15243,10 @@
         <v>676</v>
       </c>
       <c r="R138" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="T138" t="n">
-        <v>1.724203543628E12</v>
+        <v>1.72423167034E12</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -15565,10 +15627,10 @@
         <v>734</v>
       </c>
       <c r="R150" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T150" t="n">
-        <v>1.724203560926E12</v>
+        <v>1.724231676752E12</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -16045,10 +16107,10 @@
         <v>805</v>
       </c>
       <c r="R165" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="T165" t="n">
-        <v>1.72420357211E12</v>
+        <v>1.724231679734E12</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -16397,10 +16459,10 @@
         <v>275</v>
       </c>
       <c r="R176" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="T176" t="n">
-        <v>1.724204200747E12</v>
+        <v>1.724231682403E12</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -16461,10 +16523,10 @@
         <v>862</v>
       </c>
       <c r="R178" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T178" t="n">
-        <v>1.724204247503E12</v>
+        <v>1.72423168842E12</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -16653,10 +16715,10 @@
         <v>885</v>
       </c>
       <c r="R184" t="n">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="T184" t="n">
-        <v>1.724205549364E12</v>
+        <v>1.724231691603E12</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -17325,10 +17387,10 @@
         <v>980</v>
       </c>
       <c r="R205" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724204273325E12</v>
+        <v>1.724231697205E12</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -17357,10 +17419,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>2.1500000000000026</v>
+        <v>3.1500000000000026</v>
       </c>
       <c r="T206" t="n">
-        <v>1.724204277815E12</v>
+        <v>1.724231741838E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -18189,10 +18251,10 @@
         <v>1098</v>
       </c>
       <c r="R232" t="n">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="T232" t="n">
-        <v>1.72420555238E12</v>
+        <v>1.724231746411E12</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -19277,10 +19339,10 @@
         <v>1241</v>
       </c>
       <c r="R266" t="n">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724205555494E12</v>
+        <v>1.724231748647E12</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -20397,10 +20459,10 @@
         <v>1399</v>
       </c>
       <c r="R301" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724204884368E12</v>
+        <v>1.724231784279E12</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -20781,10 +20843,10 @@
         <v>1460</v>
       </c>
       <c r="R313" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724204943872E12</v>
+        <v>1.724231845725E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -21261,10 +21323,10 @@
         <v>1532</v>
       </c>
       <c r="R328" t="n">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="T328" t="n">
-        <v>1.724205562068E12</v>
+        <v>1.72423185849E12</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -21933,10 +21995,10 @@
         <v>1635</v>
       </c>
       <c r="R349" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724205024457E12</v>
+        <v>1.724231860778E12</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -22093,10 +22155,10 @@
         <v>1656</v>
       </c>
       <c r="R354" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="T354" t="n">
-        <v>1.724205035457E12</v>
+        <v>1.724231864311E12</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -22125,10 +22187,10 @@
         <v>1661</v>
       </c>
       <c r="R355" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T355" t="n">
-        <v>1.724205037701E12</v>
+        <v>1.724231866367E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -22605,10 +22667,10 @@
         <v>1735</v>
       </c>
       <c r="R370" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724205120877E12</v>
+        <v>1.724231870832E12</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -23021,10 +23083,10 @@
         <v>1793</v>
       </c>
       <c r="R383" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724205135603E12</v>
+        <v>1.724231874846E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -23085,10 +23147,10 @@
         <v>1803</v>
       </c>
       <c r="R385" t="n">
-        <v>3.1</v>
+        <v>3.6799999999999997</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724205564555E12</v>
+        <v>1.724231881145E12</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -23533,10 +23595,10 @@
         <v>1870</v>
       </c>
       <c r="R399" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724205252141E12</v>
+        <v>1.724231888333E12</v>
       </c>
     </row>
     <row r="400" spans="1:20">
@@ -23661,10 +23723,10 @@
         <v>1890</v>
       </c>
       <c r="R403" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T403" t="n">
-        <v>1.724205257832E12</v>
+        <v>1.724231890304E12</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -24973,10 +25035,10 @@
         <v>2072</v>
       </c>
       <c r="R444" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T444" t="n">
-        <v>1.724205571045E12</v>
+        <v>1.724232043171E12</v>
       </c>
     </row>
     <row r="445" spans="1:20">
@@ -25997,10 +26059,10 @@
         <v>2226</v>
       </c>
       <c r="R476" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T476" t="n">
-        <v>1.724205495509E12</v>
+        <v>1.724232048229E12</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -26189,10 +26251,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>2.1500000000000035</v>
+        <v>1.9400000000000035</v>
       </c>
       <c r="T482" t="n">
-        <v>1.72420550383E12</v>
+        <v>1.724232052959E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -26349,10 +26411,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>3.900000000000002</v>
+        <v>4.480000000000002</v>
       </c>
       <c r="T487" t="n">
-        <v>1.724205598105E12</v>
+        <v>1.72423205634E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26369,10 +26431,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>2.1</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T488" t="n">
-        <v>1.724205524173E12</v>
+        <v>1.724232058537E12</v>
       </c>
     </row>
     <row r="489" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3863" uniqueCount="2478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="2496">
   <si>
     <t>题型</t>
   </si>
@@ -7511,6 +7511,60 @@
   </si>
   <si>
     <t>您一共做了: 31题	您的得分： 87.09677419354838	做题时长约为7.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 254题	您的得分： 79.92125984251969	做题时长约为28.716666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 87.5	做题时长约为1.0166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 56题	您的得分： 82.14285714285714	做题时长约为6.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.9666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 38题	您的得分： 92.10526315789474	做题时长约为8.3Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 182题	您的得分： 93.95604395604396	做题时长约为35.266666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 100.0	做题时长约为0.11666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 75.0	做题时长约为1.7666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为3.6Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 30题	您的得分： 86.66666666666667	做题时长约为14.933333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 91.66666666666666	做题时长约为1.8166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 1题	您的得分： 0.0	做题时长约为0.08333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为1.95Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 5题	您的得分： 100.0	做题时长约为0.3333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 156题	您的得分： 98.07692307692307	做题时长约为207.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.31666666666666665Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 34题	您的得分： 94.11764705882352	做题时长约为10.15Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.2Min</t>
   </si>
 </sst>
 </file>
@@ -8154,7 +8208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2001">
+  <cellXfs count="2810">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10120,6 +10174,815 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -10783,10 +11646,10 @@
         <v>49</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T8" t="n">
-        <v>1.72423163829E12</v>
+        <v>1.724296908275E12</v>
       </c>
       <c r="AA8" t="s">
         <v>50</v>
@@ -10818,10 +11681,10 @@
         <v>55</v>
       </c>
       <c r="R9" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T9" t="n">
-        <v>1.724057787312E12</v>
+        <v>1.724245407861E12</v>
       </c>
       <c r="AA9" t="s">
         <v>56</v>
@@ -11098,10 +11961,10 @@
         <v>98</v>
       </c>
       <c r="R17" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T17" t="n">
-        <v>1.724058184393E12</v>
+        <v>1.724245411348E12</v>
       </c>
       <c r="AA17" t="s">
         <v>2399</v>
@@ -11308,10 +12171,10 @@
         <v>128</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T23" t="n">
-        <v>1.724201703975E12</v>
+        <v>1.724297020049E12</v>
       </c>
       <c r="AA23" t="s">
         <v>2405</v>
@@ -11378,10 +12241,10 @@
         <v>138</v>
       </c>
       <c r="R25" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72420170974E12</v>
+        <v>1.724297023493E12</v>
       </c>
       <c r="AA25" t="s">
         <v>2407</v>
@@ -11623,10 +12486,10 @@
         <v>173</v>
       </c>
       <c r="R32" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T32" t="n">
-        <v>1.724058537538E12</v>
+        <v>1.724245423359E12</v>
       </c>
       <c r="AA32" t="s">
         <v>2414</v>
@@ -11693,10 +12556,10 @@
         <v>183</v>
       </c>
       <c r="R34" t="n">
-        <v>3.5200000000000005</v>
+        <v>0.3700000000000008</v>
       </c>
       <c r="T34" t="n">
-        <v>1.724231641957E12</v>
+        <v>1.724309485255E12</v>
       </c>
       <c r="AA34" t="s">
         <v>2416</v>
@@ -11763,10 +12626,10 @@
         <v>193</v>
       </c>
       <c r="R36" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T36" t="n">
-        <v>1.724201718305E12</v>
+        <v>1.724297029926E12</v>
       </c>
       <c r="AA36" t="s">
         <v>2418</v>
@@ -11798,10 +12661,10 @@
         <v>198</v>
       </c>
       <c r="R37" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T37" t="n">
-        <v>1.724113571087E12</v>
+        <v>1.724297033546E12</v>
       </c>
       <c r="AA37" t="s">
         <v>2419</v>
@@ -11973,10 +12836,10 @@
         <v>223</v>
       </c>
       <c r="R42" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T42" t="n">
-        <v>1.724201736818E12</v>
+        <v>1.724297044273E12</v>
       </c>
       <c r="AA42" t="s">
         <v>2423</v>
@@ -12323,10 +13186,10 @@
         <v>271</v>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T52" t="n">
-        <v>1.724201740417E12</v>
+        <v>1.724297085185E12</v>
       </c>
       <c r="AA52" t="s">
         <v>2430</v>
@@ -12358,10 +13221,10 @@
         <v>276</v>
       </c>
       <c r="R53" t="n">
-        <v>1.35</v>
+        <v>0.3400000000000005</v>
       </c>
       <c r="T53" t="n">
-        <v>1.724116769227E12</v>
+        <v>1.724309488527E12</v>
       </c>
       <c r="AA53" t="s">
         <v>2431</v>
@@ -12393,10 +13256,10 @@
         <v>281</v>
       </c>
       <c r="R54" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T54" t="n">
-        <v>1.724116821759E12</v>
+        <v>1.724245463301E12</v>
       </c>
       <c r="AA54" t="s">
         <v>2432</v>
@@ -12428,10 +13291,10 @@
         <v>286</v>
       </c>
       <c r="R55" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T55" t="n">
-        <v>1.724231648413E12</v>
+        <v>1.724297096215E12</v>
       </c>
       <c r="AA55" t="s">
         <v>2433</v>
@@ -12533,10 +13396,10 @@
         <v>301</v>
       </c>
       <c r="R58" t="n">
-        <v>1.5</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T58" t="n">
-        <v>1.724201755642E12</v>
+        <v>1.724297113912E12</v>
       </c>
       <c r="AA58" t="s">
         <v>50</v>
@@ -12568,10 +13431,10 @@
         <v>306</v>
       </c>
       <c r="R59" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T59" t="n">
-        <v>1.724116942063E12</v>
+        <v>1.724245479352E12</v>
       </c>
       <c r="AA59" t="s">
         <v>2431</v>
@@ -12673,10 +13536,10 @@
         <v>321</v>
       </c>
       <c r="R62" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T62" t="n">
-        <v>1.724117026699E12</v>
+        <v>1.724297115992E12</v>
       </c>
       <c r="AA62" t="s">
         <v>2437</v>
@@ -12743,10 +13606,10 @@
         <v>331</v>
       </c>
       <c r="R64" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T64" t="n">
-        <v>1.724117089696E12</v>
+        <v>1.724245491348E12</v>
       </c>
       <c r="AA64" t="s">
         <v>2439</v>
@@ -12813,10 +13676,10 @@
         <v>340</v>
       </c>
       <c r="R66" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T66" t="n">
-        <v>1.72420343495E12</v>
+        <v>1.724297119489E12</v>
       </c>
       <c r="AA66" t="s">
         <v>2441</v>
@@ -12918,10 +13781,10 @@
         <v>354</v>
       </c>
       <c r="R69" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T69" t="n">
-        <v>1.724203440391E12</v>
+        <v>1.72429712348E12</v>
       </c>
       <c r="AA69" t="s">
         <v>2436</v>
@@ -12953,10 +13816,10 @@
         <v>359</v>
       </c>
       <c r="R70" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T70" t="n">
-        <v>1.724203444553E12</v>
+        <v>1.724297125666E12</v>
       </c>
       <c r="AA70" t="s">
         <v>2443</v>
@@ -13093,10 +13956,10 @@
         <v>379</v>
       </c>
       <c r="R74" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T74" t="n">
-        <v>1.724203471009E12</v>
+        <v>1.724297128911E12</v>
       </c>
       <c r="AA74" t="s">
         <v>2447</v>
@@ -13373,10 +14236,10 @@
         <v>301</v>
       </c>
       <c r="R82" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T82" t="n">
-        <v>1.724203473142E12</v>
+        <v>1.724297131703E12</v>
       </c>
       <c r="AA82" t="s">
         <v>2453</v>
@@ -13443,10 +14306,10 @@
         <v>425</v>
       </c>
       <c r="R84" t="n">
-        <v>1.35</v>
+        <v>0.9300000000000002</v>
       </c>
       <c r="T84" t="n">
-        <v>1.724117439753E12</v>
+        <v>1.724290406378E12</v>
       </c>
       <c r="AA84" t="s">
         <v>2455</v>
@@ -13618,10 +14481,10 @@
         <v>450</v>
       </c>
       <c r="R89" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T89" t="n">
-        <v>1.724117505897E12</v>
+        <v>1.724297137315E12</v>
       </c>
       <c r="AA89" t="s">
         <v>2459</v>
@@ -13898,10 +14761,10 @@
         <v>487</v>
       </c>
       <c r="R97" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T97" t="n">
-        <v>1.724117559505E12</v>
+        <v>1.724290416264E12</v>
       </c>
       <c r="AA97" t="s">
         <v>2467</v>
@@ -13933,10 +14796,10 @@
         <v>492</v>
       </c>
       <c r="R98" t="n">
-        <v>3.15</v>
+        <v>0.5100000000000005</v>
       </c>
       <c r="T98" t="n">
-        <v>1.724231663765E12</v>
+        <v>1.72430949114E12</v>
       </c>
       <c r="AA98" t="s">
         <v>2468</v>
@@ -14073,10 +14936,10 @@
         <v>512</v>
       </c>
       <c r="R102" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T102" t="n">
-        <v>1.724118050484E12</v>
+        <v>1.724245563962E12</v>
       </c>
       <c r="AA102" t="s">
         <v>2472</v>
@@ -14143,10 +15006,10 @@
         <v>522</v>
       </c>
       <c r="R104" t="n">
-        <v>1.35</v>
+        <v>0.8300000000000005</v>
       </c>
       <c r="T104" t="n">
-        <v>1.724118120564E12</v>
+        <v>1.72429715183E12</v>
       </c>
       <c r="AA104" t="s">
         <v>2474</v>
@@ -14178,10 +15041,10 @@
         <v>526</v>
       </c>
       <c r="R105" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724118143521E12</v>
+        <v>1.724290432976E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2475</v>
@@ -14248,10 +15111,10 @@
         <v>536</v>
       </c>
       <c r="R107" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T107" t="n">
-        <v>1.724118178555E12</v>
+        <v>1.724245586611E12</v>
       </c>
       <c r="AA107" t="s">
         <v>2477</v>
@@ -14288,6 +15151,9 @@
       <c r="T108" t="n">
         <v>1.724118246894E12</v>
       </c>
+      <c r="AA108" t="s">
+        <v>2478</v>
+      </c>
     </row>
     <row r="109" spans="1:20">
       <c r="A109" s="1">
@@ -14320,6 +15186,9 @@
       <c r="T109" t="n">
         <v>1.724118261287E12</v>
       </c>
+      <c r="AA109" t="s">
+        <v>2479</v>
+      </c>
     </row>
     <row r="110" spans="1:20">
       <c r="A110" s="1">
@@ -14347,10 +15216,13 @@
         <v>550</v>
       </c>
       <c r="R110" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T110" t="n">
-        <v>1.724118273947E12</v>
+        <v>1.724245591756E12</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>2480</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -14384,6 +15256,9 @@
       <c r="T111" t="n">
         <v>1.724118325347E12</v>
       </c>
+      <c r="AA111" t="s">
+        <v>2435</v>
+      </c>
     </row>
     <row r="112" spans="1:20">
       <c r="A112" s="1">
@@ -14416,6 +15291,9 @@
       <c r="T112" t="n">
         <v>1.724118425239E12</v>
       </c>
+      <c r="AA112" t="s">
+        <v>2481</v>
+      </c>
     </row>
     <row r="113" spans="1:20">
       <c r="A113" s="1">
@@ -14448,6 +15326,9 @@
       <c r="T113" t="n">
         <v>1.724118430959E12</v>
       </c>
+      <c r="AA113" t="s">
+        <v>2482</v>
+      </c>
     </row>
     <row r="114" spans="1:20">
       <c r="A114" s="1">
@@ -14480,6 +15361,9 @@
       <c r="T114" t="n">
         <v>1.72411847252E12</v>
       </c>
+      <c r="AA114" t="s">
+        <v>2483</v>
+      </c>
     </row>
     <row r="115" spans="1:20">
       <c r="A115" s="1">
@@ -14507,10 +15391,13 @@
         <v>568</v>
       </c>
       <c r="R115" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T115" t="n">
-        <v>1.724203520066E12</v>
+        <v>1.724297156822E12</v>
+      </c>
+      <c r="AA115" t="s">
+        <v>2484</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -14539,10 +15426,13 @@
         <v>572</v>
       </c>
       <c r="R116" t="n">
-        <v>1.35</v>
+        <v>0.9300000000000002</v>
       </c>
       <c r="T116" t="n">
-        <v>1.724118510646E12</v>
+        <v>1.724290448643E12</v>
+      </c>
+      <c r="AA116" t="s">
+        <v>2485</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -14576,6 +15466,9 @@
       <c r="T117" t="n">
         <v>1.724118524035E12</v>
       </c>
+      <c r="AA117" t="s">
+        <v>2486</v>
+      </c>
     </row>
     <row r="118" spans="1:20">
       <c r="A118" s="1">
@@ -14603,10 +15496,13 @@
         <v>582</v>
       </c>
       <c r="R118" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T118" t="n">
-        <v>1.72411854108E12</v>
+        <v>1.724297181086E12</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>2487</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -14640,6 +15536,9 @@
       <c r="T119" t="n">
         <v>1.724118587238E12</v>
       </c>
+      <c r="AA119" t="s">
+        <v>2488</v>
+      </c>
     </row>
     <row r="120" spans="1:20">
       <c r="A120" s="1">
@@ -14667,10 +15566,13 @@
         <v>592</v>
       </c>
       <c r="R120" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T120" t="n">
-        <v>1.724118614891E12</v>
+        <v>1.724245622297E12</v>
+      </c>
+      <c r="AA120" t="s">
+        <v>2489</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -14704,6 +15606,9 @@
       <c r="T121" t="n">
         <v>1.724118637838E12</v>
       </c>
+      <c r="AA121" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="122" spans="1:20">
       <c r="A122" s="1">
@@ -14736,6 +15641,9 @@
       <c r="T122" t="n">
         <v>1.724118660192E12</v>
       </c>
+      <c r="AA122" t="s">
+        <v>2431</v>
+      </c>
     </row>
     <row r="123" spans="1:20">
       <c r="A123" s="1">
@@ -14768,6 +15676,9 @@
       <c r="T123" t="n">
         <v>1.724118927765E12</v>
       </c>
+      <c r="AA123" t="s">
+        <v>2490</v>
+      </c>
     </row>
     <row r="124" spans="1:20">
       <c r="A124" s="1">
@@ -14795,10 +15706,13 @@
         <v>611</v>
       </c>
       <c r="R124" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T124" t="n">
-        <v>1.724118952159E12</v>
+        <v>1.724245625387E12</v>
+      </c>
+      <c r="AA124" t="s">
+        <v>2491</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -14827,10 +15741,13 @@
         <v>616</v>
       </c>
       <c r="R125" t="n">
-        <v>1.950000000000001</v>
+        <v>0.8300000000000012</v>
       </c>
       <c r="T125" t="n">
-        <v>1.724203524141E12</v>
+        <v>1.724297184993E12</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>2400</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -14864,6 +15781,9 @@
       <c r="T126" t="n">
         <v>1.724118961254E12</v>
       </c>
+      <c r="AA126" t="s">
+        <v>2492</v>
+      </c>
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="1">
@@ -14891,10 +15811,13 @@
         <v>357</v>
       </c>
       <c r="R127" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T127" t="n">
-        <v>1.724118969622E12</v>
+        <v>1.724245638023E12</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>2493</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -14928,6 +15851,9 @@
       <c r="T128" t="n">
         <v>1.724119025162E12</v>
       </c>
+      <c r="AA128" t="s">
+        <v>2400</v>
+      </c>
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="1">
@@ -14960,6 +15886,9 @@
       <c r="T129" t="n">
         <v>1.724119030766E12</v>
       </c>
+      <c r="AA129" t="s">
+        <v>2494</v>
+      </c>
     </row>
     <row r="130" spans="1:20">
       <c r="A130" s="1">
@@ -14987,10 +15916,13 @@
         <v>640</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.5800000000000003</v>
       </c>
       <c r="T130" t="n">
-        <v>1.724231668163E12</v>
+        <v>1.72430953528E12</v>
+      </c>
+      <c r="AA130" t="s">
+        <v>2476</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -15019,10 +15951,13 @@
         <v>645</v>
       </c>
       <c r="R131" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T131" t="n">
-        <v>1.724203533412E12</v>
+        <v>1.724297192341E12</v>
+      </c>
+      <c r="AA131" t="s">
+        <v>2495</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -15083,10 +16018,10 @@
         <v>654</v>
       </c>
       <c r="R133" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T133" t="n">
-        <v>1.724119078754E12</v>
+        <v>1.724290503653E12</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -15211,10 +16146,10 @@
         <v>671</v>
       </c>
       <c r="R137" t="n">
-        <v>1.6</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="T137" t="n">
-        <v>1.724203537104E12</v>
+        <v>1.724309573491E12</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -15243,10 +16178,10 @@
         <v>676</v>
       </c>
       <c r="R138" t="n">
-        <v>1.94</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T138" t="n">
-        <v>1.72423167034E12</v>
+        <v>1.724297197478E12</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -15371,10 +16306,10 @@
         <v>695</v>
       </c>
       <c r="R142" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T142" t="n">
-        <v>1.724203553221E12</v>
+        <v>1.724297211796E12</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -15403,10 +16338,10 @@
         <v>700</v>
       </c>
       <c r="R143" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T143" t="n">
-        <v>1.724203556463E12</v>
+        <v>1.724297227562E12</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -15531,10 +16466,10 @@
         <v>719</v>
       </c>
       <c r="R147" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T147" t="n">
-        <v>1.724119266258E12</v>
+        <v>1.724245696517E12</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -15563,10 +16498,10 @@
         <v>724</v>
       </c>
       <c r="R148" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T148" t="n">
-        <v>1.724119274648E12</v>
+        <v>1.724297230305E12</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -15627,10 +16562,10 @@
         <v>734</v>
       </c>
       <c r="R150" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T150" t="n">
-        <v>1.724231676752E12</v>
+        <v>1.724297248556E12</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -15723,10 +16658,10 @@
         <v>748</v>
       </c>
       <c r="R153" t="n">
-        <v>1.4000000000000044</v>
+        <v>0.37000000000000455</v>
       </c>
       <c r="T153" t="n">
-        <v>1.724119364631E12</v>
+        <v>1.724309575798E12</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -15755,10 +16690,10 @@
         <v>753</v>
       </c>
       <c r="R154" t="n">
-        <v>1.5</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="T154" t="n">
-        <v>1.724203566856E12</v>
+        <v>1.724309581435E12</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -15819,10 +16754,10 @@
         <v>274</v>
       </c>
       <c r="R156" t="n">
-        <v>1.4</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="T156" t="n">
-        <v>1.724119591233E12</v>
+        <v>1.724309584634E12</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -15883,10 +16818,10 @@
         <v>771</v>
       </c>
       <c r="R158" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T158" t="n">
-        <v>1.724203569268E12</v>
+        <v>1.724297260514E12</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -15915,10 +16850,10 @@
         <v>776</v>
       </c>
       <c r="R159" t="n">
-        <v>1.0</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T159" t="n">
-        <v>1.724119735749E12</v>
+        <v>1.724309587229E12</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -16011,10 +16946,10 @@
         <v>790</v>
       </c>
       <c r="R162" t="n">
-        <v>1.35</v>
+        <v>0.9300000000000002</v>
       </c>
       <c r="T162" t="n">
-        <v>1.724119826299E12</v>
+        <v>1.724290595247E12</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -16075,10 +17010,10 @@
         <v>800</v>
       </c>
       <c r="R164" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T164" t="n">
-        <v>1.724119855191E12</v>
+        <v>1.724245832865E12</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -16107,10 +17042,10 @@
         <v>805</v>
       </c>
       <c r="R165" t="n">
-        <v>1.94</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T165" t="n">
-        <v>1.724231679734E12</v>
+        <v>1.72429726556E12</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -16139,10 +17074,10 @@
         <v>810</v>
       </c>
       <c r="R166" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T166" t="n">
-        <v>1.724119934514E12</v>
+        <v>1.724245837367E12</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -16267,10 +17202,10 @@
         <v>829</v>
       </c>
       <c r="R170" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T170" t="n">
-        <v>1.724120049638E12</v>
+        <v>1.72429060355E12</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -16299,10 +17234,10 @@
         <v>834</v>
       </c>
       <c r="R171" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T171" t="n">
-        <v>1.724203601221E12</v>
+        <v>1.724297267099E12</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -16331,10 +17266,10 @@
         <v>839</v>
       </c>
       <c r="R172" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T172" t="n">
-        <v>1.724120076204E12</v>
+        <v>1.72429064833E12</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -16363,10 +17298,10 @@
         <v>844</v>
       </c>
       <c r="R173" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T173" t="n">
-        <v>1.724204195373E12</v>
+        <v>1.724297270597E12</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -16427,10 +17362,10 @@
         <v>844</v>
       </c>
       <c r="R175" t="n">
-        <v>1.1499999999999995</v>
+        <v>0.9299999999999993</v>
       </c>
       <c r="T175" t="n">
-        <v>1.724120103366E12</v>
+        <v>1.724297274064E12</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -16459,10 +17394,10 @@
         <v>275</v>
       </c>
       <c r="R176" t="n">
-        <v>3.1</v>
+        <v>0.3599999999999992</v>
       </c>
       <c r="T176" t="n">
-        <v>1.724231682403E12</v>
+        <v>1.724309589466E12</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -16523,10 +17458,10 @@
         <v>862</v>
       </c>
       <c r="R178" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T178" t="n">
-        <v>1.72423168842E12</v>
+        <v>1.724297278259E12</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -16619,10 +17554,10 @@
         <v>872</v>
       </c>
       <c r="R181" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T181" t="n">
-        <v>1.724120167487E12</v>
+        <v>1.72429068169E12</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -16651,10 +17586,10 @@
         <v>861</v>
       </c>
       <c r="R182" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T182" t="n">
-        <v>1.724120171956E12</v>
+        <v>1.724290685114E12</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -16715,10 +17650,10 @@
         <v>885</v>
       </c>
       <c r="R184" t="n">
-        <v>2.39</v>
+        <v>0.3600000000000003</v>
       </c>
       <c r="T184" t="n">
-        <v>1.724231691603E12</v>
+        <v>1.724309592083E12</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -16779,10 +17714,10 @@
         <v>895</v>
       </c>
       <c r="R186" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T186" t="n">
-        <v>1.724120345215E12</v>
+        <v>1.724245902453E12</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -16811,10 +17746,10 @@
         <v>890</v>
       </c>
       <c r="R187" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T187" t="n">
-        <v>1.72420425368E12</v>
+        <v>1.724297282923E12</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -16843,10 +17778,10 @@
         <v>901</v>
       </c>
       <c r="R188" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T188" t="n">
-        <v>1.724121298923E12</v>
+        <v>1.724245906637E12</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -16875,10 +17810,10 @@
         <v>906</v>
       </c>
       <c r="R189" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T189" t="n">
-        <v>1.724204256937E12</v>
+        <v>1.724297313368E12</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -16971,10 +17906,10 @@
         <v>919</v>
       </c>
       <c r="R192" t="n">
-        <v>1.500000000000003</v>
+        <v>0.3800000000000032</v>
       </c>
       <c r="T192" t="n">
-        <v>1.7241229121E12</v>
+        <v>1.724297318308E12</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -17003,10 +17938,10 @@
         <v>924</v>
       </c>
       <c r="R193" t="n">
-        <v>1.35</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="T193" t="n">
-        <v>1.724122915681E12</v>
+        <v>1.724309596591E12</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -17067,10 +18002,10 @@
         <v>934</v>
       </c>
       <c r="R195" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T195" t="n">
-        <v>1.724204261555E12</v>
+        <v>1.724297323555E12</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -17099,10 +18034,10 @@
         <v>939</v>
       </c>
       <c r="R196" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T196" t="n">
-        <v>1.724204266272E12</v>
+        <v>1.724297325171E12</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -17163,10 +18098,10 @@
         <v>949</v>
       </c>
       <c r="R198" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T198" t="n">
-        <v>1.724123285834E12</v>
+        <v>1.724245927964E12</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -17227,10 +18162,10 @@
         <v>959</v>
       </c>
       <c r="R200" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T200" t="n">
-        <v>1.724204269209E12</v>
+        <v>1.724297328162E12</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -17387,10 +18322,10 @@
         <v>980</v>
       </c>
       <c r="R205" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T205" t="n">
-        <v>1.724231697205E12</v>
+        <v>1.724297330588E12</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -17419,10 +18354,10 @@
         <v>985</v>
       </c>
       <c r="R206" t="n">
-        <v>3.1500000000000026</v>
+        <v>0.5100000000000022</v>
       </c>
       <c r="T206" t="n">
-        <v>1.724231741838E12</v>
+        <v>1.724309599035E12</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -17643,10 +18578,10 @@
         <v>1015</v>
       </c>
       <c r="R213" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T213" t="n">
-        <v>1.72420452739E12</v>
+        <v>1.724297335833E12</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -17739,10 +18674,10 @@
         <v>1030</v>
       </c>
       <c r="R216" t="n">
-        <v>1.0</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T216" t="n">
-        <v>1.724135054672E12</v>
+        <v>1.724309606393E12</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -17963,10 +18898,10 @@
         <v>1060</v>
       </c>
       <c r="R223" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T223" t="n">
-        <v>1.724135262616E12</v>
+        <v>1.724297366516E12</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -18059,10 +18994,10 @@
         <v>1071</v>
       </c>
       <c r="R226" t="n">
-        <v>1.4</v>
+        <v>0.3700000000000001</v>
       </c>
       <c r="T226" t="n">
-        <v>1.724135479461E12</v>
+        <v>1.724309701521E12</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -18123,10 +19058,10 @@
         <v>1080</v>
       </c>
       <c r="R228" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T228" t="n">
-        <v>1.72413555685E12</v>
+        <v>1.72424603841E12</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -18155,10 +19090,10 @@
         <v>1084</v>
       </c>
       <c r="R229" t="n">
-        <v>1.4000000000000035</v>
+        <v>0.9800000000000035</v>
       </c>
       <c r="T229" t="n">
-        <v>1.724135574074E12</v>
+        <v>1.724290731927E12</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -18251,10 +19186,10 @@
         <v>1098</v>
       </c>
       <c r="R232" t="n">
-        <v>2.39</v>
+        <v>0.4500000000000004</v>
       </c>
       <c r="T232" t="n">
-        <v>1.724231746411E12</v>
+        <v>1.724309703538E12</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -18411,10 +19346,10 @@
         <v>1118</v>
       </c>
       <c r="R237" t="n">
-        <v>1.35</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="T237" t="n">
-        <v>1.724135773756E12</v>
+        <v>1.724297375832E12</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -18507,10 +19442,10 @@
         <v>1129</v>
       </c>
       <c r="R240" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.9199999999999997</v>
       </c>
       <c r="T240" t="n">
-        <v>1.724135930222E12</v>
+        <v>1.724297390469E12</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -18955,10 +19890,10 @@
         <v>1197</v>
       </c>
       <c r="R254" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T254" t="n">
-        <v>1.724204599052E12</v>
+        <v>1.724297394737E12</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -19019,10 +19954,10 @@
         <v>1206</v>
       </c>
       <c r="R256" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T256" t="n">
-        <v>1.724136450094E12</v>
+        <v>1.724246079566E12</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -19115,10 +20050,10 @@
         <v>1221</v>
       </c>
       <c r="R259" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T259" t="n">
-        <v>1.724204602515E12</v>
+        <v>1.724297404157E12</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -19211,10 +20146,10 @@
         <v>1231</v>
       </c>
       <c r="R262" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T262" t="n">
-        <v>1.724136528885E12</v>
+        <v>1.724246089496E12</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -19275,10 +20210,10 @@
         <v>1231</v>
       </c>
       <c r="R264" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T264" t="n">
-        <v>1.724136555014E12</v>
+        <v>1.724297406421E12</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -19339,10 +20274,10 @@
         <v>1241</v>
       </c>
       <c r="R266" t="n">
-        <v>2.68</v>
+        <v>0.4400000000000004</v>
       </c>
       <c r="T266" t="n">
-        <v>1.724231748647E12</v>
+        <v>1.724309741034E12</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -19403,10 +20338,10 @@
         <v>1251</v>
       </c>
       <c r="R268" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T268" t="n">
-        <v>1.724136620207E12</v>
+        <v>1.72424611041E12</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -19435,10 +20370,10 @@
         <v>1256</v>
       </c>
       <c r="R269" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T269" t="n">
-        <v>1.72420482131E12</v>
+        <v>1.724297410736E12</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -19467,10 +20402,10 @@
         <v>1261</v>
       </c>
       <c r="R270" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T270" t="n">
-        <v>1.724136633456E12</v>
+        <v>1.72424611576E12</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -19499,10 +20434,10 @@
         <v>1266</v>
       </c>
       <c r="R271" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T271" t="n">
-        <v>1.72413663696E12</v>
+        <v>1.724246117632E12</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -19755,10 +20690,10 @@
         <v>1305</v>
       </c>
       <c r="R279" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T279" t="n">
-        <v>1.724136805425E12</v>
+        <v>1.724246124296E12</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -19819,10 +20754,10 @@
         <v>1311</v>
       </c>
       <c r="R281" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T281" t="n">
-        <v>1.724204828162E12</v>
+        <v>1.724297426181E12</v>
       </c>
     </row>
     <row r="282" spans="1:20">
@@ -19883,10 +20818,10 @@
         <v>1321</v>
       </c>
       <c r="R283" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T283" t="n">
-        <v>1.724136849773E12</v>
+        <v>1.724246133673E12</v>
       </c>
     </row>
     <row r="284" spans="1:20">
@@ -20171,10 +21106,10 @@
         <v>1366</v>
       </c>
       <c r="R292" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T292" t="n">
-        <v>1.724138401083E12</v>
+        <v>1.7242461411E12</v>
       </c>
     </row>
     <row r="293" spans="1:20">
@@ -20203,10 +21138,10 @@
         <v>454</v>
       </c>
       <c r="R293" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T293" t="n">
-        <v>1.724138414148E12</v>
+        <v>1.724246144523E12</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -20235,10 +21170,10 @@
         <v>1375</v>
       </c>
       <c r="R294" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T294" t="n">
-        <v>1.724204835299E12</v>
+        <v>1.724297429579E12</v>
       </c>
     </row>
     <row r="295" spans="1:20">
@@ -20299,10 +21234,10 @@
         <v>1382</v>
       </c>
       <c r="R296" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T296" t="n">
-        <v>1.724138501247E12</v>
+        <v>1.724246168618E12</v>
       </c>
     </row>
     <row r="297" spans="1:20">
@@ -20363,10 +21298,10 @@
         <v>1389</v>
       </c>
       <c r="R298" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T298" t="n">
-        <v>1.724138538565E12</v>
+        <v>1.724291415701E12</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -20395,10 +21330,10 @@
         <v>1389</v>
       </c>
       <c r="R299" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T299" t="n">
-        <v>1.724204838419E12</v>
+        <v>1.724297437315E12</v>
       </c>
     </row>
     <row r="300" spans="1:20">
@@ -20459,10 +21394,10 @@
         <v>1399</v>
       </c>
       <c r="R301" t="n">
-        <v>1.94</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T301" t="n">
-        <v>1.724231784279E12</v>
+        <v>1.724297443592E12</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -20587,10 +21522,10 @@
         <v>1419</v>
       </c>
       <c r="R305" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T305" t="n">
-        <v>1.724204886271E12</v>
+        <v>1.724297445265E12</v>
       </c>
     </row>
     <row r="306" spans="1:20">
@@ -20715,10 +21650,10 @@
         <v>1439</v>
       </c>
       <c r="R309" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="T309" t="n">
-        <v>1.724139942145E12</v>
+        <v>1.724291746888E12</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -20747,10 +21682,10 @@
         <v>1445</v>
       </c>
       <c r="R310" t="n">
-        <v>1.2500000000000053</v>
+        <v>0.8300000000000054</v>
       </c>
       <c r="T310" t="n">
-        <v>1.72413994539E12</v>
+        <v>1.724291752362E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -20779,10 +21714,10 @@
         <v>1449</v>
       </c>
       <c r="R311" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T311" t="n">
-        <v>1.724204923188E12</v>
+        <v>1.724297449201E12</v>
       </c>
     </row>
     <row r="312" spans="1:20">
@@ -20843,10 +21778,10 @@
         <v>1460</v>
       </c>
       <c r="R313" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T313" t="n">
-        <v>1.724231845725E12</v>
+        <v>1.724297452224E12</v>
       </c>
     </row>
     <row r="314" spans="1:20">
@@ -20875,10 +21810,10 @@
         <v>1465</v>
       </c>
       <c r="R314" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T314" t="n">
-        <v>1.724139980087E12</v>
+        <v>1.724246220203E12</v>
       </c>
     </row>
     <row r="315" spans="1:20">
@@ -20971,10 +21906,10 @@
         <v>1480</v>
       </c>
       <c r="R317" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T317" t="n">
-        <v>1.724140002642E12</v>
+        <v>1.724246228349E12</v>
       </c>
     </row>
     <row r="318" spans="1:20">
@@ -21035,10 +21970,10 @@
         <v>1490</v>
       </c>
       <c r="R319" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T319" t="n">
-        <v>1.724204947517E12</v>
+        <v>1.72429745514E12</v>
       </c>
     </row>
     <row r="320" spans="1:20">
@@ -21195,10 +22130,10 @@
         <v>1283</v>
       </c>
       <c r="R324" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T324" t="n">
-        <v>1.724140118414E12</v>
+        <v>1.724297457514E12</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -21227,10 +22162,10 @@
         <v>1518</v>
       </c>
       <c r="R325" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T325" t="n">
-        <v>1.724204979032E12</v>
+        <v>1.724297459854E12</v>
       </c>
     </row>
     <row r="326" spans="1:20">
@@ -21259,10 +22194,10 @@
         <v>1521</v>
       </c>
       <c r="R326" t="n">
-        <v>1.149999999999999</v>
+        <v>0.9399999999999991</v>
       </c>
       <c r="T326" t="n">
-        <v>1.724140196913E12</v>
+        <v>1.724246275773E12</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -21323,10 +22258,10 @@
         <v>1532</v>
       </c>
       <c r="R328" t="n">
-        <v>2.39</v>
+        <v>0.3600000000000003</v>
       </c>
       <c r="T328" t="n">
-        <v>1.72423185849E12</v>
+        <v>1.724309899332E12</v>
       </c>
     </row>
     <row r="329" spans="1:20">
@@ -21387,10 +22322,10 @@
         <v>1543</v>
       </c>
       <c r="R330" t="n">
-        <v>1.1500000000000004</v>
+        <v>0.9400000000000004</v>
       </c>
       <c r="T330" t="n">
-        <v>1.724140262442E12</v>
+        <v>1.724246286597E12</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -21451,10 +22386,10 @@
         <v>1554</v>
       </c>
       <c r="R332" t="n">
-        <v>1.4499999999999988</v>
+        <v>0.41999999999999904</v>
       </c>
       <c r="T332" t="n">
-        <v>1.724140316974E12</v>
+        <v>1.724309902708E12</v>
       </c>
     </row>
     <row r="333" spans="1:20">
@@ -21483,10 +22418,10 @@
         <v>1559</v>
       </c>
       <c r="R333" t="n">
-        <v>1.4000000000000008</v>
+        <v>0.9800000000000009</v>
       </c>
       <c r="T333" t="n">
-        <v>1.724140331472E12</v>
+        <v>1.724291835809E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -21515,10 +22450,10 @@
         <v>1564</v>
       </c>
       <c r="R334" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.32999999999999985</v>
       </c>
       <c r="T334" t="n">
-        <v>1.724140391604E12</v>
+        <v>1.724310105447E12</v>
       </c>
     </row>
     <row r="335" spans="1:20">
@@ -21547,10 +22482,10 @@
         <v>1238</v>
       </c>
       <c r="R335" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.9199999999999997</v>
       </c>
       <c r="T335" t="n">
-        <v>1.724140430275E12</v>
+        <v>1.724297487542E12</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -21579,10 +22514,10 @@
         <v>1573</v>
       </c>
       <c r="R336" t="n">
-        <v>1.4500000000000033</v>
+        <v>0.3300000000000034</v>
       </c>
       <c r="T336" t="n">
-        <v>1.724140439955E12</v>
+        <v>1.724297492196E12</v>
       </c>
     </row>
     <row r="337" spans="1:20">
@@ -21611,10 +22546,10 @@
         <v>1578</v>
       </c>
       <c r="R337" t="n">
-        <v>1.2999999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="T337" t="n">
-        <v>1.724140465304E12</v>
+        <v>1.724297506688E12</v>
       </c>
     </row>
     <row r="338" spans="1:20">
@@ -21643,10 +22578,10 @@
         <v>1583</v>
       </c>
       <c r="R338" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T338" t="n">
-        <v>1.724205014466E12</v>
+        <v>1.724297510959E12</v>
       </c>
     </row>
     <row r="339" spans="1:20">
@@ -21771,10 +22706,10 @@
         <v>1604</v>
       </c>
       <c r="R342" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T342" t="n">
-        <v>1.724140540054E12</v>
+        <v>1.724246367812E12</v>
       </c>
     </row>
     <row r="343" spans="1:20">
@@ -21803,10 +22738,10 @@
         <v>1609</v>
       </c>
       <c r="R343" t="n">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="T343" t="n">
-        <v>1.724140545968E12</v>
+        <v>1.724291875235E12</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -21835,10 +22770,10 @@
         <v>1614</v>
       </c>
       <c r="R344" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T344" t="n">
-        <v>1.724205016517E12</v>
+        <v>1.724297512847E12</v>
       </c>
     </row>
     <row r="345" spans="1:20">
@@ -21867,10 +22802,10 @@
         <v>1618</v>
       </c>
       <c r="R345" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T345" t="n">
-        <v>1.72420501892E12</v>
+        <v>1.724297514432E12</v>
       </c>
     </row>
     <row r="346" spans="1:20">
@@ -21899,10 +22834,10 @@
         <v>1622</v>
       </c>
       <c r="R346" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T346" t="n">
-        <v>1.724205022E12</v>
+        <v>1.724297516929E12</v>
       </c>
     </row>
     <row r="347" spans="1:20">
@@ -21931,10 +22866,10 @@
         <v>1626</v>
       </c>
       <c r="R347" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T347" t="n">
-        <v>1.724140613142E12</v>
+        <v>1.724246386054E12</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -21995,10 +22930,10 @@
         <v>1635</v>
       </c>
       <c r="R349" t="n">
-        <v>1.94</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T349" t="n">
-        <v>1.724231860778E12</v>
+        <v>1.724297518434E12</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -22059,10 +22994,10 @@
         <v>1645</v>
       </c>
       <c r="R351" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T351" t="n">
-        <v>1.724205026968E12</v>
+        <v>1.724297522128E12</v>
       </c>
     </row>
     <row r="352" spans="1:20">
@@ -22123,10 +23058,10 @@
         <v>1651</v>
       </c>
       <c r="R353" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T353" t="n">
-        <v>1.724205029659E12</v>
+        <v>1.724297524119E12</v>
       </c>
     </row>
     <row r="354" spans="1:20">
@@ -22155,10 +23090,10 @@
         <v>1656</v>
       </c>
       <c r="R354" t="n">
-        <v>1.94</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="T354" t="n">
-        <v>1.724231864311E12</v>
+        <v>1.724297527927E12</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -22187,10 +23122,10 @@
         <v>1661</v>
       </c>
       <c r="R355" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T355" t="n">
-        <v>1.724231866367E12</v>
+        <v>1.724297529457E12</v>
       </c>
     </row>
     <row r="356" spans="1:20">
@@ -22219,10 +23154,10 @@
         <v>1666</v>
       </c>
       <c r="R356" t="n">
-        <v>1.0</v>
+        <v>0.7799999999999998</v>
       </c>
       <c r="T356" t="n">
-        <v>1.724140842415E12</v>
+        <v>1.724309957997E12</v>
       </c>
     </row>
     <row r="357" spans="1:20">
@@ -22283,10 +23218,10 @@
         <v>1676</v>
       </c>
       <c r="R358" t="n">
-        <v>1.6</v>
+        <v>0.9900000000000002</v>
       </c>
       <c r="T358" t="n">
-        <v>1.724205117397E12</v>
+        <v>1.72429754831E12</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -22315,10 +23250,10 @@
         <v>1681</v>
       </c>
       <c r="R359" t="n">
-        <v>1.4000000000000115</v>
+        <v>0.9800000000000115</v>
       </c>
       <c r="T359" t="n">
-        <v>1.72414094215E12</v>
+        <v>1.724291951928E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -22411,10 +23346,10 @@
         <v>1695</v>
       </c>
       <c r="R362" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T362" t="n">
-        <v>1.724141302009E12</v>
+        <v>1.724246437597E12</v>
       </c>
     </row>
     <row r="363" spans="1:20">
@@ -22475,10 +23410,10 @@
         <v>1705</v>
       </c>
       <c r="R364" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T364" t="n">
-        <v>1.724141334302E12</v>
+        <v>1.724246442209E12</v>
       </c>
     </row>
     <row r="365" spans="1:20">
@@ -22539,10 +23474,10 @@
         <v>1715</v>
       </c>
       <c r="R366" t="n">
-        <v>1.4000000000000008</v>
+        <v>0.9800000000000009</v>
       </c>
       <c r="T366" t="n">
-        <v>1.724141348653E12</v>
+        <v>1.724291953588E12</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -22571,10 +23506,10 @@
         <v>1720</v>
       </c>
       <c r="R367" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724141378313E12</v>
+        <v>1.724246451711E12</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -22635,10 +23570,10 @@
         <v>1730</v>
       </c>
       <c r="R369" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T369" t="n">
-        <v>1.724141392987E12</v>
+        <v>1.724246454679E12</v>
       </c>
     </row>
     <row r="370" spans="1:20">
@@ -22667,10 +23602,10 @@
         <v>1735</v>
       </c>
       <c r="R370" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T370" t="n">
-        <v>1.724231870832E12</v>
+        <v>1.724297557262E12</v>
       </c>
     </row>
     <row r="371" spans="1:20">
@@ -22699,10 +23634,10 @@
         <v>1740</v>
       </c>
       <c r="R371" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T371" t="n">
-        <v>1.724141476059E12</v>
+        <v>1.724246461469E12</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -22731,10 +23666,10 @@
         <v>779</v>
       </c>
       <c r="R372" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724141486916E12</v>
+        <v>1.724246468236E12</v>
       </c>
     </row>
     <row r="373" spans="1:20">
@@ -22763,10 +23698,10 @@
         <v>1748</v>
       </c>
       <c r="R373" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T373" t="n">
-        <v>1.724205125329E12</v>
+        <v>1.724297559427E12</v>
       </c>
     </row>
     <row r="374" spans="1:20">
@@ -22891,10 +23826,10 @@
         <v>1767</v>
       </c>
       <c r="R377" t="n">
-        <v>1.2500000000000053</v>
+        <v>0.8300000000000054</v>
       </c>
       <c r="T377" t="n">
-        <v>1.724141575726E12</v>
+        <v>1.72429196823E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -22923,10 +23858,10 @@
         <v>1771</v>
       </c>
       <c r="R378" t="n">
-        <v>1.5</v>
+        <v>0.4700000000000002</v>
       </c>
       <c r="T378" t="n">
-        <v>1.724205130403E12</v>
+        <v>1.724310051118E12</v>
       </c>
     </row>
     <row r="379" spans="1:20">
@@ -23083,10 +24018,10 @@
         <v>1793</v>
       </c>
       <c r="R383" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.8800000000000003</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724231874846E12</v>
+        <v>1.724297566979E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -23147,10 +24082,10 @@
         <v>1803</v>
       </c>
       <c r="R385" t="n">
-        <v>3.6799999999999997</v>
+        <v>0.53</v>
       </c>
       <c r="T385" t="n">
-        <v>1.724231881145E12</v>
+        <v>1.724310054584E12</v>
       </c>
     </row>
     <row r="386" spans="1:20">
@@ -23179,10 +24114,10 @@
         <v>1808</v>
       </c>
       <c r="R386" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T386" t="n">
-        <v>1.724205208764E12</v>
+        <v>1.724297573037E12</v>
       </c>
     </row>
     <row r="387" spans="1:20">
@@ -23211,10 +24146,10 @@
         <v>1813</v>
       </c>
       <c r="R387" t="n">
-        <v>1.0</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T387" t="n">
-        <v>1.724141847196E12</v>
+        <v>1.724310056275E12</v>
       </c>
     </row>
     <row r="388" spans="1:20">
@@ -23243,10 +24178,10 @@
         <v>1818</v>
       </c>
       <c r="R388" t="n">
-        <v>1.6</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="T388" t="n">
-        <v>1.724205215233E12</v>
+        <v>1.724310057742E12</v>
       </c>
     </row>
     <row r="389" spans="1:20">
@@ -23403,10 +24338,10 @@
         <v>1841</v>
       </c>
       <c r="R393" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T393" t="n">
-        <v>1.724205244963E12</v>
+        <v>1.724297579031E12</v>
       </c>
     </row>
     <row r="394" spans="1:20">
@@ -23467,10 +24402,10 @@
         <v>1851</v>
       </c>
       <c r="R395" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T395" t="n">
-        <v>1.724205248674E12</v>
+        <v>1.724297582226E12</v>
       </c>
     </row>
     <row r="396" spans="1:20">
@@ -23499,10 +24434,10 @@
         <v>1856</v>
       </c>
       <c r="R396" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724141935087E12</v>
+        <v>1.724246529653E12</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -23563,10 +24498,10 @@
         <v>1865</v>
       </c>
       <c r="R398" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T398" t="n">
-        <v>1.724142045614E12</v>
+        <v>1.72424653421E12</v>
       </c>
     </row>
     <row r="399" spans="1:20">
@@ -23595,10 +24530,10 @@
         <v>1870</v>
       </c>
       <c r="R399" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T399" t="n">
-        <v>1.724231888333E12</v>
+        <v>1.724297585871E12</v>
       </c>
     </row>
     <row r="400" spans="1:20">
@@ -23627,10 +24562,10 @@
         <v>1875</v>
       </c>
       <c r="R400" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T400" t="n">
-        <v>1.724205255415E12</v>
+        <v>1.724297597217E12</v>
       </c>
     </row>
     <row r="401" spans="1:20">
@@ -23691,10 +24626,10 @@
         <v>1885</v>
       </c>
       <c r="R402" t="n">
-        <v>1.1</v>
+        <v>0.0</v>
       </c>
       <c r="T402" t="n">
-        <v>1.72414372637E12</v>
+        <v>1.72429675374E12</v>
       </c>
     </row>
     <row r="403" spans="1:20">
@@ -23723,10 +24658,10 @@
         <v>1890</v>
       </c>
       <c r="R403" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T403" t="n">
-        <v>1.724231890304E12</v>
+        <v>1.724297599201E12</v>
       </c>
     </row>
     <row r="404" spans="1:20">
@@ -23755,10 +24690,10 @@
         <v>1895</v>
       </c>
       <c r="R404" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T404" t="n">
-        <v>1.724205260097E12</v>
+        <v>1.724297603659E12</v>
       </c>
     </row>
     <row r="405" spans="1:20">
@@ -23787,10 +24722,10 @@
         <v>1900</v>
       </c>
       <c r="R405" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T405" t="n">
-        <v>1.724143814786E12</v>
+        <v>1.724246576765E12</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -23851,10 +24786,10 @@
         <v>1910</v>
       </c>
       <c r="R407" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T407" t="n">
-        <v>1.724144084943E12</v>
+        <v>1.724246579228E12</v>
       </c>
     </row>
     <row r="408" spans="1:20">
@@ -23915,10 +24850,10 @@
         <v>1920</v>
       </c>
       <c r="R409" t="n">
-        <v>1.2499999999999996</v>
+        <v>0.8299999999999996</v>
       </c>
       <c r="T409" t="n">
-        <v>1.724144115628E12</v>
+        <v>1.724292113284E12</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -23947,10 +24882,10 @@
         <v>1925</v>
       </c>
       <c r="R410" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T410" t="n">
-        <v>1.724205262397E12</v>
+        <v>1.724297605425E12</v>
       </c>
     </row>
     <row r="411" spans="1:20">
@@ -24043,10 +24978,10 @@
         <v>1000</v>
       </c>
       <c r="R413" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T413" t="n">
-        <v>1.724144189915E12</v>
+        <v>1.724297607504E12</v>
       </c>
     </row>
     <row r="414" spans="1:20">
@@ -24107,10 +25042,10 @@
         <v>1948</v>
       </c>
       <c r="R415" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T415" t="n">
-        <v>1.724144209536E12</v>
+        <v>1.724246602669E12</v>
       </c>
     </row>
     <row r="416" spans="1:20">
@@ -24203,10 +25138,10 @@
         <v>1963</v>
       </c>
       <c r="R418" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T418" t="n">
-        <v>1.72414427323E12</v>
+        <v>1.724297610756E12</v>
       </c>
     </row>
     <row r="419" spans="1:20">
@@ -24299,10 +25234,10 @@
         <v>1975</v>
       </c>
       <c r="R421" t="n">
-        <v>1.1999999999999993</v>
+        <v>0.9899999999999993</v>
       </c>
       <c r="T421" t="n">
-        <v>1.724144299015E12</v>
+        <v>1.72424662456E12</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -24363,10 +25298,10 @@
         <v>208</v>
       </c>
       <c r="R423" t="n">
-        <v>1.3000000000000047</v>
+        <v>0.8800000000000048</v>
       </c>
       <c r="T423" t="n">
-        <v>1.724144366342E12</v>
+        <v>1.724292129356E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -24395,10 +25330,10 @@
         <v>1986</v>
       </c>
       <c r="R424" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T424" t="n">
-        <v>1.724144370346E12</v>
+        <v>1.724297614328E12</v>
       </c>
     </row>
     <row r="425" spans="1:20">
@@ -24427,10 +25362,10 @@
         <v>1991</v>
       </c>
       <c r="R425" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T425" t="n">
-        <v>1.724144389927E12</v>
+        <v>1.724246640801E12</v>
       </c>
     </row>
     <row r="426" spans="1:20">
@@ -24459,10 +25394,10 @@
         <v>1996</v>
       </c>
       <c r="R426" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T426" t="n">
-        <v>1.724205265891E12</v>
+        <v>1.724308966503E12</v>
       </c>
     </row>
     <row r="427" spans="1:20">
@@ -24491,10 +25426,10 @@
         <v>2001</v>
       </c>
       <c r="R427" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T427" t="n">
-        <v>1.724144409297E12</v>
+        <v>1.724246648375E12</v>
       </c>
     </row>
     <row r="428" spans="1:20">
@@ -24555,10 +25490,10 @@
         <v>2011</v>
       </c>
       <c r="R429" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T429" t="n">
-        <v>1.724205276943E12</v>
+        <v>1.724308968913E12</v>
       </c>
     </row>
     <row r="430" spans="1:20">
@@ -24587,10 +25522,10 @@
         <v>2016</v>
       </c>
       <c r="R430" t="n">
-        <v>1.1499999999999995</v>
+        <v>0.9399999999999995</v>
       </c>
       <c r="T430" t="n">
-        <v>1.724144456909E12</v>
+        <v>1.724246652704E12</v>
       </c>
     </row>
     <row r="431" spans="1:20">
@@ -24651,10 +25586,10 @@
         <v>2026</v>
       </c>
       <c r="R432" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T432" t="n">
-        <v>1.724144467928E12</v>
+        <v>1.724308971918E12</v>
       </c>
     </row>
     <row r="433" spans="1:20">
@@ -24683,10 +25618,10 @@
         <v>2031</v>
       </c>
       <c r="R433" t="n">
-        <v>1.5499999999999994</v>
+        <v>0.4299999999999995</v>
       </c>
       <c r="T433" t="n">
-        <v>1.724144475382E12</v>
+        <v>1.724308973823E12</v>
       </c>
     </row>
     <row r="434" spans="1:20">
@@ -24715,10 +25650,10 @@
         <v>2036</v>
       </c>
       <c r="R434" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T434" t="n">
-        <v>1.724205299405E12</v>
+        <v>1.724308981813E12</v>
       </c>
     </row>
     <row r="435" spans="1:20">
@@ -24747,10 +25682,10 @@
         <v>2041</v>
       </c>
       <c r="R435" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T435" t="n">
-        <v>1.724205301647E12</v>
+        <v>1.724308983943E12</v>
       </c>
     </row>
     <row r="436" spans="1:20">
@@ -24811,10 +25746,10 @@
         <v>2049</v>
       </c>
       <c r="R437" t="n">
-        <v>1.0</v>
+        <v>0.8800000000000001</v>
       </c>
       <c r="T437" t="n">
-        <v>1.724144531628E12</v>
+        <v>1.724309008893E12</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -24843,10 +25778,10 @@
         <v>2054</v>
       </c>
       <c r="R438" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T438" t="n">
-        <v>1.724144538322E12</v>
+        <v>1.72424668552E12</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -24875,10 +25810,10 @@
         <v>2058</v>
       </c>
       <c r="R439" t="n">
-        <v>1.4000000000000026</v>
+        <v>0.9800000000000026</v>
       </c>
       <c r="T439" t="n">
-        <v>1.724144546398E12</v>
+        <v>1.72429216629E12</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -24907,10 +25842,10 @@
         <v>2058</v>
       </c>
       <c r="R440" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T440" t="n">
-        <v>1.724205433853E12</v>
+        <v>1.724309014202E12</v>
       </c>
     </row>
     <row r="441" spans="1:20">
@@ -24939,10 +25874,10 @@
         <v>2058</v>
       </c>
       <c r="R441" t="n">
-        <v>1.3000000000000047</v>
+        <v>0.7800000000000051</v>
       </c>
       <c r="T441" t="n">
-        <v>1.724144559188E12</v>
+        <v>1.724309017905E12</v>
       </c>
     </row>
     <row r="442" spans="1:20">
@@ -25003,10 +25938,10 @@
         <v>2058</v>
       </c>
       <c r="R443" t="n">
-        <v>1.6</v>
+        <v>0.8700000000000006</v>
       </c>
       <c r="T443" t="n">
-        <v>1.724205465483E12</v>
+        <v>1.724310109132E12</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -25035,10 +25970,10 @@
         <v>2072</v>
       </c>
       <c r="R444" t="n">
-        <v>3.5</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="T444" t="n">
-        <v>1.724232043171E12</v>
+        <v>1.724310111992E12</v>
       </c>
     </row>
     <row r="445" spans="1:20">
@@ -25067,10 +26002,10 @@
         <v>2077</v>
       </c>
       <c r="R445" t="n">
-        <v>1.35</v>
+        <v>0.9300000000000002</v>
       </c>
       <c r="T445" t="n">
-        <v>1.724144617052E12</v>
+        <v>1.724292215849E12</v>
       </c>
     </row>
     <row r="446" spans="1:20">
@@ -25099,10 +26034,10 @@
         <v>2082</v>
       </c>
       <c r="R446" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T446" t="n">
-        <v>1.724205477324E12</v>
+        <v>1.724309043366E12</v>
       </c>
     </row>
     <row r="447" spans="1:20">
@@ -25163,10 +26098,10 @@
         <v>2091</v>
       </c>
       <c r="R448" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.33999999999999964</v>
       </c>
       <c r="T448" t="n">
-        <v>1.724144672222E12</v>
+        <v>1.724310073233E12</v>
       </c>
     </row>
     <row r="449" spans="1:20">
@@ -25227,10 +26162,10 @@
         <v>2101</v>
       </c>
       <c r="R450" t="n">
-        <v>1.9999999999999996</v>
+        <v>0.9699999999999998</v>
       </c>
       <c r="T450" t="n">
-        <v>1.724205479458E12</v>
+        <v>1.724309050326E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -25259,10 +26194,10 @@
         <v>2106</v>
       </c>
       <c r="R451" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T451" t="n">
-        <v>1.724144705213E12</v>
+        <v>1.724246757551E12</v>
       </c>
     </row>
     <row r="452" spans="1:20">
@@ -25355,10 +26290,10 @@
         <v>2121</v>
       </c>
       <c r="R454" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T454" t="n">
-        <v>1.724205486156E12</v>
+        <v>1.724309053189E12</v>
       </c>
     </row>
     <row r="455" spans="1:20">
@@ -25483,10 +26418,10 @@
         <v>2141</v>
       </c>
       <c r="R458" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T458" t="n">
-        <v>1.724205488954E12</v>
+        <v>1.724309055364E12</v>
       </c>
     </row>
     <row r="459" spans="1:20">
@@ -25611,10 +26546,10 @@
         <v>2158</v>
       </c>
       <c r="R462" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T462" t="n">
-        <v>1.724144834698E12</v>
+        <v>1.724309057103E12</v>
       </c>
     </row>
     <row r="463" spans="1:20">
@@ -25675,10 +26610,10 @@
         <v>2168</v>
       </c>
       <c r="R464" t="n">
-        <v>1.6</v>
+        <v>0.38000000000000056</v>
       </c>
       <c r="T464" t="n">
-        <v>1.724205491164E12</v>
+        <v>1.724310076969E12</v>
       </c>
     </row>
     <row r="465" spans="1:20">
@@ -25707,10 +26642,10 @@
         <v>2172</v>
       </c>
       <c r="R465" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T465" t="n">
-        <v>1.724144859107E12</v>
+        <v>1.724309118193E12</v>
       </c>
     </row>
     <row r="466" spans="1:20">
@@ -25739,10 +26674,10 @@
         <v>2177</v>
       </c>
       <c r="R466" t="n">
-        <v>1.1</v>
+        <v>0.9800000000000002</v>
       </c>
       <c r="T466" t="n">
-        <v>1.724144904235E12</v>
+        <v>1.724309121077E12</v>
       </c>
     </row>
     <row r="467" spans="1:20">
@@ -25835,10 +26770,10 @@
         <v>2192</v>
       </c>
       <c r="R469" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T469" t="n">
-        <v>1.72414493021E12</v>
+        <v>1.724246800698E12</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -25867,10 +26802,10 @@
         <v>2197</v>
       </c>
       <c r="R470" t="n">
-        <v>1.35</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="T470" t="n">
-        <v>1.72414497924E12</v>
+        <v>1.724309129855E12</v>
       </c>
     </row>
     <row r="471" spans="1:20">
@@ -25899,10 +26834,10 @@
         <v>2202</v>
       </c>
       <c r="R471" t="n">
-        <v>1.399999999999999</v>
+        <v>0.3699999999999992</v>
       </c>
       <c r="T471" t="n">
-        <v>1.724144984166E12</v>
+        <v>1.724310079209E12</v>
       </c>
     </row>
     <row r="472" spans="1:20">
@@ -25995,10 +26930,10 @@
         <v>2216</v>
       </c>
       <c r="R474" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T474" t="n">
-        <v>1.724205493497E12</v>
+        <v>1.724309135617E12</v>
       </c>
     </row>
     <row r="475" spans="1:20">
@@ -26027,10 +26962,10 @@
         <v>2221</v>
       </c>
       <c r="R475" t="n">
-        <v>1.35</v>
+        <v>0.7400000000000002</v>
       </c>
       <c r="T475" t="n">
-        <v>1.72414509279E12</v>
+        <v>1.724309144557E12</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -26059,10 +26994,10 @@
         <v>2226</v>
       </c>
       <c r="R476" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T476" t="n">
-        <v>1.724232048229E12</v>
+        <v>1.724309201193E12</v>
       </c>
     </row>
     <row r="477" spans="1:20">
@@ -26091,10 +27026,10 @@
         <v>2231</v>
       </c>
       <c r="R477" t="n">
-        <v>1.3000000000000136</v>
+        <v>0.8800000000000137</v>
       </c>
       <c r="T477" t="n">
-        <v>1.724145119394E12</v>
+        <v>1.724292287045E12</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -26155,10 +27090,10 @@
         <v>2241</v>
       </c>
       <c r="R479" t="n">
-        <v>1.4499999999999997</v>
+        <v>0.32999999999999985</v>
       </c>
       <c r="T479" t="n">
-        <v>1.724145131405E12</v>
+        <v>1.724309203051E12</v>
       </c>
     </row>
     <row r="480" spans="1:20">
@@ -26187,10 +27122,10 @@
         <v>502</v>
       </c>
       <c r="R480" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T480" t="n">
-        <v>1.724205498534E12</v>
+        <v>1.724309209297E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -26251,10 +27186,10 @@
         <v>2253</v>
       </c>
       <c r="R482" t="n">
-        <v>1.9400000000000035</v>
+        <v>0.8200000000000036</v>
       </c>
       <c r="T482" t="n">
-        <v>1.724232052959E12</v>
+        <v>1.724309211367E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -26283,10 +27218,10 @@
         <v>2257</v>
       </c>
       <c r="R483" t="n">
-        <v>1.6</v>
+        <v>0.7800000000000002</v>
       </c>
       <c r="T483" t="n">
-        <v>1.724205514347E12</v>
+        <v>1.72431008115E12</v>
       </c>
     </row>
     <row r="484" spans="1:20">
@@ -26315,10 +27250,10 @@
         <v>2262</v>
       </c>
       <c r="R484" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T484" t="n">
-        <v>1.724145219302E12</v>
+        <v>1.724246885245E12</v>
       </c>
     </row>
     <row r="485" spans="1:20">
@@ -26347,10 +27282,10 @@
         <v>2267</v>
       </c>
       <c r="R485" t="n">
-        <v>1.3500000000000036</v>
+        <v>0.32000000000000384</v>
       </c>
       <c r="T485" t="n">
-        <v>1.724145229072E12</v>
+        <v>1.724310084188E12</v>
       </c>
     </row>
     <row r="486" spans="1:20">
@@ -26379,10 +27314,10 @@
         <v>2272</v>
       </c>
       <c r="R486" t="n">
-        <v>1.4000000000000008</v>
+        <v>0.9800000000000009</v>
       </c>
       <c r="T486" t="n">
-        <v>1.724145264522E12</v>
+        <v>1.724292310522E12</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -26411,10 +27346,10 @@
         <v>2277</v>
       </c>
       <c r="R487" t="n">
-        <v>4.480000000000002</v>
+        <v>0.5300000000000018</v>
       </c>
       <c r="T487" t="n">
-        <v>1.72423205634E12</v>
+        <v>1.724310088211E12</v>
       </c>
     </row>
     <row r="488" spans="1:20">
@@ -26431,10 +27366,10 @@
         <v>4</v>
       </c>
       <c r="R488" t="n">
-        <v>1.8900000000000001</v>
+        <v>0.7700000000000002</v>
       </c>
       <c r="T488" t="n">
-        <v>1.724232058537E12</v>
+        <v>1.724309240271E12</v>
       </c>
     </row>
     <row r="489" spans="1:20">
@@ -26471,10 +27406,10 @@
         <v>4</v>
       </c>
       <c r="R490" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T490" t="n">
-        <v>1.724145306311E12</v>
+        <v>1.724246990439E12</v>
       </c>
     </row>
     <row r="491" spans="1:20">
@@ -26491,10 +27426,10 @@
         <v>4</v>
       </c>
       <c r="R491" t="n">
-        <v>1.5</v>
+        <v>0.3800000000000001</v>
       </c>
       <c r="T491" t="n">
-        <v>1.724205526399E12</v>
+        <v>1.724309286358E12</v>
       </c>
     </row>
     <row r="492" spans="1:20">
@@ -26871,10 +27806,10 @@
         <v>4</v>
       </c>
       <c r="R510" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T510" t="n">
-        <v>1.721565953445E12</v>
+        <v>1.724309291611E12</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -26911,10 +27846,10 @@
         <v>4</v>
       </c>
       <c r="R512" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T512" t="n">
-        <v>1.721565959688E12</v>
+        <v>1.724246998347E12</v>
       </c>
     </row>
     <row r="513" spans="1:20">
@@ -26931,10 +27866,10 @@
         <v>4</v>
       </c>
       <c r="R513" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T513" t="n">
-        <v>1.721565962989E12</v>
+        <v>1.724246999723E12</v>
       </c>
     </row>
     <row r="514" spans="1:20">
@@ -26971,10 +27906,10 @@
         <v>3</v>
       </c>
       <c r="R515" t="n">
-        <v>1.65</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="T515" t="n">
-        <v>1.721699542583E12</v>
+        <v>1.72430929304E12</v>
       </c>
     </row>
     <row r="516" spans="1:20">
@@ -27031,10 +27966,10 @@
         <v>3</v>
       </c>
       <c r="R518" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T518" t="n">
-        <v>1.721565975138E12</v>
+        <v>1.724247009173E12</v>
       </c>
     </row>
     <row r="519" spans="1:20">
@@ -27271,10 +28206,10 @@
         <v>4</v>
       </c>
       <c r="R530" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T530" t="n">
-        <v>1.72156600708E12</v>
+        <v>1.724247010703E12</v>
       </c>
     </row>
     <row r="531" spans="1:20">
@@ -27331,10 +28266,10 @@
         <v>4</v>
       </c>
       <c r="R533" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T533" t="n">
-        <v>1.721566014704E12</v>
+        <v>1.724247013737E12</v>
       </c>
     </row>
     <row r="534" spans="1:20">
@@ -27371,10 +28306,10 @@
         <v>4</v>
       </c>
       <c r="R535" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T535" t="n">
-        <v>1.721566020755E12</v>
+        <v>1.724247015714E12</v>
       </c>
     </row>
     <row r="536" spans="1:20">
@@ -27411,10 +28346,10 @@
         <v>4</v>
       </c>
       <c r="R537" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T537" t="n">
-        <v>1.721566027717E12</v>
+        <v>1.724247017917E12</v>
       </c>
     </row>
     <row r="538" spans="1:20">
@@ -27431,10 +28366,10 @@
         <v>3</v>
       </c>
       <c r="R538" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T538" t="n">
-        <v>1.721566034606E12</v>
+        <v>1.724247022118E12</v>
       </c>
     </row>
     <row r="539" spans="1:20">
@@ -27531,10 +28466,10 @@
         <v>4</v>
       </c>
       <c r="R543" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T543" t="n">
-        <v>1.721566051118E12</v>
+        <v>1.724309312841E12</v>
       </c>
     </row>
     <row r="544" spans="1:20">
@@ -27671,10 +28606,10 @@
         <v>3</v>
       </c>
       <c r="R550" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T550" t="n">
-        <v>1.721566068725E12</v>
+        <v>1.724247055883E12</v>
       </c>
     </row>
     <row r="551" spans="1:20">
@@ -27731,10 +28666,10 @@
         <v>3</v>
       </c>
       <c r="R553" t="n">
-        <v>1.5500000000000016</v>
+        <v>0.4300000000000017</v>
       </c>
       <c r="T553" t="n">
-        <v>1.723776816508E12</v>
+        <v>1.724309314122E12</v>
       </c>
     </row>
     <row r="554" spans="1:20">
@@ -27751,10 +28686,10 @@
         <v>4</v>
       </c>
       <c r="R554" t="n">
-        <v>1.7999999999999994</v>
+        <v>0.6799999999999995</v>
       </c>
       <c r="T554" t="n">
-        <v>1.723776818439E12</v>
+        <v>1.72430931826E12</v>
       </c>
     </row>
     <row r="555" spans="1:20">
@@ -27791,10 +28726,10 @@
         <v>3</v>
       </c>
       <c r="R556" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T556" t="n">
-        <v>1.721566095358E12</v>
+        <v>1.724247067549E12</v>
       </c>
     </row>
     <row r="557" spans="1:20">
@@ -27831,10 +28766,10 @@
         <v>4</v>
       </c>
       <c r="R558" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T558" t="n">
-        <v>1.721566100025E12</v>
+        <v>1.724309319882E12</v>
       </c>
     </row>
     <row r="559" spans="1:20">
@@ -28051,10 +28986,10 @@
         <v>4</v>
       </c>
       <c r="R569" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T569" t="n">
-        <v>1.721566126761E12</v>
+        <v>1.724309321497E12</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -28111,10 +29046,10 @@
         <v>4</v>
       </c>
       <c r="R572" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T572" t="n">
-        <v>1.721566135768E12</v>
+        <v>1.724247073525E12</v>
       </c>
     </row>
     <row r="573" spans="1:20">
@@ -28131,10 +29066,10 @@
         <v>4</v>
       </c>
       <c r="R573" t="n">
-        <v>1.6</v>
+        <v>0.5700000000000003</v>
       </c>
       <c r="T573" t="n">
-        <v>1.721566138575E12</v>
+        <v>1.724310089781E12</v>
       </c>
     </row>
     <row r="574" spans="1:20">
@@ -28151,10 +29086,10 @@
         <v>3</v>
       </c>
       <c r="R574" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T574" t="n">
-        <v>1.721566143083E12</v>
+        <v>1.724247085128E12</v>
       </c>
     </row>
     <row r="575" spans="1:20">
@@ -28171,10 +29106,10 @@
         <v>4</v>
       </c>
       <c r="R575" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T575" t="n">
-        <v>1.721566147315E12</v>
+        <v>1.724247089601E12</v>
       </c>
     </row>
     <row r="576" spans="1:20">
@@ -28191,10 +29126,10 @@
         <v>4</v>
       </c>
       <c r="R576" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T576" t="n">
-        <v>1.721566151215E12</v>
+        <v>1.724309324795E12</v>
       </c>
     </row>
     <row r="577" spans="1:20">
@@ -28211,10 +29146,10 @@
         <v>3</v>
       </c>
       <c r="R577" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T577" t="n">
-        <v>1.721566153684E12</v>
+        <v>1.724247096628E12</v>
       </c>
     </row>
     <row r="578" spans="1:20">
@@ -28231,10 +29166,10 @@
         <v>4</v>
       </c>
       <c r="R578" t="n">
-        <v>1.0</v>
+        <v>0.79</v>
       </c>
       <c r="T578" t="n">
-        <v>1.721566155004E12</v>
+        <v>1.72424709906E12</v>
       </c>
     </row>
     <row r="579" spans="1:20">
@@ -28251,10 +29186,10 @@
         <v>4</v>
       </c>
       <c r="R579" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T579" t="n">
-        <v>1.721566156874E12</v>
+        <v>1.724309326241E12</v>
       </c>
     </row>
     <row r="580" spans="1:20">
@@ -28311,10 +29246,10 @@
         <v>4</v>
       </c>
       <c r="R582" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T582" t="n">
-        <v>1.721566164035E12</v>
+        <v>1.72430932892E12</v>
       </c>
     </row>
     <row r="583" spans="1:20">
@@ -28391,10 +29326,10 @@
         <v>4</v>
       </c>
       <c r="R586" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T586" t="n">
-        <v>1.721566172587E12</v>
+        <v>1.724309330043E12</v>
       </c>
     </row>
     <row r="587" spans="1:20">
@@ -28451,10 +29386,10 @@
         <v>4</v>
       </c>
       <c r="R589" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T589" t="n">
-        <v>1.721566180752E12</v>
+        <v>1.724247109963E12</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -28511,10 +29446,10 @@
         <v>4</v>
       </c>
       <c r="R592" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T592" t="n">
-        <v>1.721566185855E12</v>
+        <v>1.724309332762E12</v>
       </c>
     </row>
     <row r="593" spans="1:20">
@@ -28631,10 +29566,10 @@
         <v>4</v>
       </c>
       <c r="R598" t="n">
-        <v>1.6</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="T598" t="n">
-        <v>1.721566201593E12</v>
+        <v>1.724309335576E12</v>
       </c>
     </row>
     <row r="599" spans="1:20">
@@ -28691,10 +29626,10 @@
         <v>4</v>
       </c>
       <c r="R601" t="n">
-        <v>1.1</v>
+        <v>0.8900000000000001</v>
       </c>
       <c r="T601" t="n">
-        <v>1.721566210498E12</v>
+        <v>1.72424711981E12</v>
       </c>
     </row>
     <row r="602" spans="1:20">

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3887" uniqueCount="2496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="2497">
   <si>
     <t>题型</t>
   </si>
@@ -7565,6 +7565,9 @@
   </si>
   <si>
     <t>您一共做了: 3题	您的得分： 100.0	做题时长约为0.2Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 100题	您的得分： 89.0	做题时长约为8.583333333333334Min</t>
   </si>
 </sst>
 </file>
@@ -8208,7 +8211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2810">
+  <cellXfs count="2911">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -10811,115 +10814,216 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -11512,7 +11616,7 @@
         <v>28</v>
       </c>
       <c r="AB4" t="n">
-        <v>501.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -15991,6 +16095,9 @@
       <c r="T132" t="n">
         <v>1.724119071056E12</v>
       </c>
+      <c r="AA132" t="s">
+        <v>2496</v>
+      </c>
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="1">
@@ -16023,6 +16130,9 @@
       <c r="T133" t="n">
         <v>1.724290503653E12</v>
       </c>
+      <c r="AA133" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="1">
@@ -27649,7 +27759,7 @@
         <v>0.0</v>
       </c>
       <c r="T502" t="n">
-        <v>1.721565924955E12</v>
+        <v>1.72431799884E12</v>
       </c>
     </row>
     <row r="503" spans="1:20">
@@ -27669,7 +27779,7 @@
         <v>0.0</v>
       </c>
       <c r="T503" t="n">
-        <v>1.721565928394E12</v>
+        <v>1.724318006524E12</v>
       </c>
     </row>
     <row r="504" spans="1:20">
@@ -27689,7 +27799,7 @@
         <v>0.0</v>
       </c>
       <c r="T504" t="n">
-        <v>1.721565931218E12</v>
+        <v>1.724318008696E12</v>
       </c>
     </row>
     <row r="505" spans="1:20">
@@ -27709,7 +27819,7 @@
         <v>0.0</v>
       </c>
       <c r="T505" t="n">
-        <v>1.721565934287E12</v>
+        <v>1.724318013359E12</v>
       </c>
     </row>
     <row r="506" spans="1:20">
@@ -27726,10 +27836,10 @@
         <v>3</v>
       </c>
       <c r="R506" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T506" t="n">
-        <v>1.721565937676E12</v>
+        <v>1.724318016627E12</v>
       </c>
     </row>
     <row r="507" spans="1:20">
@@ -27746,10 +27856,10 @@
         <v>4</v>
       </c>
       <c r="R507" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T507" t="n">
-        <v>1.721565941568E12</v>
+        <v>1.724318019057E12</v>
       </c>
     </row>
     <row r="508" spans="1:20">
@@ -27766,10 +27876,10 @@
         <v>4</v>
       </c>
       <c r="R508" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T508" t="n">
-        <v>1.7215659471E12</v>
+        <v>1.724318022717E12</v>
       </c>
     </row>
     <row r="509" spans="1:20">
@@ -27789,7 +27899,7 @@
         <v>0.0</v>
       </c>
       <c r="T509" t="n">
-        <v>1.721565950595E12</v>
+        <v>1.724318027513E12</v>
       </c>
     </row>
     <row r="510" spans="1:20">
@@ -27806,10 +27916,10 @@
         <v>4</v>
       </c>
       <c r="R510" t="n">
-        <v>0.4800000000000002</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="T510" t="n">
-        <v>1.724309291611E12</v>
+        <v>1.724318037314E12</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -27829,7 +27939,7 @@
         <v>0.0</v>
       </c>
       <c r="T511" t="n">
-        <v>1.721565955527E12</v>
+        <v>1.724318041183E12</v>
       </c>
     </row>
     <row r="512" spans="1:20">
@@ -27846,10 +27956,10 @@
         <v>4</v>
       </c>
       <c r="R512" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T512" t="n">
-        <v>1.724246998347E12</v>
+        <v>1.724318043408E12</v>
       </c>
     </row>
     <row r="513" spans="1:20">
@@ -27866,10 +27976,10 @@
         <v>4</v>
       </c>
       <c r="R513" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T513" t="n">
-        <v>1.724246999723E12</v>
+        <v>1.724318046511E12</v>
       </c>
     </row>
     <row r="514" spans="1:20">
@@ -27889,7 +27999,7 @@
         <v>0.0</v>
       </c>
       <c r="T514" t="n">
-        <v>1.721565965729E12</v>
+        <v>1.724318053511E12</v>
       </c>
     </row>
     <row r="515" spans="1:20">
@@ -27906,10 +28016,10 @@
         <v>3</v>
       </c>
       <c r="R515" t="n">
-        <v>0.6200000000000001</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="T515" t="n">
-        <v>1.72430929304E12</v>
+        <v>1.724318054932E12</v>
       </c>
     </row>
     <row r="516" spans="1:20">
@@ -27929,7 +28039,7 @@
         <v>0.0</v>
       </c>
       <c r="T516" t="n">
-        <v>1.721565969868E12</v>
+        <v>1.724318057203E12</v>
       </c>
     </row>
     <row r="517" spans="1:20">
@@ -27946,10 +28056,10 @@
         <v>4</v>
       </c>
       <c r="R517" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T517" t="n">
-        <v>1.721565972361E12</v>
+        <v>1.724318059782E12</v>
       </c>
     </row>
     <row r="518" spans="1:20">
@@ -27966,10 +28076,10 @@
         <v>3</v>
       </c>
       <c r="R518" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T518" t="n">
-        <v>1.724247009173E12</v>
+        <v>1.724318065302E12</v>
       </c>
     </row>
     <row r="519" spans="1:20">
@@ -27986,10 +28096,10 @@
         <v>4</v>
       </c>
       <c r="R519" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T519" t="n">
-        <v>1.721565978458E12</v>
+        <v>1.724318067593E12</v>
       </c>
     </row>
     <row r="520" spans="1:20">
@@ -28009,7 +28119,7 @@
         <v>0.0</v>
       </c>
       <c r="T520" t="n">
-        <v>1.721565983069E12</v>
+        <v>1.724318070683E12</v>
       </c>
     </row>
     <row r="521" spans="1:20">
@@ -28029,7 +28139,7 @@
         <v>0.0</v>
       </c>
       <c r="T521" t="n">
-        <v>1.721565985692E12</v>
+        <v>1.724318072466E12</v>
       </c>
     </row>
     <row r="522" spans="1:20">
@@ -28049,7 +28159,7 @@
         <v>0.0</v>
       </c>
       <c r="T522" t="n">
-        <v>1.721565989999E12</v>
+        <v>1.72431807399E12</v>
       </c>
     </row>
     <row r="523" spans="1:20">
@@ -28069,7 +28179,7 @@
         <v>0.0</v>
       </c>
       <c r="T523" t="n">
-        <v>1.721565992401E12</v>
+        <v>1.724318079077E12</v>
       </c>
     </row>
     <row r="524" spans="1:20">
@@ -28089,7 +28199,7 @@
         <v>0.0</v>
       </c>
       <c r="T524" t="n">
-        <v>1.721565994825E12</v>
+        <v>1.724318085297E12</v>
       </c>
     </row>
     <row r="525" spans="1:20">
@@ -28109,7 +28219,7 @@
         <v>0.0</v>
       </c>
       <c r="T525" t="n">
-        <v>1.721565997119E12</v>
+        <v>1.724318091921E12</v>
       </c>
     </row>
     <row r="526" spans="1:20">
@@ -28129,7 +28239,7 @@
         <v>0.0</v>
       </c>
       <c r="T526" t="n">
-        <v>1.721566000427E12</v>
+        <v>1.72431821342E12</v>
       </c>
     </row>
     <row r="527" spans="1:20">
@@ -28149,7 +28259,7 @@
         <v>0.0</v>
       </c>
       <c r="T527" t="n">
-        <v>1.721566002373E12</v>
+        <v>1.72431821534E12</v>
       </c>
     </row>
     <row r="528" spans="1:20">
@@ -28169,7 +28279,7 @@
         <v>0.0</v>
       </c>
       <c r="T528" t="n">
-        <v>1.721566004063E12</v>
+        <v>1.724318231352E12</v>
       </c>
     </row>
     <row r="529" spans="1:20">
@@ -28189,7 +28299,7 @@
         <v>0.0</v>
       </c>
       <c r="T529" t="n">
-        <v>1.721566005835E12</v>
+        <v>1.724318233406E12</v>
       </c>
     </row>
     <row r="530" spans="1:20">
@@ -28206,10 +28316,10 @@
         <v>4</v>
       </c>
       <c r="R530" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T530" t="n">
-        <v>1.724247010703E12</v>
+        <v>1.724318234894E12</v>
       </c>
     </row>
     <row r="531" spans="1:20">
@@ -28226,10 +28336,10 @@
         <v>3</v>
       </c>
       <c r="R531" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T531" t="n">
-        <v>1.721566009896E12</v>
+        <v>1.724318239975E12</v>
       </c>
     </row>
     <row r="532" spans="1:20">
@@ -28249,7 +28359,7 @@
         <v>0.0</v>
       </c>
       <c r="T532" t="n">
-        <v>1.721566012235E12</v>
+        <v>1.724318242437E12</v>
       </c>
     </row>
     <row r="533" spans="1:20">
@@ -28266,10 +28376,10 @@
         <v>4</v>
       </c>
       <c r="R533" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T533" t="n">
-        <v>1.724247013737E12</v>
+        <v>1.724318245907E12</v>
       </c>
     </row>
     <row r="534" spans="1:20">
@@ -28289,7 +28399,7 @@
         <v>0.0</v>
       </c>
       <c r="T534" t="n">
-        <v>1.721566017957E12</v>
+        <v>1.724318248702E12</v>
       </c>
     </row>
     <row r="535" spans="1:20">
@@ -28306,10 +28416,10 @@
         <v>4</v>
       </c>
       <c r="R535" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T535" t="n">
-        <v>1.724247015714E12</v>
+        <v>1.724318253398E12</v>
       </c>
     </row>
     <row r="536" spans="1:20">
@@ -28329,7 +28439,7 @@
         <v>0.0</v>
       </c>
       <c r="T536" t="n">
-        <v>1.72156602536E12</v>
+        <v>1.724318256833E12</v>
       </c>
     </row>
     <row r="537" spans="1:20">
@@ -28346,10 +28456,10 @@
         <v>4</v>
       </c>
       <c r="R537" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T537" t="n">
-        <v>1.724247017917E12</v>
+        <v>1.724318260412E12</v>
       </c>
     </row>
     <row r="538" spans="1:20">
@@ -28366,10 +28476,10 @@
         <v>3</v>
       </c>
       <c r="R538" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T538" t="n">
-        <v>1.724247022118E12</v>
+        <v>1.72431826311E12</v>
       </c>
     </row>
     <row r="539" spans="1:20">
@@ -28389,7 +28499,7 @@
         <v>0.0</v>
       </c>
       <c r="T539" t="n">
-        <v>1.721566040567E12</v>
+        <v>1.724318268276E12</v>
       </c>
     </row>
     <row r="540" spans="1:20">
@@ -28409,7 +28519,7 @@
         <v>0.0</v>
       </c>
       <c r="T540" t="n">
-        <v>1.721566042415E12</v>
+        <v>1.724318269832E12</v>
       </c>
     </row>
     <row r="541" spans="1:20">
@@ -28429,7 +28539,7 @@
         <v>0.0</v>
       </c>
       <c r="T541" t="n">
-        <v>1.721566047261E12</v>
+        <v>1.724318271692E12</v>
       </c>
     </row>
     <row r="542" spans="1:20">
@@ -28449,7 +28559,7 @@
         <v>0.0</v>
       </c>
       <c r="T542" t="n">
-        <v>1.721566049237E12</v>
+        <v>1.724318272904E12</v>
       </c>
     </row>
     <row r="543" spans="1:20">
@@ -28466,10 +28576,10 @@
         <v>4</v>
       </c>
       <c r="R543" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T543" t="n">
-        <v>1.724309312841E12</v>
+        <v>1.724318276867E12</v>
       </c>
     </row>
     <row r="544" spans="1:20">
@@ -28486,10 +28596,10 @@
         <v>3</v>
       </c>
       <c r="R544" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T544" t="n">
-        <v>1.721566053138E12</v>
+        <v>1.724318278716E12</v>
       </c>
     </row>
     <row r="545" spans="1:20">
@@ -28509,7 +28619,7 @@
         <v>0.0</v>
       </c>
       <c r="T545" t="n">
-        <v>1.721566055375E12</v>
+        <v>1.724318280399E12</v>
       </c>
     </row>
     <row r="546" spans="1:20">
@@ -28529,7 +28639,7 @@
         <v>0.0</v>
       </c>
       <c r="T546" t="n">
-        <v>1.721566057276E12</v>
+        <v>1.724318282835E12</v>
       </c>
     </row>
     <row r="547" spans="1:20">
@@ -28546,10 +28656,10 @@
         <v>4</v>
       </c>
       <c r="R547" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T547" t="n">
-        <v>1.721566059501E12</v>
+        <v>1.724318284629E12</v>
       </c>
     </row>
     <row r="548" spans="1:20">
@@ -28569,7 +28679,7 @@
         <v>0.0</v>
       </c>
       <c r="T548" t="n">
-        <v>1.721566062269E12</v>
+        <v>1.72431828643E12</v>
       </c>
     </row>
     <row r="549" spans="1:20">
@@ -28589,7 +28699,7 @@
         <v>0.0</v>
       </c>
       <c r="T549" t="n">
-        <v>1.721566065462E12</v>
+        <v>1.724318288685E12</v>
       </c>
     </row>
     <row r="550" spans="1:20">
@@ -28606,10 +28716,10 @@
         <v>3</v>
       </c>
       <c r="R550" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T550" t="n">
-        <v>1.724247055883E12</v>
+        <v>1.724318293855E12</v>
       </c>
     </row>
     <row r="551" spans="1:20">
@@ -28629,7 +28739,7 @@
         <v>0.0</v>
       </c>
       <c r="T551" t="n">
-        <v>1.721566072806E12</v>
+        <v>1.72431829605E12</v>
       </c>
     </row>
     <row r="552" spans="1:20">
@@ -28649,7 +28759,7 @@
         <v>0.0</v>
       </c>
       <c r="T552" t="n">
-        <v>1.721566076008E12</v>
+        <v>1.724318298668E12</v>
       </c>
     </row>
     <row r="553" spans="1:20">
@@ -28666,10 +28776,10 @@
         <v>3</v>
       </c>
       <c r="R553" t="n">
-        <v>0.4300000000000017</v>
+        <v>0.2300000000000017</v>
       </c>
       <c r="T553" t="n">
-        <v>1.724309314122E12</v>
+        <v>1.724318300144E12</v>
       </c>
     </row>
     <row r="554" spans="1:20">
@@ -28686,10 +28796,10 @@
         <v>4</v>
       </c>
       <c r="R554" t="n">
-        <v>0.6799999999999995</v>
+        <v>0.4799999999999995</v>
       </c>
       <c r="T554" t="n">
-        <v>1.72430931826E12</v>
+        <v>1.724318306376E12</v>
       </c>
     </row>
     <row r="555" spans="1:20">
@@ -28709,7 +28819,7 @@
         <v>0.0</v>
       </c>
       <c r="T555" t="n">
-        <v>1.721566092897E12</v>
+        <v>1.724318313674E12</v>
       </c>
     </row>
     <row r="556" spans="1:20">
@@ -28726,10 +28836,10 @@
         <v>3</v>
       </c>
       <c r="R556" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T556" t="n">
-        <v>1.724247067549E12</v>
+        <v>1.724318320005E12</v>
       </c>
     </row>
     <row r="557" spans="1:20">
@@ -28746,10 +28856,10 @@
         <v>3</v>
       </c>
       <c r="R557" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T557" t="n">
-        <v>1.721566097923E12</v>
+        <v>1.724318333283E12</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -28766,10 +28876,10 @@
         <v>4</v>
       </c>
       <c r="R558" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T558" t="n">
-        <v>1.724309319882E12</v>
+        <v>1.72431833934E12</v>
       </c>
     </row>
     <row r="559" spans="1:20">
@@ -28789,7 +28899,7 @@
         <v>0.0</v>
       </c>
       <c r="T559" t="n">
-        <v>1.721566102057E12</v>
+        <v>1.724318343892E12</v>
       </c>
     </row>
     <row r="560" spans="1:20">
@@ -28809,7 +28919,7 @@
         <v>0.0</v>
       </c>
       <c r="T560" t="n">
-        <v>1.721566105536E12</v>
+        <v>1.724318346997E12</v>
       </c>
     </row>
     <row r="561" spans="1:20">
@@ -28829,7 +28939,7 @@
         <v>0.0</v>
       </c>
       <c r="T561" t="n">
-        <v>1.721566107621E12</v>
+        <v>1.724318349979E12</v>
       </c>
     </row>
     <row r="562" spans="1:20">
@@ -28849,7 +28959,7 @@
         <v>0.0</v>
       </c>
       <c r="T562" t="n">
-        <v>1.721566110513E12</v>
+        <v>1.724318367008E12</v>
       </c>
     </row>
     <row r="563" spans="1:20">
@@ -28866,10 +28976,10 @@
         <v>3</v>
       </c>
       <c r="R563" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T563" t="n">
-        <v>1.721566112306E12</v>
+        <v>1.72431837083E12</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -28889,7 +28999,7 @@
         <v>0.0</v>
       </c>
       <c r="T564" t="n">
-        <v>1.721566114709E12</v>
+        <v>1.724318375515E12</v>
       </c>
     </row>
     <row r="565" spans="1:20">
@@ -28909,7 +29019,7 @@
         <v>0.0</v>
       </c>
       <c r="T565" t="n">
-        <v>1.721566118299E12</v>
+        <v>1.724318378614E12</v>
       </c>
     </row>
     <row r="566" spans="1:20">
@@ -28929,7 +29039,7 @@
         <v>0.0</v>
       </c>
       <c r="T566" t="n">
-        <v>1.721566120424E12</v>
+        <v>1.724318381054E12</v>
       </c>
     </row>
     <row r="567" spans="1:20">
@@ -28949,7 +29059,7 @@
         <v>0.0</v>
       </c>
       <c r="T567" t="n">
-        <v>1.72156612302E12</v>
+        <v>1.724318383384E12</v>
       </c>
     </row>
     <row r="568" spans="1:20">
@@ -28969,7 +29079,7 @@
         <v>0.0</v>
       </c>
       <c r="T568" t="n">
-        <v>1.721566125635E12</v>
+        <v>1.724318386533E12</v>
       </c>
     </row>
     <row r="569" spans="1:20">
@@ -28986,10 +29096,10 @@
         <v>4</v>
       </c>
       <c r="R569" t="n">
-        <v>0.4800000000000002</v>
+        <v>1.4800000000000002</v>
       </c>
       <c r="T569" t="n">
-        <v>1.724309321497E12</v>
+        <v>1.724318388161E12</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -29009,7 +29119,7 @@
         <v>0.0</v>
       </c>
       <c r="T570" t="n">
-        <v>1.721566130947E12</v>
+        <v>1.724318396573E12</v>
       </c>
     </row>
     <row r="571" spans="1:20">
@@ -29026,10 +29136,10 @@
         <v>4</v>
       </c>
       <c r="R571" t="n">
-        <v>0.09999999999999998</v>
+        <v>1.1</v>
       </c>
       <c r="T571" t="n">
-        <v>1.721566133728E12</v>
+        <v>1.724318399078E12</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -29046,10 +29156,10 @@
         <v>4</v>
       </c>
       <c r="R572" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T572" t="n">
-        <v>1.724247073525E12</v>
+        <v>1.724318403565E12</v>
       </c>
     </row>
     <row r="573" spans="1:20">
@@ -29066,10 +29176,10 @@
         <v>4</v>
       </c>
       <c r="R573" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.3700000000000003</v>
       </c>
       <c r="T573" t="n">
-        <v>1.724310089781E12</v>
+        <v>1.724318405566E12</v>
       </c>
     </row>
     <row r="574" spans="1:20">
@@ -29086,10 +29196,10 @@
         <v>3</v>
       </c>
       <c r="R574" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T574" t="n">
-        <v>1.724247085128E12</v>
+        <v>1.724318408552E12</v>
       </c>
     </row>
     <row r="575" spans="1:20">
@@ -29106,10 +29216,10 @@
         <v>4</v>
       </c>
       <c r="R575" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T575" t="n">
-        <v>1.724247089601E12</v>
+        <v>1.724318416239E12</v>
       </c>
     </row>
     <row r="576" spans="1:20">
@@ -29126,10 +29236,10 @@
         <v>4</v>
       </c>
       <c r="R576" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T576" t="n">
-        <v>1.724309324795E12</v>
+        <v>1.724318418297E12</v>
       </c>
     </row>
     <row r="577" spans="1:20">
@@ -29146,10 +29256,10 @@
         <v>3</v>
       </c>
       <c r="R577" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T577" t="n">
-        <v>1.724247096628E12</v>
+        <v>1.724318422591E12</v>
       </c>
     </row>
     <row r="578" spans="1:20">
@@ -29166,10 +29276,10 @@
         <v>4</v>
       </c>
       <c r="R578" t="n">
-        <v>0.79</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="T578" t="n">
-        <v>1.72424709906E12</v>
+        <v>1.724318424666E12</v>
       </c>
     </row>
     <row r="579" spans="1:20">
@@ -29186,10 +29296,10 @@
         <v>4</v>
       </c>
       <c r="R579" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T579" t="n">
-        <v>1.724309326241E12</v>
+        <v>1.724318426645E12</v>
       </c>
     </row>
     <row r="580" spans="1:20">
@@ -29206,10 +29316,10 @@
         <v>4</v>
       </c>
       <c r="R580" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T580" t="n">
-        <v>1.721566160263E12</v>
+        <v>1.724318428266E12</v>
       </c>
     </row>
     <row r="581" spans="1:20">
@@ -29229,7 +29339,7 @@
         <v>0.0</v>
       </c>
       <c r="T581" t="n">
-        <v>1.7215661625E12</v>
+        <v>1.72431843212E12</v>
       </c>
     </row>
     <row r="582" spans="1:20">
@@ -29246,10 +29356,10 @@
         <v>4</v>
       </c>
       <c r="R582" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T582" t="n">
-        <v>1.72430932892E12</v>
+        <v>1.724318434454E12</v>
       </c>
     </row>
     <row r="583" spans="1:20">
@@ -29266,10 +29376,10 @@
         <v>3</v>
       </c>
       <c r="R583" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T583" t="n">
-        <v>1.7215661657E12</v>
+        <v>1.7243184395E12</v>
       </c>
     </row>
     <row r="584" spans="1:20">
@@ -29289,7 +29399,7 @@
         <v>0.0</v>
       </c>
       <c r="T584" t="n">
-        <v>1.721566168282E12</v>
+        <v>1.72431844189E12</v>
       </c>
     </row>
     <row r="585" spans="1:20">
@@ -29309,7 +29419,7 @@
         <v>0.0</v>
       </c>
       <c r="T585" t="n">
-        <v>1.721566170615E12</v>
+        <v>1.724318444425E12</v>
       </c>
     </row>
     <row r="586" spans="1:20">
@@ -29326,10 +29436,10 @@
         <v>4</v>
       </c>
       <c r="R586" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T586" t="n">
-        <v>1.724309330043E12</v>
+        <v>1.724318445584E12</v>
       </c>
     </row>
     <row r="587" spans="1:20">
@@ -29346,10 +29456,10 @@
         <v>4</v>
       </c>
       <c r="R587" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T587" t="n">
-        <v>1.721566175556E12</v>
+        <v>1.724318448107E12</v>
       </c>
     </row>
     <row r="588" spans="1:20">
@@ -29366,10 +29476,10 @@
         <v>3</v>
       </c>
       <c r="R588" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.0</v>
       </c>
       <c r="T588" t="n">
-        <v>1.72156617804E12</v>
+        <v>1.724318451007E12</v>
       </c>
     </row>
     <row r="589" spans="1:20">
@@ -29386,10 +29496,10 @@
         <v>4</v>
       </c>
       <c r="R589" t="n">
-        <v>0.8900000000000001</v>
+        <v>1.8900000000000001</v>
       </c>
       <c r="T589" t="n">
-        <v>1.724247109963E12</v>
+        <v>1.724318454491E12</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -29409,7 +29519,7 @@
         <v>0.0</v>
       </c>
       <c r="T590" t="n">
-        <v>1.721566182398E12</v>
+        <v>1.724318458918E12</v>
       </c>
     </row>
     <row r="591" spans="1:20">
@@ -29429,7 +29539,7 @@
         <v>0.0</v>
       </c>
       <c r="T591" t="n">
-        <v>1.721566184791E12</v>
+        <v>1.724318463621E12</v>
       </c>
     </row>
     <row r="592" spans="1:20">
@@ -29446,10 +29556,10 @@
         <v>4</v>
       </c>
       <c r="R592" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T592" t="n">
-        <v>1.724309332762E12</v>
+        <v>1.724318468399E12</v>
       </c>
     </row>
     <row r="593" spans="1:20">
@@ -29469,7 +29579,7 @@
         <v>0.0</v>
       </c>
       <c r="T593" t="n">
-        <v>1.721566188395E12</v>
+        <v>1.724318470745E12</v>
       </c>
     </row>
     <row r="594" spans="1:20">
@@ -29489,7 +29599,7 @@
         <v>0.0</v>
       </c>
       <c r="T594" t="n">
-        <v>1.721566191786E12</v>
+        <v>1.72431847451E12</v>
       </c>
     </row>
     <row r="595" spans="1:20">
@@ -29506,10 +29616,10 @@
         <v>4</v>
       </c>
       <c r="R595" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T595" t="n">
-        <v>1.72156619474E12</v>
+        <v>1.724318476464E12</v>
       </c>
     </row>
     <row r="596" spans="1:20">
@@ -29529,7 +29639,7 @@
         <v>0.0</v>
       </c>
       <c r="T596" t="n">
-        <v>1.721566197422E12</v>
+        <v>1.724318481565E12</v>
       </c>
     </row>
     <row r="597" spans="1:20">
@@ -29549,7 +29659,7 @@
         <v>0.0</v>
       </c>
       <c r="T597" t="n">
-        <v>1.721566200138E12</v>
+        <v>1.724318483677E12</v>
       </c>
     </row>
     <row r="598" spans="1:20">
@@ -29566,10 +29676,10 @@
         <v>4</v>
       </c>
       <c r="R598" t="n">
-        <v>0.4800000000000002</v>
+        <v>0.2800000000000002</v>
       </c>
       <c r="T598" t="n">
-        <v>1.724309335576E12</v>
+        <v>1.724318486364E12</v>
       </c>
     </row>
     <row r="599" spans="1:20">
@@ -29589,7 +29699,7 @@
         <v>0.0</v>
       </c>
       <c r="T599" t="n">
-        <v>1.721566204168E12</v>
+        <v>1.724318489371E12</v>
       </c>
     </row>
     <row r="600" spans="1:20">
@@ -29609,7 +29719,7 @@
         <v>0.0</v>
       </c>
       <c r="T600" t="n">
-        <v>1.721566205856E12</v>
+        <v>1.724318498708E12</v>
       </c>
     </row>
     <row r="601" spans="1:20">
@@ -29626,10 +29736,10 @@
         <v>4</v>
       </c>
       <c r="R601" t="n">
-        <v>0.8900000000000001</v>
+        <v>0.6900000000000002</v>
       </c>
       <c r="T601" t="n">
-        <v>1.72424711981E12</v>
+        <v>1.724318502684E12</v>
       </c>
     </row>
     <row r="602" spans="1:20">
@@ -29649,7 +29759,7 @@
         <v>0.0</v>
       </c>
       <c r="T602" t="n">
-        <v>1.721566217684E12</v>
+        <v>1.72431850996E12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="2531">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -7624,12 +7624,46 @@
   </si>
   <si>
     <t>您一共做了: 100题	您的得分： 91.0	做题时长约为10.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 21题	您的得分： 85.71428571428571	做题时长约为18.55Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 87.09677419354838	做题时长约为9.883333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 12题	您的得分： 100.0	做题时长约为0.9Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 8题	您的得分： 100.0	做题时长约为0.5666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 7题	您的得分： 100.0	做题时长约为0.38333333333333336Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 35题	您的得分： 97.14285714285714	做题时长约为3.283333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 37题	您的得分： 97.2972972972973	做题时长约为3.65Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 18题	您的得分： 100.0	做题时长约为1.3166666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 36题	您的得分： 100.0	做题时长约为2.0166666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 36题	您的得分： 100.0	做题时长约为1.7666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 36题	您的得分： 100.0	做题时长约为1.6833333333333333Min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -7680,19 +7714,333 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="316">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -7701,10 +8049,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7860,7 +8208,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -7869,13 +8217,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -7885,7 +8233,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -7894,7 +8242,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7903,7 +8251,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -7913,12 +8261,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -7949,7 +8297,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -7968,7 +8316,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -8451,11 +8799,11 @@
       <c r="H12" t="s">
         <v>1980</v>
       </c>
-      <c r="R12">
-        <v>9.25</v>
-      </c>
-      <c r="T12">
-        <v>1724326993942</v>
+      <c r="R12" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.724404905926E12</v>
       </c>
       <c r="AA12" t="s">
         <v>2412</v>
@@ -9151,11 +9499,11 @@
       <c r="H32" t="s">
         <v>2000</v>
       </c>
-      <c r="R32">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="T32">
-        <v>1724327249595</v>
+      <c r="R32" t="n">
+        <v>6.730000000000002</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.724404907569E12</v>
       </c>
       <c r="AA32" t="s">
         <v>2432</v>
@@ -9606,11 +9954,11 @@
       <c r="H45" t="s">
         <v>2011</v>
       </c>
-      <c r="R45">
-        <v>5</v>
-      </c>
-      <c r="T45">
-        <v>1724327388660</v>
+      <c r="R45" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.724403411465E12</v>
       </c>
       <c r="AA45" t="s">
         <v>2403</v>
@@ -10026,11 +10374,11 @@
       <c r="H57" t="s">
         <v>2023</v>
       </c>
-      <c r="R57">
-        <v>8.75</v>
-      </c>
-      <c r="T57">
-        <v>1724327488155</v>
+      <c r="R57" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.724404910434E12</v>
       </c>
       <c r="AA57" t="s">
         <v>2453</v>
@@ -10096,11 +10444,11 @@
       <c r="H59" t="s">
         <v>2024</v>
       </c>
-      <c r="R59">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T59">
-        <v>1724327506494</v>
+      <c r="R59" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.724404911725E12</v>
       </c>
       <c r="AA59" t="s">
         <v>2449</v>
@@ -10131,11 +10479,11 @@
       <c r="H60" t="s">
         <v>2025</v>
       </c>
-      <c r="R60">
-        <v>5</v>
-      </c>
-      <c r="T60">
-        <v>1724327517184</v>
+      <c r="R60" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.724403425202E12</v>
       </c>
       <c r="AA60" t="s">
         <v>2408</v>
@@ -10236,11 +10584,11 @@
       <c r="H63" t="s">
         <v>2027</v>
       </c>
-      <c r="R63">
-        <v>8.75</v>
-      </c>
-      <c r="T63">
-        <v>1724327550791</v>
+      <c r="R63" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.724404914194E12</v>
       </c>
       <c r="AA63" t="s">
         <v>2456</v>
@@ -10866,11 +11214,11 @@
       <c r="H81" t="s">
         <v>2044</v>
       </c>
-      <c r="R81">
-        <v>9.25</v>
-      </c>
-      <c r="T81">
-        <v>1724327722842</v>
+      <c r="R81" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.724404915166E12</v>
       </c>
       <c r="AA81" t="s">
         <v>2455</v>
@@ -10936,11 +11284,11 @@
       <c r="H83" t="s">
         <v>2045</v>
       </c>
-      <c r="R83">
-        <v>8.75</v>
-      </c>
-      <c r="T83">
-        <v>1724327745190</v>
+      <c r="R83" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.724404917471E12</v>
       </c>
       <c r="AA83" t="s">
         <v>2472</v>
@@ -11321,11 +11669,11 @@
       <c r="H94" t="s">
         <v>2055</v>
       </c>
-      <c r="R94">
-        <v>5</v>
-      </c>
-      <c r="T94">
-        <v>1724327814340</v>
+      <c r="R94" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.724403449973E12</v>
       </c>
       <c r="AA94" t="s">
         <v>2482</v>
@@ -11706,11 +12054,11 @@
       <c r="H105" t="s">
         <v>2064</v>
       </c>
-      <c r="R105">
-        <v>9.9</v>
-      </c>
-      <c r="T105">
-        <v>1724327987011</v>
+      <c r="R105" t="n">
+        <v>6.840000000000002</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.724404919775E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2493</v>
@@ -11951,11 +12299,11 @@
       <c r="H112" t="s">
         <v>2069</v>
       </c>
-      <c r="R112">
-        <v>5</v>
-      </c>
-      <c r="T112">
-        <v>1724328052732</v>
+      <c r="R112" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.724403468956E12</v>
       </c>
       <c r="AA112" t="s">
         <v>2499</v>
@@ -11986,11 +12334,11 @@
       <c r="H113" t="s">
         <v>2069</v>
       </c>
-      <c r="R113">
-        <v>5</v>
-      </c>
-      <c r="T113">
-        <v>1724329548371</v>
+      <c r="R113" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.724403503532E12</v>
       </c>
       <c r="AA113" t="s">
         <v>2500</v>
@@ -12301,11 +12649,11 @@
       <c r="H122" t="s">
         <v>2078</v>
       </c>
-      <c r="R122">
-        <v>5</v>
-      </c>
-      <c r="T122">
-        <v>1724329648257</v>
+      <c r="R122" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.724403510104E12</v>
       </c>
       <c r="AA122" t="s">
         <v>2449</v>
@@ -12511,11 +12859,11 @@
       <c r="H128" t="s">
         <v>2083</v>
       </c>
-      <c r="R128">
-        <v>5</v>
-      </c>
-      <c r="T128">
-        <v>1724329687049</v>
+      <c r="R128" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T128" t="n">
+        <v>1.724403558828E12</v>
       </c>
       <c r="AA128" t="s">
         <v>2418</v>
@@ -12651,11 +12999,11 @@
       <c r="H132" t="s">
         <v>2087</v>
       </c>
-      <c r="R132">
-        <v>5</v>
-      </c>
-      <c r="T132">
-        <v>1724329705429</v>
+      <c r="R132" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.724403562682E12</v>
       </c>
       <c r="AA132" t="s">
         <v>2514</v>
@@ -12937,6 +13285,9 @@
       <c r="T140">
         <v>1724329734043</v>
       </c>
+      <c r="AA140" t="s">
+        <v>2520</v>
+      </c>
     </row>
     <row r="141" spans="1:27">
       <c r="A141">
@@ -12963,11 +13314,14 @@
       <c r="H141" t="s">
         <v>2096</v>
       </c>
-      <c r="R141">
-        <v>5</v>
-      </c>
-      <c r="T141">
-        <v>1724329742611</v>
+      <c r="R141" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.724403607694E12</v>
+      </c>
+      <c r="AA141" t="s">
+        <v>2456</v>
       </c>
     </row>
     <row r="142" spans="1:27">
@@ -13001,6 +13355,9 @@
       <c r="T142">
         <v>1724329750391</v>
       </c>
+      <c r="AA142" t="s">
+        <v>2521</v>
+      </c>
     </row>
     <row r="143" spans="1:27">
       <c r="A143">
@@ -13033,6 +13390,9 @@
       <c r="T143">
         <v>1724329767084</v>
       </c>
+      <c r="AA143" t="s">
+        <v>2522</v>
+      </c>
     </row>
     <row r="144" spans="1:27">
       <c r="A144">
@@ -13065,6 +13425,9 @@
       <c r="T144">
         <v>1724329773097</v>
       </c>
+      <c r="AA144" t="s">
+        <v>2523</v>
+      </c>
     </row>
     <row r="145" spans="1:20">
       <c r="A145">
@@ -13097,6 +13460,9 @@
       <c r="T145">
         <v>1724329781497</v>
       </c>
+      <c r="AA145" t="s">
+        <v>2524</v>
+      </c>
     </row>
     <row r="146" spans="1:20">
       <c r="A146">
@@ -13129,6 +13495,9 @@
       <c r="T146">
         <v>1724329794491</v>
       </c>
+      <c r="AA146" t="s">
+        <v>2525</v>
+      </c>
     </row>
     <row r="147" spans="1:20">
       <c r="A147">
@@ -13161,6 +13530,9 @@
       <c r="T147">
         <v>1724329804430</v>
       </c>
+      <c r="AA147" t="s">
+        <v>2526</v>
+      </c>
     </row>
     <row r="148" spans="1:20">
       <c r="A148">
@@ -13193,6 +13565,9 @@
       <c r="T148">
         <v>1724329810020</v>
       </c>
+      <c r="AA148" t="s">
+        <v>2418</v>
+      </c>
     </row>
     <row r="149" spans="1:20">
       <c r="A149">
@@ -13225,6 +13600,9 @@
       <c r="T149">
         <v>1724329817097</v>
       </c>
+      <c r="AA149" t="s">
+        <v>2527</v>
+      </c>
     </row>
     <row r="150" spans="1:20">
       <c r="A150">
@@ -13257,6 +13635,9 @@
       <c r="T150">
         <v>1724329837905</v>
       </c>
+      <c r="AA150" t="s">
+        <v>2408</v>
+      </c>
     </row>
     <row r="151" spans="1:20">
       <c r="A151">
@@ -13289,6 +13670,9 @@
       <c r="T151">
         <v>1724329847903</v>
       </c>
+      <c r="AA151" t="s">
+        <v>2418</v>
+      </c>
     </row>
     <row r="152" spans="1:20">
       <c r="A152">
@@ -13321,6 +13705,9 @@
       <c r="T152">
         <v>1724329864304</v>
       </c>
+      <c r="AA152" t="s">
+        <v>2528</v>
+      </c>
     </row>
     <row r="153" spans="1:20">
       <c r="A153">
@@ -13353,6 +13740,9 @@
       <c r="T153">
         <v>1724329866460</v>
       </c>
+      <c r="AA153" t="s">
+        <v>2529</v>
+      </c>
     </row>
     <row r="154" spans="1:20">
       <c r="A154">
@@ -13385,6 +13775,9 @@
       <c r="T154">
         <v>1724329871412</v>
       </c>
+      <c r="AA154" t="s">
+        <v>2530</v>
+      </c>
     </row>
     <row r="155" spans="1:20">
       <c r="A155">
@@ -13411,11 +13804,11 @@
       <c r="H155" t="s">
         <v>2110</v>
       </c>
-      <c r="R155">
-        <v>5</v>
-      </c>
-      <c r="T155">
-        <v>1724329878336</v>
+      <c r="R155" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.724403621228E12</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -14531,11 +14924,11 @@
       <c r="H190" t="s">
         <v>754</v>
       </c>
-      <c r="R190">
-        <v>5</v>
-      </c>
-      <c r="T190">
-        <v>1724330088368</v>
+      <c r="R190" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T190" t="n">
+        <v>1.724403654934E12</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -14659,11 +15052,11 @@
       <c r="H194" t="s">
         <v>2141</v>
       </c>
-      <c r="R194">
-        <v>5</v>
-      </c>
-      <c r="T194">
-        <v>1724330106772</v>
+      <c r="R194" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T194" t="n">
+        <v>1.724403659284E12</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -14819,11 +15212,11 @@
       <c r="H199" t="s">
         <v>2146</v>
       </c>
-      <c r="R199">
-        <v>8.75</v>
-      </c>
-      <c r="T199">
-        <v>1724330126242</v>
+      <c r="R199" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T199" t="n">
+        <v>1.724404920708E12</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -14883,11 +15276,11 @@
       <c r="H201" t="s">
         <v>2148</v>
       </c>
-      <c r="R201">
-        <v>8.75</v>
-      </c>
-      <c r="T201">
-        <v>1724330138042</v>
+      <c r="R201" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T201" t="n">
+        <v>1.724404923576E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -15075,11 +15468,11 @@
       <c r="H207" t="s">
         <v>2153</v>
       </c>
-      <c r="R207">
-        <v>5</v>
-      </c>
-      <c r="T207">
-        <v>1724330749474</v>
+      <c r="R207" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T207" t="n">
+        <v>1.72440368179E12</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -15459,11 +15852,11 @@
       <c r="H219" t="s">
         <v>2162</v>
       </c>
-      <c r="R219">
-        <v>8.75</v>
-      </c>
-      <c r="T219">
-        <v>1724331441850</v>
+      <c r="R219" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T219" t="n">
+        <v>1.72440492669E12</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -15523,11 +15916,11 @@
       <c r="H221" t="s">
         <v>2164</v>
       </c>
-      <c r="R221">
-        <v>9.25</v>
-      </c>
-      <c r="T221">
-        <v>1724331459467</v>
+      <c r="R221" t="n">
+        <v>6.850000000000001</v>
+      </c>
+      <c r="T221" t="n">
+        <v>1.724404932953E12</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -15907,11 +16300,11 @@
       <c r="H233" t="s">
         <v>2174</v>
       </c>
-      <c r="R233">
-        <v>5</v>
-      </c>
-      <c r="T233">
-        <v>1724331602339</v>
+      <c r="R233" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T233" t="n">
+        <v>1.724403722783E12</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -17411,11 +17804,11 @@
       <c r="H280" t="s">
         <v>2212</v>
       </c>
-      <c r="R280">
-        <v>8.75</v>
-      </c>
-      <c r="T280">
-        <v>1724332051584</v>
+      <c r="R280" t="n">
+        <v>6.690000000000001</v>
+      </c>
+      <c r="T280" t="n">
+        <v>1.724404934694E12</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -17731,11 +18124,11 @@
       <c r="H290" t="s">
         <v>2222</v>
       </c>
-      <c r="R290">
-        <v>9.25</v>
-      </c>
-      <c r="T290">
-        <v>1724332095447</v>
+      <c r="R290" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.724404937121E12</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -18051,11 +18444,11 @@
       <c r="H300" t="s">
         <v>2229</v>
       </c>
-      <c r="R300">
-        <v>8.75</v>
-      </c>
-      <c r="T300">
-        <v>1724332195798</v>
+      <c r="R300" t="n">
+        <v>6.690000000000001</v>
+      </c>
+      <c r="T300" t="n">
+        <v>1.724404942617E12</v>
       </c>
     </row>
     <row r="301" spans="1:20">
@@ -18307,11 +18700,11 @@
       <c r="H308" t="s">
         <v>2058</v>
       </c>
-      <c r="R308">
-        <v>9.25</v>
-      </c>
-      <c r="T308">
-        <v>1724333278577</v>
+      <c r="R308" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T308" t="n">
+        <v>1.72440494548E12</v>
       </c>
     </row>
     <row r="309" spans="1:20">
@@ -18371,11 +18764,11 @@
       <c r="H310" t="s">
         <v>2238</v>
       </c>
-      <c r="R310">
-        <v>9.150000000000027</v>
-      </c>
-      <c r="T310">
-        <v>1724333298723</v>
+      <c r="R310" t="n">
+        <v>6.750000000000028</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.724404952225E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -18819,11 +19212,11 @@
       <c r="H324" t="s">
         <v>1341</v>
       </c>
-      <c r="R324">
-        <v>9.9</v>
-      </c>
-      <c r="T324">
-        <v>1724333387317</v>
+      <c r="R324" t="n">
+        <v>6.840000000000002</v>
+      </c>
+      <c r="T324" t="n">
+        <v>1.724404953598E12</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -18979,11 +19372,11 @@
       <c r="H329" t="s">
         <v>2255</v>
       </c>
-      <c r="R329">
-        <v>9.25</v>
-      </c>
-      <c r="T329">
-        <v>1724333415860</v>
+      <c r="R329" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T329" t="n">
+        <v>1.724404958331E12</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -19107,11 +19500,11 @@
       <c r="H333" t="s">
         <v>2259</v>
       </c>
-      <c r="R333">
-        <v>9.900000000000004</v>
-      </c>
-      <c r="T333">
-        <v>1724333468824</v>
+      <c r="R333" t="n">
+        <v>6.840000000000005</v>
+      </c>
+      <c r="T333" t="n">
+        <v>1.724404963156E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -19651,11 +20044,11 @@
       <c r="H350" t="s">
         <v>2274</v>
       </c>
-      <c r="R350">
-        <v>9.25</v>
-      </c>
-      <c r="T350">
-        <v>1724333584973</v>
+      <c r="R350" t="n">
+        <v>6.850000000000001</v>
+      </c>
+      <c r="T350" t="n">
+        <v>1.724404965447E12</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -20195,11 +20588,11 @@
       <c r="H367" t="s">
         <v>2291</v>
       </c>
-      <c r="R367">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="T367">
-        <v>1724333659774</v>
+      <c r="R367" t="n">
+        <v>6.730000000000002</v>
+      </c>
+      <c r="T367" t="n">
+        <v>1.724404967564E12</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -20355,11 +20748,11 @@
       <c r="H372" t="s">
         <v>1244</v>
       </c>
-      <c r="R372">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="T372">
-        <v>1724333686030</v>
+      <c r="R372" t="n">
+        <v>6.91</v>
+      </c>
+      <c r="T372" t="n">
+        <v>1.724404970387E12</v>
       </c>
     </row>
     <row r="373" spans="1:20">
@@ -20419,11 +20812,11 @@
       <c r="H374" t="s">
         <v>2297</v>
       </c>
-      <c r="R374">
-        <v>8.75</v>
-      </c>
-      <c r="T374">
-        <v>1724333706977</v>
+      <c r="R374" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T374" t="n">
+        <v>1.724404973037E12</v>
       </c>
     </row>
     <row r="375" spans="1:20">
@@ -20707,11 +21100,11 @@
       <c r="H383" t="s">
         <v>2304</v>
       </c>
-      <c r="R383">
-        <v>9.400000000000002</v>
-      </c>
-      <c r="T383">
-        <v>1724333788399</v>
+      <c r="R383" t="n">
+        <v>6.660000000000004</v>
+      </c>
+      <c r="T383" t="n">
+        <v>1.724404977005E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -20995,11 +21388,11 @@
       <c r="H392" t="s">
         <v>2313</v>
       </c>
-      <c r="R392">
-        <v>5</v>
-      </c>
-      <c r="T392">
-        <v>1724333830000</v>
+      <c r="R392" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T392" t="n">
+        <v>1.724403856353E12</v>
       </c>
     </row>
     <row r="393" spans="1:20">
@@ -21059,11 +21452,11 @@
       <c r="H394" t="s">
         <v>2315</v>
       </c>
-      <c r="R394">
-        <v>9.25</v>
-      </c>
-      <c r="T394">
-        <v>1724333847061</v>
+      <c r="R394" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T394" t="n">
+        <v>1.724404979742E12</v>
       </c>
     </row>
     <row r="395" spans="1:20">
@@ -21123,11 +21516,11 @@
       <c r="H396" t="s">
         <v>2317</v>
       </c>
-      <c r="R396">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="T396">
-        <v>1724333861066</v>
+      <c r="R396" t="n">
+        <v>6.710000000000003</v>
+      </c>
+      <c r="T396" t="n">
+        <v>1.724404983496E12</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -21443,11 +21836,11 @@
       <c r="H406" t="s">
         <v>2327</v>
       </c>
-      <c r="R406">
-        <v>5</v>
-      </c>
-      <c r="T406">
-        <v>1724333982386</v>
+      <c r="R406" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T406" t="n">
+        <v>1.724403870385E12</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -21667,11 +22060,11 @@
       <c r="H413" t="s">
         <v>2334</v>
       </c>
-      <c r="R413">
-        <v>9.9</v>
-      </c>
-      <c r="T413">
-        <v>1724334026203</v>
+      <c r="R413" t="n">
+        <v>6.840000000000002</v>
+      </c>
+      <c r="T413" t="n">
+        <v>1.72440498514E12</v>
       </c>
     </row>
     <row r="414" spans="1:20">
@@ -23267,11 +23660,11 @@
       <c r="H463" t="s">
         <v>2379</v>
       </c>
-      <c r="R463">
-        <v>9.25</v>
-      </c>
-      <c r="T463">
-        <v>1724334438623</v>
+      <c r="R463" t="n">
+        <v>6.870000000000001</v>
+      </c>
+      <c r="T463" t="n">
+        <v>1.724404988514E12</v>
       </c>
     </row>
     <row r="464" spans="1:20">
@@ -23459,11 +23852,11 @@
       <c r="H469" t="s">
         <v>2385</v>
       </c>
-      <c r="R469">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="T469">
-        <v>1724334464395</v>
+      <c r="R469" t="n">
+        <v>6.730000000000002</v>
+      </c>
+      <c r="T469" t="n">
+        <v>1.724404990265E12</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -23587,11 +23980,11 @@
       <c r="H473" t="s">
         <v>2117</v>
       </c>
-      <c r="R473">
-        <v>9.25</v>
-      </c>
-      <c r="T473">
-        <v>1724334479259</v>
+      <c r="R473" t="n">
+        <v>6.850000000000001</v>
+      </c>
+      <c r="T473" t="n">
+        <v>1.724404992193E12</v>
       </c>
     </row>
     <row r="474" spans="1:20">
@@ -23651,11 +24044,11 @@
       <c r="H475" t="s">
         <v>2390</v>
       </c>
-      <c r="R475">
-        <v>8.700000000000001</v>
-      </c>
-      <c r="T475">
-        <v>1724334488825</v>
+      <c r="R475" t="n">
+        <v>6.660000000000002</v>
+      </c>
+      <c r="T475" t="n">
+        <v>1.72440499366E12</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -23747,11 +24140,11 @@
       <c r="H478" t="s">
         <v>2393</v>
       </c>
-      <c r="R478">
-        <v>8.75</v>
-      </c>
-      <c r="T478">
-        <v>1724334505734</v>
+      <c r="R478" t="n">
+        <v>6.710000000000001</v>
+      </c>
+      <c r="T478" t="n">
+        <v>1.724404995416E12</v>
       </c>
     </row>
     <row r="479" spans="1:20">
@@ -23811,11 +24204,11 @@
       <c r="H480" t="s">
         <v>1193</v>
       </c>
-      <c r="R480">
-        <v>6.9</v>
-      </c>
-      <c r="T480">
-        <v>1724334518995</v>
+      <c r="R480" t="n">
+        <v>6.5600000000000005</v>
+      </c>
+      <c r="T480" t="n">
+        <v>1.724403906322E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -23843,11 +24236,11 @@
       <c r="H481" t="s">
         <v>2395</v>
       </c>
-      <c r="R481">
-        <v>8.75</v>
-      </c>
-      <c r="T481">
-        <v>1724334525420</v>
+      <c r="R481" t="n">
+        <v>6.690000000000001</v>
+      </c>
+      <c r="T481" t="n">
+        <v>1.724404996876E12</v>
       </c>
     </row>
     <row r="482" spans="1:20">
@@ -24455,11 +24848,11 @@
       <c r="D508" t="s">
         <v>5</v>
       </c>
-      <c r="R508">
-        <v>5</v>
-      </c>
-      <c r="T508">
-        <v>1724318022717</v>
+      <c r="R508" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T508" t="n">
+        <v>1.724403917988E12</v>
       </c>
     </row>
     <row r="509" spans="1:20">
@@ -24495,11 +24888,11 @@
       <c r="D510" t="s">
         <v>5</v>
       </c>
-      <c r="R510">
-        <v>7.400000000000001</v>
-      </c>
-      <c r="T510">
-        <v>1724318037314</v>
+      <c r="R510" t="n">
+        <v>6.700000000000003</v>
+      </c>
+      <c r="T510" t="n">
+        <v>1.724405002331E12</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -24635,11 +25028,11 @@
       <c r="D517" t="s">
         <v>5</v>
       </c>
-      <c r="R517">
-        <v>5.5</v>
-      </c>
-      <c r="T517">
-        <v>1724318059782</v>
+      <c r="R517" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="T517" t="n">
+        <v>1.724403924709E12</v>
       </c>
     </row>
     <row r="518" spans="1:20">
@@ -24915,11 +25308,11 @@
       <c r="D531" t="s">
         <v>4</v>
       </c>
-      <c r="R531">
-        <v>5</v>
-      </c>
-      <c r="T531">
-        <v>1724318239975</v>
+      <c r="R531" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T531" t="n">
+        <v>1.724403929297E12</v>
       </c>
     </row>
     <row r="532" spans="1:20">
@@ -25435,11 +25828,11 @@
       <c r="D557" t="s">
         <v>4</v>
       </c>
-      <c r="R557">
-        <v>5</v>
-      </c>
-      <c r="T557">
-        <v>1724318333283</v>
+      <c r="R557" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T557" t="n">
+        <v>1.724403932155E12</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -25555,11 +25948,11 @@
       <c r="D563" t="s">
         <v>4</v>
       </c>
-      <c r="R563">
-        <v>5</v>
-      </c>
-      <c r="T563">
-        <v>1724318370830</v>
+      <c r="R563" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T563" t="n">
+        <v>1.724403935553E12</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -25675,11 +26068,11 @@
       <c r="D569" t="s">
         <v>5</v>
       </c>
-      <c r="R569">
-        <v>7.400000000000001</v>
-      </c>
-      <c r="T569">
-        <v>1724318388161</v>
+      <c r="R569" t="n">
+        <v>6.7200000000000015</v>
+      </c>
+      <c r="T569" t="n">
+        <v>1.724404541747E12</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -25715,11 +26108,11 @@
       <c r="D571" t="s">
         <v>5</v>
       </c>
-      <c r="R571">
-        <v>5.5</v>
-      </c>
-      <c r="T571">
-        <v>1724318399078</v>
+      <c r="R571" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="T571" t="n">
+        <v>1.724403942488E12</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -25955,11 +26348,11 @@
       <c r="D583" t="s">
         <v>4</v>
       </c>
-      <c r="R583">
-        <v>5</v>
-      </c>
-      <c r="T583">
-        <v>1724318439500</v>
+      <c r="R583" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="T583" t="n">
+        <v>1.724403944877E12</v>
       </c>
     </row>
     <row r="584" spans="1:20">
@@ -26075,11 +26468,11 @@
       <c r="D589" t="s">
         <v>5</v>
       </c>
-      <c r="R589">
-        <v>9.450000000000001</v>
-      </c>
-      <c r="T589">
-        <v>1724318454491</v>
+      <c r="R589" t="n">
+        <v>6.730000000000002</v>
+      </c>
+      <c r="T589" t="n">
+        <v>1.724405003804E12</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -26195,11 +26588,11 @@
       <c r="D595" t="s">
         <v>5</v>
       </c>
-      <c r="R595">
-        <v>5</v>
-      </c>
-      <c r="T595">
-        <v>1724318476464</v>
+      <c r="R595" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="T595" t="n">
+        <v>1.724403952339E12</v>
       </c>
     </row>
     <row r="596" spans="1:20">
@@ -26343,6 +26736,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/target/classes/中级工题库.xlsx
+++ b/target/classes/中级工题库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="2531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3939" uniqueCount="2537">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -7657,6 +7657,24 @@
   </si>
   <si>
     <t>您一共做了: 36题	您的得分： 100.0	做题时长约为1.6833333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 62题	您的得分： 98.38709677419355	做题时长约为5.433333333333334Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 38题	您的得分： 94.73684210526315	做题时长约为3.2666666666666666Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 2题	您的得分： 100.0	做题时长约为0.06666666666666667Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 42题	您的得分： 97.61904761904762	做题时长约为2.6333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 42题	您的得分： 100.0	做题时长约为3.1333333333333333Min</t>
+  </si>
+  <si>
+    <t>您一共做了: 170题	您的得分： 96.47058823529412	做题时长约为18.1Min</t>
   </si>
 </sst>
 </file>
@@ -7716,7 +7734,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="679">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -7869,6 +7887,369 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -8800,10 +9181,10 @@
         <v>1980</v>
       </c>
       <c r="R12" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T12" t="n">
-        <v>1.724404905926E12</v>
+        <v>1.724419461392E12</v>
       </c>
       <c r="AA12" t="s">
         <v>2412</v>
@@ -8974,11 +9355,11 @@
       <c r="H17" t="s">
         <v>1985</v>
       </c>
-      <c r="R17">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T17">
-        <v>1724327021137</v>
+      <c r="R17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.724419465167E12</v>
       </c>
       <c r="AA17" t="s">
         <v>2417</v>
@@ -9500,10 +9881,10 @@
         <v>2000</v>
       </c>
       <c r="R32" t="n">
-        <v>6.730000000000002</v>
+        <v>4.230000000000002</v>
       </c>
       <c r="T32" t="n">
-        <v>1.724404907569E12</v>
+        <v>1.72441946893E12</v>
       </c>
       <c r="AA32" t="s">
         <v>2432</v>
@@ -9674,11 +10055,11 @@
       <c r="H37" t="s">
         <v>2005</v>
       </c>
-      <c r="R37">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T37">
-        <v>1724327302156</v>
+      <c r="R37" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1.724419472107E12</v>
       </c>
       <c r="AA37" t="s">
         <v>2437</v>
@@ -9955,10 +10336,10 @@
         <v>2011</v>
       </c>
       <c r="R45" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T45" t="n">
-        <v>1.724403411465E12</v>
+        <v>1.724419473455E12</v>
       </c>
       <c r="AA45" t="s">
         <v>2403</v>
@@ -10269,11 +10650,11 @@
       <c r="H54" t="s">
         <v>2020</v>
       </c>
-      <c r="R54">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T54">
-        <v>1724327456655</v>
+      <c r="R54" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.72441947563E12</v>
       </c>
       <c r="AA54" t="s">
         <v>2450</v>
@@ -10375,10 +10756,10 @@
         <v>2023</v>
       </c>
       <c r="R57" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T57" t="n">
-        <v>1.724404910434E12</v>
+        <v>1.724419488841E12</v>
       </c>
       <c r="AA57" t="s">
         <v>2453</v>
@@ -10409,11 +10790,11 @@
       <c r="H58" t="s">
         <v>1261</v>
       </c>
-      <c r="R58">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T58">
-        <v>1724327493590</v>
+      <c r="R58" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.724419491262E12</v>
       </c>
       <c r="AA58" t="s">
         <v>2408</v>
@@ -10445,10 +10826,10 @@
         <v>2024</v>
       </c>
       <c r="R59" t="n">
-        <v>6.91</v>
+        <v>4.41</v>
       </c>
       <c r="T59" t="n">
-        <v>1.724404911725E12</v>
+        <v>1.724419492569E12</v>
       </c>
       <c r="AA59" t="s">
         <v>2449</v>
@@ -10480,10 +10861,10 @@
         <v>2025</v>
       </c>
       <c r="R60" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T60" t="n">
-        <v>1.724403425202E12</v>
+        <v>1.724419498536E12</v>
       </c>
       <c r="AA60" t="s">
         <v>2408</v>
@@ -10549,11 +10930,11 @@
       <c r="H62" t="s">
         <v>706</v>
       </c>
-      <c r="R62">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T62">
-        <v>1724327536572</v>
+      <c r="R62" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.72441950032E12</v>
       </c>
       <c r="AA62" t="s">
         <v>2455</v>
@@ -10585,10 +10966,10 @@
         <v>2027</v>
       </c>
       <c r="R63" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T63" t="n">
-        <v>1.724404914194E12</v>
+        <v>1.724419507407E12</v>
       </c>
       <c r="AA63" t="s">
         <v>2456</v>
@@ -10619,11 +11000,11 @@
       <c r="H64" t="s">
         <v>2028</v>
       </c>
-      <c r="R64">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T64">
-        <v>1724327566730</v>
+      <c r="R64" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.724419513099E12</v>
       </c>
       <c r="AA64" t="s">
         <v>2457</v>
@@ -11215,10 +11596,10 @@
         <v>2044</v>
       </c>
       <c r="R81" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T81" t="n">
-        <v>1.724404915166E12</v>
+        <v>1.724419514211E12</v>
       </c>
       <c r="AA81" t="s">
         <v>2455</v>
@@ -11285,10 +11666,10 @@
         <v>2045</v>
       </c>
       <c r="R83" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T83" t="n">
-        <v>1.724404917471E12</v>
+        <v>1.724419517864E12</v>
       </c>
       <c r="AA83" t="s">
         <v>2472</v>
@@ -11319,11 +11700,11 @@
       <c r="H84" t="s">
         <v>2046</v>
       </c>
-      <c r="R84">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="T84">
-        <v>1724327754610</v>
+      <c r="R84" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.724419524742E12</v>
       </c>
       <c r="AA84" t="s">
         <v>2473</v>
@@ -11354,11 +11735,11 @@
       <c r="H85" t="s">
         <v>2047</v>
       </c>
-      <c r="R85">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T85">
-        <v>1724327761219</v>
+      <c r="R85" t="n">
+        <v>4.200000000000001</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.724419551544E12</v>
       </c>
       <c r="AA85" t="s">
         <v>2474</v>
@@ -11494,11 +11875,11 @@
       <c r="H89" t="s">
         <v>1432</v>
       </c>
-      <c r="R89">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T89">
-        <v>1724327794945</v>
+      <c r="R89" t="n">
+        <v>4.350000000000001</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.724419568279E12</v>
       </c>
       <c r="AA89" t="s">
         <v>2477</v>
@@ -11670,10 +12051,10 @@
         <v>2055</v>
       </c>
       <c r="R94" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T94" t="n">
-        <v>1.724403449973E12</v>
+        <v>1.724419581356E12</v>
       </c>
       <c r="AA94" t="s">
         <v>2482</v>
@@ -11774,11 +12155,11 @@
       <c r="H97" t="s">
         <v>2058</v>
       </c>
-      <c r="R97">
-        <v>3.85</v>
-      </c>
-      <c r="T97">
-        <v>1724327832993</v>
+      <c r="R97" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.724419643987E12</v>
       </c>
       <c r="AA97" t="s">
         <v>2485</v>
@@ -11949,11 +12330,11 @@
       <c r="H102" t="s">
         <v>2061</v>
       </c>
-      <c r="R102">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T102">
-        <v>1724327973431</v>
+      <c r="R102" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.724419647597E12</v>
       </c>
       <c r="AA102" t="s">
         <v>2490</v>
@@ -12019,11 +12400,11 @@
       <c r="H104" t="s">
         <v>2063</v>
       </c>
-      <c r="R104">
-        <v>3.100000000000003</v>
-      </c>
-      <c r="T104">
-        <v>1724327982479</v>
+      <c r="R104" t="n">
+        <v>2.600000000000003</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.72441965748E12</v>
       </c>
       <c r="AA104" t="s">
         <v>2492</v>
@@ -12055,10 +12436,10 @@
         <v>2064</v>
       </c>
       <c r="R105" t="n">
-        <v>6.840000000000002</v>
+        <v>4.340000000000002</v>
       </c>
       <c r="T105" t="n">
-        <v>1.724404919775E12</v>
+        <v>1.724419666894E12</v>
       </c>
       <c r="AA105" t="s">
         <v>2493</v>
@@ -12229,11 +12610,11 @@
       <c r="H110" t="s">
         <v>2068</v>
       </c>
-      <c r="R110">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T110">
-        <v>1724328042021</v>
+      <c r="R110" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.72441967173E12</v>
       </c>
       <c r="AA110" t="s">
         <v>2498</v>
@@ -12264,11 +12645,11 @@
       <c r="H111" t="s">
         <v>2069</v>
       </c>
-      <c r="R111">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T111">
-        <v>1724328048040</v>
+      <c r="R111" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.724419697433E12</v>
       </c>
       <c r="AA111" t="s">
         <v>2453</v>
@@ -12300,10 +12681,10 @@
         <v>2069</v>
       </c>
       <c r="R112" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T112" t="n">
-        <v>1.724403468956E12</v>
+        <v>1.724419702216E12</v>
       </c>
       <c r="AA112" t="s">
         <v>2499</v>
@@ -12335,10 +12716,10 @@
         <v>2069</v>
       </c>
       <c r="R113" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T113" t="n">
-        <v>1.724403503532E12</v>
+        <v>1.724419707406E12</v>
       </c>
       <c r="AA113" t="s">
         <v>2500</v>
@@ -12439,11 +12820,11 @@
       <c r="H116" t="s">
         <v>2072</v>
       </c>
-      <c r="R116">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="T116">
-        <v>1724329584054</v>
+      <c r="R116" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.724419710337E12</v>
       </c>
       <c r="AA116" t="s">
         <v>2503</v>
@@ -12509,11 +12890,11 @@
       <c r="H118" t="s">
         <v>2074</v>
       </c>
-      <c r="R118">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T118">
-        <v>1724329601182</v>
+      <c r="R118" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.724419722012E12</v>
       </c>
       <c r="AA118" t="s">
         <v>2505</v>
@@ -12650,10 +13031,10 @@
         <v>2078</v>
       </c>
       <c r="R122" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T122" t="n">
-        <v>1.724403510104E12</v>
+        <v>1.724419727745E12</v>
       </c>
       <c r="AA122" t="s">
         <v>2449</v>
@@ -12754,11 +13135,11 @@
       <c r="H125" t="s">
         <v>2081</v>
       </c>
-      <c r="R125">
-        <v>3.100000000000006</v>
-      </c>
-      <c r="T125">
-        <v>1724329670275</v>
+      <c r="R125" t="n">
+        <v>2.600000000000006</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.724419729908E12</v>
       </c>
       <c r="AA125" t="s">
         <v>2418</v>
@@ -12860,10 +13241,10 @@
         <v>2083</v>
       </c>
       <c r="R128" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T128" t="n">
-        <v>1.724403558828E12</v>
+        <v>1.724419732161E12</v>
       </c>
       <c r="AA128" t="s">
         <v>2418</v>
@@ -13000,10 +13381,10 @@
         <v>2087</v>
       </c>
       <c r="R132" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T132" t="n">
-        <v>1.724403562682E12</v>
+        <v>1.724419734126E12</v>
       </c>
       <c r="AA132" t="s">
         <v>2514</v>
@@ -13034,11 +13415,11 @@
       <c r="H133" t="s">
         <v>2088</v>
       </c>
-      <c r="R133">
-        <v>3.85</v>
-      </c>
-      <c r="T133">
-        <v>1724329709705</v>
+      <c r="R133" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T133" t="n">
+        <v>1.724419736397E12</v>
       </c>
       <c r="AA133" t="s">
         <v>2408</v>
@@ -13209,11 +13590,11 @@
       <c r="H138" t="s">
         <v>2093</v>
       </c>
-      <c r="R138">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="T138">
-        <v>1724329726017</v>
+      <c r="R138" t="n">
+        <v>2.550000000000001</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.72441973817E12</v>
       </c>
       <c r="AA138" t="s">
         <v>2519</v>
@@ -13315,10 +13696,10 @@
         <v>2096</v>
       </c>
       <c r="R141" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T141" t="n">
-        <v>1.724403607694E12</v>
+        <v>1.724419742187E12</v>
       </c>
       <c r="AA141" t="s">
         <v>2456</v>
@@ -13559,11 +13940,11 @@
       <c r="H148" t="s">
         <v>2103</v>
       </c>
-      <c r="R148">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T148">
-        <v>1724329810020</v>
+      <c r="R148" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.724419746008E12</v>
       </c>
       <c r="AA148" t="s">
         <v>2418</v>
@@ -13664,11 +14045,11 @@
       <c r="H151" t="s">
         <v>2106</v>
       </c>
-      <c r="R151">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T151">
-        <v>1724329847903</v>
+      <c r="R151" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.724419760279E12</v>
       </c>
       <c r="AA151" t="s">
         <v>2418</v>
@@ -13805,10 +14186,13 @@
         <v>2110</v>
       </c>
       <c r="R155" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T155" t="n">
-        <v>1.724403621228E12</v>
+        <v>1.724419764972E12</v>
+      </c>
+      <c r="AA155" t="s">
+        <v>2531</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -13842,6 +14226,9 @@
       <c r="T156">
         <v>1724329910371</v>
       </c>
+      <c r="AA156" t="s">
+        <v>2532</v>
+      </c>
     </row>
     <row r="157" spans="1:20">
       <c r="A157">
@@ -13874,6 +14261,9 @@
       <c r="T157">
         <v>1724329917000</v>
       </c>
+      <c r="AA157" t="s">
+        <v>2533</v>
+      </c>
     </row>
     <row r="158" spans="1:20">
       <c r="A158">
@@ -13906,6 +14296,9 @@
       <c r="T158">
         <v>1724329919762</v>
       </c>
+      <c r="AA158" t="s">
+        <v>2454</v>
+      </c>
     </row>
     <row r="159" spans="1:20">
       <c r="A159">
@@ -13938,6 +14331,9 @@
       <c r="T159">
         <v>1724329921594</v>
       </c>
+      <c r="AA159" t="s">
+        <v>2534</v>
+      </c>
     </row>
     <row r="160" spans="1:20">
       <c r="A160">
@@ -13970,6 +14366,9 @@
       <c r="T160">
         <v>1724329925867</v>
       </c>
+      <c r="AA160" t="s">
+        <v>2408</v>
+      </c>
     </row>
     <row r="161" spans="1:20">
       <c r="A161">
@@ -14002,6 +14401,9 @@
       <c r="T161">
         <v>1724329939354</v>
       </c>
+      <c r="AA161" t="s">
+        <v>2535</v>
+      </c>
     </row>
     <row r="162" spans="1:20">
       <c r="A162">
@@ -14028,11 +14430,14 @@
       <c r="H162" t="s">
         <v>2115</v>
       </c>
-      <c r="R162">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="T162">
-        <v>1724329941896</v>
+      <c r="R162" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.724419767455E12</v>
+      </c>
+      <c r="AA162" t="s">
+        <v>2408</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -14060,11 +14465,14 @@
       <c r="H163" t="s">
         <v>2116</v>
       </c>
-      <c r="R163">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T163">
-        <v>1724329947696</v>
+      <c r="R163" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.724419770163E12</v>
+      </c>
+      <c r="AA163" t="s">
+        <v>2494</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -14092,11 +14500,14 @@
       <c r="H164" t="s">
         <v>2117</v>
       </c>
-      <c r="R164">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T164">
-        <v>1724329950931</v>
+      <c r="R164" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.724419778449E12</v>
+      </c>
+      <c r="AA164" t="s">
+        <v>2408</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -14124,11 +14535,14 @@
       <c r="H165" t="s">
         <v>2118</v>
       </c>
-      <c r="R165">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="T165">
-        <v>1724329953046</v>
+      <c r="R165" t="n">
+        <v>2.550000000000001</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.724419780969E12</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>2536</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -14284,11 +14698,11 @@
       <c r="H170" t="s">
         <v>2123</v>
       </c>
-      <c r="R170">
-        <v>3.85</v>
-      </c>
-      <c r="T170">
-        <v>1724329981048</v>
+      <c r="R170" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.724419797413E12</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -14348,11 +14762,11 @@
       <c r="H172" t="s">
         <v>2125</v>
       </c>
-      <c r="R172">
-        <v>3.85</v>
-      </c>
-      <c r="T172">
-        <v>1724329985139</v>
+      <c r="R172" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.724419801175E12</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -14444,11 +14858,11 @@
       <c r="H175" t="s">
         <v>2126</v>
       </c>
-      <c r="R175">
-        <v>3.599999999999997</v>
-      </c>
-      <c r="T175">
-        <v>1724330004871</v>
+      <c r="R175" t="n">
+        <v>3.099999999999997</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.724419814051E12</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -14572,11 +14986,11 @@
       <c r="H179" t="s">
         <v>2129</v>
       </c>
-      <c r="R179">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T179">
-        <v>1724330022803</v>
+      <c r="R179" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.724419816829E12</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -14636,11 +15050,11 @@
       <c r="H181" t="s">
         <v>2131</v>
       </c>
-      <c r="R181">
-        <v>3.099999999999998</v>
-      </c>
-      <c r="T181">
-        <v>1724330030646</v>
+      <c r="R181" t="n">
+        <v>2.599999999999998</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.724419821122E12</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -14668,11 +15082,11 @@
       <c r="H182" t="s">
         <v>1695</v>
       </c>
-      <c r="R182">
-        <v>3.85</v>
-      </c>
-      <c r="T182">
-        <v>1724330033355</v>
+      <c r="R182" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.724419823314E12</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -14796,11 +15210,11 @@
       <c r="H186" t="s">
         <v>2135</v>
       </c>
-      <c r="R186">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T186">
-        <v>1724330053137</v>
+      <c r="R186" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.724419827723E12</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -14860,11 +15274,11 @@
       <c r="H188" t="s">
         <v>2136</v>
       </c>
-      <c r="R188">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T188">
-        <v>1724330057378</v>
+      <c r="R188" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T188" t="n">
+        <v>1.724419829613E12</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -14925,10 +15339,10 @@
         <v>754</v>
       </c>
       <c r="R190" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T190" t="n">
-        <v>1.724403654934E12</v>
+        <v>1.724419848646E12</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -15053,10 +15467,10 @@
         <v>2141</v>
       </c>
       <c r="R194" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T194" t="n">
-        <v>1.724403659284E12</v>
+        <v>1.72441985149E12</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -15148,11 +15562,11 @@
       <c r="H197" t="s">
         <v>2144</v>
       </c>
-      <c r="R197">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T197">
-        <v>1724330118740</v>
+      <c r="R197" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T197" t="n">
+        <v>1.724419855217E12</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -15213,10 +15627,10 @@
         <v>2146</v>
       </c>
       <c r="R199" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T199" t="n">
-        <v>1.724404920708E12</v>
+        <v>1.724419856774E12</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -15277,10 +15691,10 @@
         <v>2148</v>
       </c>
       <c r="R201" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T201" t="n">
-        <v>1.724404923576E12</v>
+        <v>1.724419858652E12</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -15469,10 +15883,10 @@
         <v>2153</v>
       </c>
       <c r="R207" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T207" t="n">
-        <v>1.72440368179E12</v>
+        <v>1.724419860198E12</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -15564,11 +15978,11 @@
       <c r="H210" t="s">
         <v>2155</v>
       </c>
-      <c r="R210">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T210">
-        <v>1724330783910</v>
+      <c r="R210" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T210" t="n">
+        <v>1.72441986872E12</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -15853,10 +16267,10 @@
         <v>2162</v>
       </c>
       <c r="R219" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T219" t="n">
-        <v>1.72440492669E12</v>
+        <v>1.724419870116E12</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -15917,10 +16331,10 @@
         <v>2164</v>
       </c>
       <c r="R221" t="n">
-        <v>6.850000000000001</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="T221" t="n">
-        <v>1.724404932953E12</v>
+        <v>1.724419948925E12</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -15980,11 +16394,11 @@
       <c r="H223" t="s">
         <v>2166</v>
       </c>
-      <c r="R223">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T223">
-        <v>1724331473122</v>
+      <c r="R223" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.724419950532E12</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -16044,11 +16458,11 @@
       <c r="H225" t="s">
         <v>2167</v>
       </c>
-      <c r="R225">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T225">
-        <v>1724331538746</v>
+      <c r="R225" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T225" t="n">
+        <v>1.724419962155E12</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -16140,11 +16554,11 @@
       <c r="H228" t="s">
         <v>2169</v>
       </c>
-      <c r="R228">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T228">
-        <v>1724331569727</v>
+      <c r="R228" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T228" t="n">
+        <v>1.724419982898E12</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -16172,11 +16586,11 @@
       <c r="H229" t="s">
         <v>2170</v>
       </c>
-      <c r="R229">
-        <v>3.850000000000018</v>
-      </c>
-      <c r="T229">
-        <v>1724331573717</v>
+      <c r="R229" t="n">
+        <v>3.350000000000018</v>
+      </c>
+      <c r="T229" t="n">
+        <v>1.724419985247E12</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -16301,10 +16715,10 @@
         <v>2174</v>
       </c>
       <c r="R233" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T233" t="n">
-        <v>1.724403722783E12</v>
+        <v>1.724419987116E12</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -16524,11 +16938,11 @@
       <c r="H240" t="s">
         <v>2178</v>
       </c>
-      <c r="R240">
-        <v>3.549999999999999</v>
-      </c>
-      <c r="T240">
-        <v>1724331748045</v>
+      <c r="R240" t="n">
+        <v>3.049999999999999</v>
+      </c>
+      <c r="T240" t="n">
+        <v>1.724419993972E12</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -16684,11 +17098,11 @@
       <c r="H245" t="s">
         <v>2183</v>
       </c>
-      <c r="R245">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T245">
-        <v>1724331812067</v>
+      <c r="R245" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T245" t="n">
+        <v>1.724419995836E12</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -16748,11 +17162,11 @@
       <c r="H247" t="s">
         <v>2185</v>
       </c>
-      <c r="R247">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T247">
-        <v>1724331836472</v>
+      <c r="R247" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T247" t="n">
+        <v>1.724420001761E12</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -17036,11 +17450,11 @@
       <c r="H256" t="s">
         <v>2193</v>
       </c>
-      <c r="R256">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T256">
-        <v>1724331924285</v>
+      <c r="R256" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T256" t="n">
+        <v>1.724420011694E12</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -17292,11 +17706,11 @@
       <c r="H264" t="s">
         <v>2198</v>
       </c>
-      <c r="R264">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T264">
-        <v>1724331962680</v>
+      <c r="R264" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T264" t="n">
+        <v>1.724420017055E12</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -17516,11 +17930,11 @@
       <c r="H271" t="s">
         <v>2204</v>
       </c>
-      <c r="R271">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T271">
-        <v>1724332000089</v>
+      <c r="R271" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T271" t="n">
+        <v>1.724420020176E12</v>
       </c>
     </row>
     <row r="272" spans="1:20">
@@ -17772,11 +18186,11 @@
       <c r="H279" t="s">
         <v>2212</v>
       </c>
-      <c r="R279">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T279">
-        <v>1724332035826</v>
+      <c r="R279" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T279" t="n">
+        <v>1.724420041109E12</v>
       </c>
     </row>
     <row r="280" spans="1:20">
@@ -17805,10 +18219,10 @@
         <v>2212</v>
       </c>
       <c r="R280" t="n">
-        <v>6.690000000000001</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="T280" t="n">
-        <v>1.724404934694E12</v>
+        <v>1.724420077498E12</v>
       </c>
     </row>
     <row r="281" spans="1:20">
@@ -17964,11 +18378,11 @@
       <c r="H285" t="s">
         <v>2217</v>
       </c>
-      <c r="R285">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T285">
-        <v>1724332074326</v>
+      <c r="R285" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T285" t="n">
+        <v>1.724420080728E12</v>
       </c>
     </row>
     <row r="286" spans="1:20">
@@ -18060,11 +18474,11 @@
       <c r="H288" t="s">
         <v>2220</v>
       </c>
-      <c r="R288">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T288">
-        <v>1724332084825</v>
+      <c r="R288" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T288" t="n">
+        <v>1.724420099281E12</v>
       </c>
     </row>
     <row r="289" spans="1:20">
@@ -18125,10 +18539,10 @@
         <v>2222</v>
       </c>
       <c r="R290" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T290" t="n">
-        <v>1.724404937121E12</v>
+        <v>1.724420104289E12</v>
       </c>
     </row>
     <row r="291" spans="1:20">
@@ -18220,11 +18634,11 @@
       <c r="H293" t="s">
         <v>1620</v>
       </c>
-      <c r="R293">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T293">
-        <v>1724332160918</v>
+      <c r="R293" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T293" t="n">
+        <v>1.724420125091E12</v>
       </c>
     </row>
     <row r="294" spans="1:20">
@@ -18316,11 +18730,11 @@
       <c r="H296" t="s">
         <v>2226</v>
       </c>
-      <c r="R296">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T296">
-        <v>1724332171428</v>
+      <c r="R296" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T296" t="n">
+        <v>1.724420126642E12</v>
       </c>
     </row>
     <row r="297" spans="1:20">
@@ -18380,11 +18794,11 @@
       <c r="H298" t="s">
         <v>2228</v>
       </c>
-      <c r="R298">
-        <v>3.85</v>
-      </c>
-      <c r="T298">
-        <v>1724332180363</v>
+      <c r="R298" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="T298" t="n">
+        <v>1.724420131725E12</v>
       </c>
     </row>
     <row r="299" spans="1:20">
@@ -18445,10 +18859,10 @@
         <v>2229</v>
       </c>
       <c r="R300" t="n">
-        <v>6.690000000000001</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="T300" t="n">
-        <v>1.724404942617E12</v>
+        <v>1.724420141949E12</v>
       </c>
     </row>
     <row r="301" spans="1:20">
@@ -18476,11 +18890,11 @@
       <c r="H301" t="s">
         <v>2230</v>
       </c>
-      <c r="R301">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="T301">
-        <v>1724332206034</v>
+      <c r="R301" t="n">
+        <v>2.550000000000001</v>
+      </c>
+      <c r="T301" t="n">
+        <v>1.724420170025E12</v>
       </c>
     </row>
     <row r="302" spans="1:20">
@@ -18701,10 +19115,10 @@
         <v>2058</v>
       </c>
       <c r="R308" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T308" t="n">
-        <v>1.72440494548E12</v>
+        <v>1.724420181784E12</v>
       </c>
     </row>
     <row r="309" spans="1:20">
@@ -18732,11 +19146,11 @@
       <c r="H309" t="s">
         <v>2237</v>
       </c>
-      <c r="R309">
-        <v>3.35</v>
-      </c>
-      <c r="T309">
-        <v>1724333283787</v>
+      <c r="R309" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T309" t="n">
+        <v>1.724420185121E12</v>
       </c>
     </row>
     <row r="310" spans="1:20">
@@ -18765,10 +19179,10 @@
         <v>2238</v>
       </c>
       <c r="R310" t="n">
-        <v>6.750000000000028</v>
+        <v>4.250000000000028</v>
       </c>
       <c r="T310" t="n">
-        <v>1.724404952225E12</v>
+        <v>1.724420187872E12</v>
       </c>
     </row>
     <row r="311" spans="1:20">
@@ -18892,11 +19306,11 @@
       <c r="H314" t="s">
         <v>2242</v>
       </c>
-      <c r="R314">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T314">
-        <v>1724333322684</v>
+      <c r="R314" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T314" t="n">
+        <v>1.724420192437E12</v>
       </c>
     </row>
     <row r="315" spans="1:20">
@@ -18956,11 +19370,11 @@
       <c r="H316" t="s">
         <v>2244</v>
       </c>
-      <c r="R316">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T316">
-        <v>1724333345553</v>
+      <c r="R316" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T316" t="n">
+        <v>1.72442019702E12</v>
       </c>
     </row>
     <row r="317" spans="1:20">
@@ -19180,11 +19594,11 @@
       <c r="H323" t="s">
         <v>2250</v>
       </c>
-      <c r="R323">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T323">
-        <v>1724333382224</v>
+      <c r="R323" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T323" t="n">
+        <v>1.724420198747E12</v>
       </c>
     </row>
     <row r="324" spans="1:20">
@@ -19213,10 +19627,10 @@
         <v>1341</v>
       </c>
       <c r="R324" t="n">
-        <v>6.840000000000002</v>
+        <v>4.340000000000002</v>
       </c>
       <c r="T324" t="n">
-        <v>1.724404953598E12</v>
+        <v>1.724420200142E12</v>
       </c>
     </row>
     <row r="325" spans="1:20">
@@ -19276,11 +19690,11 @@
       <c r="H326" t="s">
         <v>2252</v>
       </c>
-      <c r="R326">
-        <v>3.649999999999995</v>
-      </c>
-      <c r="T326">
-        <v>1724333402472</v>
+      <c r="R326" t="n">
+        <v>3.149999999999995</v>
+      </c>
+      <c r="T326" t="n">
+        <v>1.724420211186E12</v>
       </c>
     </row>
     <row r="327" spans="1:20">
@@ -19308,11 +19722,11 @@
       <c r="H327" t="s">
         <v>2253</v>
       </c>
-      <c r="R327">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T327">
-        <v>1724333408360</v>
+      <c r="R327" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T327" t="n">
+        <v>1.724420213853E12</v>
       </c>
     </row>
     <row r="328" spans="1:20">
@@ -19373,10 +19787,10 @@
         <v>2255</v>
       </c>
       <c r="R329" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T329" t="n">
-        <v>1.724404958331E12</v>
+        <v>1.724420217801E12</v>
       </c>
     </row>
     <row r="330" spans="1:20">
@@ -19404,11 +19818,11 @@
       <c r="H330" t="s">
         <v>2256</v>
       </c>
-      <c r="R330">
-        <v>3.650000000000002</v>
-      </c>
-      <c r="T330">
-        <v>1724333421847</v>
+      <c r="R330" t="n">
+        <v>3.150000000000002</v>
+      </c>
+      <c r="T330" t="n">
+        <v>1.724420220852E12</v>
       </c>
     </row>
     <row r="331" spans="1:20">
@@ -19501,10 +19915,10 @@
         <v>2259</v>
       </c>
       <c r="R333" t="n">
-        <v>6.840000000000005</v>
+        <v>4.340000000000005</v>
       </c>
       <c r="T333" t="n">
-        <v>1.724404963156E12</v>
+        <v>1.724420227006E12</v>
       </c>
     </row>
     <row r="334" spans="1:20">
@@ -19564,11 +19978,11 @@
       <c r="H335" t="s">
         <v>890</v>
       </c>
-      <c r="R335">
-        <v>3.549999999999999</v>
-      </c>
-      <c r="T335">
-        <v>1724333506846</v>
+      <c r="R335" t="n">
+        <v>3.049999999999999</v>
+      </c>
+      <c r="T335" t="n">
+        <v>1.724420229372E12</v>
       </c>
     </row>
     <row r="336" spans="1:20">
@@ -19820,11 +20234,11 @@
       <c r="H343" t="s">
         <v>2268</v>
       </c>
-      <c r="R343">
-        <v>3.85</v>
-      </c>
-      <c r="T343">
-        <v>1724333549772</v>
+      <c r="R343" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T343" t="n">
+        <v>1.724420231719E12</v>
       </c>
     </row>
     <row r="344" spans="1:20">
@@ -19948,11 +20362,11 @@
       <c r="H347" t="s">
         <v>2272</v>
       </c>
-      <c r="R347">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T347">
-        <v>1724333557699</v>
+      <c r="R347" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T347" t="n">
+        <v>1.724420236852E12</v>
       </c>
     </row>
     <row r="348" spans="1:20">
@@ -20012,11 +20426,11 @@
       <c r="H349" t="s">
         <v>1845</v>
       </c>
-      <c r="R349">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="T349">
-        <v>1724333565627</v>
+      <c r="R349" t="n">
+        <v>2.550000000000001</v>
+      </c>
+      <c r="T349" t="n">
+        <v>1.724420239035E12</v>
       </c>
     </row>
     <row r="350" spans="1:20">
@@ -20045,10 +20459,10 @@
         <v>2274</v>
       </c>
       <c r="R350" t="n">
-        <v>6.850000000000001</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="T350" t="n">
-        <v>1.724404965447E12</v>
+        <v>1.724420241234E12</v>
       </c>
     </row>
     <row r="351" spans="1:20">
@@ -20172,11 +20586,11 @@
       <c r="H354" t="s">
         <v>2278</v>
       </c>
-      <c r="R354">
-        <v>3.050000000000001</v>
-      </c>
-      <c r="T354">
-        <v>1724333602619</v>
+      <c r="R354" t="n">
+        <v>2.550000000000001</v>
+      </c>
+      <c r="T354" t="n">
+        <v>1.724420244749E12</v>
       </c>
     </row>
     <row r="355" spans="1:20">
@@ -20300,11 +20714,11 @@
       <c r="H358" t="s">
         <v>2282</v>
       </c>
-      <c r="R358">
-        <v>3.900000000000001</v>
-      </c>
-      <c r="T358">
-        <v>1724333619933</v>
+      <c r="R358" t="n">
+        <v>3.400000000000001</v>
+      </c>
+      <c r="T358" t="n">
+        <v>1.72442025262E12</v>
       </c>
     </row>
     <row r="359" spans="1:20">
@@ -20332,11 +20746,11 @@
       <c r="H359" t="s">
         <v>2283</v>
       </c>
-      <c r="R359">
-        <v>3.850000000000058</v>
-      </c>
-      <c r="T359">
-        <v>1724333628560</v>
+      <c r="R359" t="n">
+        <v>3.350000000000058</v>
+      </c>
+      <c r="T359" t="n">
+        <v>1.724420257248E12</v>
       </c>
     </row>
     <row r="360" spans="1:20">
@@ -20428,11 +20842,11 @@
       <c r="H362" t="s">
         <v>2286</v>
       </c>
-      <c r="R362">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T362">
-        <v>1724333641350</v>
+      <c r="R362" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T362" t="n">
+        <v>1.724420258814E12</v>
       </c>
     </row>
     <row r="363" spans="1:20">
@@ -20556,11 +20970,11 @@
       <c r="H366" t="s">
         <v>2290</v>
       </c>
-      <c r="R366">
-        <v>3.850000000000005</v>
-      </c>
-      <c r="T366">
-        <v>1724333654558</v>
+      <c r="R366" t="n">
+        <v>3.350000000000005</v>
+      </c>
+      <c r="T366" t="n">
+        <v>1.724420262184E12</v>
       </c>
     </row>
     <row r="367" spans="1:20">
@@ -20589,10 +21003,10 @@
         <v>2291</v>
       </c>
       <c r="R367" t="n">
-        <v>6.730000000000002</v>
+        <v>4.230000000000002</v>
       </c>
       <c r="T367" t="n">
-        <v>1.724404967564E12</v>
+        <v>1.724420271459E12</v>
       </c>
     </row>
     <row r="368" spans="1:20">
@@ -20716,11 +21130,11 @@
       <c r="H371" t="s">
         <v>2295</v>
       </c>
-      <c r="R371">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T371">
-        <v>1724333682290</v>
+      <c r="R371" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T371" t="n">
+        <v>1.724420275132E12</v>
       </c>
     </row>
     <row r="372" spans="1:20">
@@ -20749,10 +21163,10 @@
         <v>1244</v>
       </c>
       <c r="R372" t="n">
-        <v>6.91</v>
+        <v>4.41</v>
       </c>
       <c r="T372" t="n">
-        <v>1.724404970387E12</v>
+        <v>1.724420277573E12</v>
       </c>
     </row>
     <row r="373" spans="1:20">
@@ -20813,10 +21227,10 @@
         <v>2297</v>
       </c>
       <c r="R374" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T374" t="n">
-        <v>1.724404973037E12</v>
+        <v>1.724420285406E12</v>
       </c>
     </row>
     <row r="375" spans="1:20">
@@ -20844,11 +21258,11 @@
       <c r="H375" t="s">
         <v>2298</v>
       </c>
-      <c r="R375">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T375">
-        <v>1724333747768</v>
+      <c r="R375" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T375" t="n">
+        <v>1.724420290931E12</v>
       </c>
     </row>
     <row r="376" spans="1:20">
@@ -20908,11 +21322,11 @@
       <c r="H377" t="s">
         <v>2300</v>
       </c>
-      <c r="R377">
-        <v>3.100000000000027</v>
-      </c>
-      <c r="T377">
-        <v>1724333757460</v>
+      <c r="R377" t="n">
+        <v>2.600000000000027</v>
+      </c>
+      <c r="T377" t="n">
+        <v>1.724420293742E12</v>
       </c>
     </row>
     <row r="378" spans="1:20">
@@ -21101,10 +21515,10 @@
         <v>2304</v>
       </c>
       <c r="R383" t="n">
-        <v>6.660000000000004</v>
+        <v>4.160000000000004</v>
       </c>
       <c r="T383" t="n">
-        <v>1.724404977005E12</v>
+        <v>1.724420296358E12</v>
       </c>
     </row>
     <row r="384" spans="1:20">
@@ -21132,11 +21546,11 @@
       <c r="H384" t="s">
         <v>2305</v>
       </c>
-      <c r="R384">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T384">
-        <v>1724333798539</v>
+      <c r="R384" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T384" t="n">
+        <v>1.724420298279E12</v>
       </c>
     </row>
     <row r="385" spans="1:20">
@@ -21389,10 +21803,10 @@
         <v>2313</v>
       </c>
       <c r="R392" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T392" t="n">
-        <v>1.724403856353E12</v>
+        <v>1.724420305665E12</v>
       </c>
     </row>
     <row r="393" spans="1:20">
@@ -21453,10 +21867,10 @@
         <v>2315</v>
       </c>
       <c r="R394" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T394" t="n">
-        <v>1.724404979742E12</v>
+        <v>1.724420310282E12</v>
       </c>
     </row>
     <row r="395" spans="1:20">
@@ -21517,10 +21931,10 @@
         <v>2317</v>
       </c>
       <c r="R396" t="n">
-        <v>6.710000000000003</v>
+        <v>4.210000000000003</v>
       </c>
       <c r="T396" t="n">
-        <v>1.724404983496E12</v>
+        <v>1.724420311917E12</v>
       </c>
     </row>
     <row r="397" spans="1:20">
@@ -21580,11 +21994,11 @@
       <c r="H398" t="s">
         <v>2319</v>
       </c>
-      <c r="R398">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T398">
-        <v>1724333874658</v>
+      <c r="R398" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T398" t="n">
+        <v>1.724420314814E12</v>
       </c>
     </row>
     <row r="399" spans="1:20">
@@ -21804,11 +22218,11 @@
       <c r="H405" t="s">
         <v>2326</v>
       </c>
-      <c r="R405">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T405">
-        <v>1724333975899</v>
+      <c r="R405" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T405" t="n">
+        <v>1.724420317254E12</v>
       </c>
     </row>
     <row r="406" spans="1:20">
@@ -21837,10 +22251,10 @@
         <v>2327</v>
       </c>
       <c r="R406" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T406" t="n">
-        <v>1.724403870385E12</v>
+        <v>1.724420319927E12</v>
       </c>
     </row>
     <row r="407" spans="1:20">
@@ -21868,11 +22282,11 @@
       <c r="H407" t="s">
         <v>2328</v>
       </c>
-      <c r="R407">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T407">
-        <v>1724333985400</v>
+      <c r="R407" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T407" t="n">
+        <v>1.724420321626E12</v>
       </c>
     </row>
     <row r="408" spans="1:20">
@@ -21932,11 +22346,11 @@
       <c r="H409" t="s">
         <v>2330</v>
       </c>
-      <c r="R409">
-        <v>3.099999999999998</v>
-      </c>
-      <c r="T409">
-        <v>1724334017705</v>
+      <c r="R409" t="n">
+        <v>2.599999999999998</v>
+      </c>
+      <c r="T409" t="n">
+        <v>1.72442033048E12</v>
       </c>
     </row>
     <row r="410" spans="1:20">
@@ -22061,10 +22475,10 @@
         <v>2334</v>
       </c>
       <c r="R413" t="n">
-        <v>6.840000000000002</v>
+        <v>4.340000000000002</v>
       </c>
       <c r="T413" t="n">
-        <v>1.72440498514E12</v>
+        <v>1.724420337416E12</v>
       </c>
     </row>
     <row r="414" spans="1:20">
@@ -22092,11 +22506,11 @@
       <c r="H414" t="s">
         <v>2335</v>
       </c>
-      <c r="R414">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T414">
-        <v>1724334037248</v>
+      <c r="R414" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T414" t="n">
+        <v>1.724420352481E12</v>
       </c>
     </row>
     <row r="415" spans="1:20">
@@ -22124,11 +22538,11 @@
       <c r="H415" t="s">
         <v>2336</v>
       </c>
-      <c r="R415">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T415">
-        <v>1724334038691</v>
+      <c r="R415" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T415" t="n">
+        <v>1.7244203539E12</v>
       </c>
     </row>
     <row r="416" spans="1:20">
@@ -22220,11 +22634,11 @@
       <c r="H418" t="s">
         <v>2339</v>
       </c>
-      <c r="R418">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T418">
-        <v>1724334049598</v>
+      <c r="R418" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T418" t="n">
+        <v>1.724420358945E12</v>
       </c>
     </row>
     <row r="419" spans="1:20">
@@ -22316,11 +22730,11 @@
       <c r="H421" t="s">
         <v>2341</v>
       </c>
-      <c r="R421">
-        <v>3.899999999999997</v>
-      </c>
-      <c r="T421">
-        <v>1724334067587</v>
+      <c r="R421" t="n">
+        <v>3.399999999999997</v>
+      </c>
+      <c r="T421" t="n">
+        <v>1.72442036239E12</v>
       </c>
     </row>
     <row r="422" spans="1:20">
@@ -22380,11 +22794,11 @@
       <c r="H423" t="s">
         <v>2007</v>
       </c>
-      <c r="R423">
-        <v>3.350000000000024</v>
-      </c>
-      <c r="T423">
-        <v>1724334078862</v>
+      <c r="R423" t="n">
+        <v>2.850000000000024</v>
+      </c>
+      <c r="T423" t="n">
+        <v>1.724420368257E12</v>
       </c>
     </row>
     <row r="424" spans="1:20">
@@ -22412,11 +22826,11 @@
       <c r="H424" t="s">
         <v>2343</v>
       </c>
-      <c r="R424">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T424">
-        <v>1724334082101</v>
+      <c r="R424" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="T424" t="n">
+        <v>1.724420373731E12</v>
       </c>
     </row>
     <row r="425" spans="1:20">
@@ -22444,11 +22858,11 @@
       <c r="H425" t="s">
         <v>2344</v>
       </c>
-      <c r="R425">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T425">
-        <v>1724334091350</v>
+      <c r="R425" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T425" t="n">
+        <v>1.724420378674E12</v>
       </c>
     </row>
     <row r="426" spans="1:20">
@@ -22508,11 +22922,11 @@
       <c r="H427" t="s">
         <v>2346</v>
       </c>
-      <c r="R427">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T427">
-        <v>1724334098920</v>
+      <c r="R427" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T427" t="n">
+        <v>1.724420383221E12</v>
       </c>
     </row>
     <row r="428" spans="1:20">
@@ -22604,11 +23018,11 @@
       <c r="H430" t="s">
         <v>2349</v>
       </c>
-      <c r="R430">
-        <v>3.649999999999998</v>
-      </c>
-      <c r="T430">
-        <v>1724334106453</v>
+      <c r="R430" t="n">
+        <v>3.149999999999998</v>
+      </c>
+      <c r="T430" t="n">
+        <v>1.724420386749E12</v>
       </c>
     </row>
     <row r="431" spans="1:20">
@@ -22636,11 +23050,11 @@
       <c r="H431" t="s">
         <v>2350</v>
       </c>
-      <c r="R431">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T431">
-        <v>1724334111353</v>
+      <c r="R431" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T431" t="n">
+        <v>1.724420392027E12</v>
       </c>
     </row>
     <row r="432" spans="1:20">
@@ -22668,11 +23082,11 @@
       <c r="H432" t="s">
         <v>2351</v>
       </c>
-      <c r="R432">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T432">
-        <v>1724334115377</v>
+      <c r="R432" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="T432" t="n">
+        <v>1.724420396563E12</v>
       </c>
     </row>
     <row r="433" spans="1:20">
@@ -22828,11 +23242,11 @@
       <c r="H437" t="s">
         <v>2356</v>
       </c>
-      <c r="R437">
-        <v>3.350000000000001</v>
-      </c>
-      <c r="T437">
-        <v>1724334183159</v>
+      <c r="R437" t="n">
+        <v>2.850000000000001</v>
+      </c>
+      <c r="T437" t="n">
+        <v>1.724420399935E12</v>
       </c>
     </row>
     <row r="438" spans="1:20">
@@ -22860,11 +23274,11 @@
       <c r="H438" t="s">
         <v>2357</v>
       </c>
-      <c r="R438">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T438">
-        <v>1724334185339</v>
+      <c r="R438" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T438" t="n">
+        <v>1.724420401771E12</v>
       </c>
     </row>
     <row r="439" spans="1:20">
@@ -22892,11 +23306,11 @@
       <c r="H439" t="s">
         <v>2358</v>
       </c>
-      <c r="R439">
-        <v>3.850000000000013</v>
-      </c>
-      <c r="T439">
-        <v>1724334191203</v>
+      <c r="R439" t="n">
+        <v>3.350000000000013</v>
+      </c>
+      <c r="T439" t="n">
+        <v>1.724420408806E12</v>
       </c>
     </row>
     <row r="440" spans="1:20">
@@ -23020,11 +23434,11 @@
       <c r="H443" t="s">
         <v>2358</v>
       </c>
-      <c r="R443">
-        <v>3.300000000000003</v>
-      </c>
-      <c r="T443">
-        <v>1724334204397</v>
+      <c r="R443" t="n">
+        <v>2.800000000000003</v>
+      </c>
+      <c r="T443" t="n">
+        <v>1.724420412414E12</v>
       </c>
     </row>
     <row r="444" spans="1:20">
@@ -23084,11 +23498,11 @@
       <c r="H445" t="s">
         <v>2361</v>
       </c>
-      <c r="R445">
-        <v>3.600000000000001</v>
-      </c>
-      <c r="T445">
-        <v>1724334231561</v>
+      <c r="R445" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="T445" t="n">
+        <v>1.724420414234E12</v>
       </c>
     </row>
     <row r="446" spans="1:20">
@@ -23244,11 +23658,11 @@
       <c r="H450" t="s">
         <v>2366</v>
       </c>
-      <c r="R450">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="T450">
-        <v>1724334322627</v>
+      <c r="R450" t="n">
+        <v>3.299999999999999</v>
+      </c>
+      <c r="T450" t="n">
+        <v>1.724420425273E12</v>
       </c>
     </row>
     <row r="451" spans="1:20">
@@ -23628,11 +24042,11 @@
       <c r="H462" t="s">
         <v>2378</v>
       </c>
-      <c r="R462">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T462">
-        <v>1724334421283</v>
+      <c r="R462" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T462" t="n">
+        <v>1.724420426986E12</v>
       </c>
     </row>
     <row r="463" spans="1:20">
@@ -23661,10 +24075,10 @@
         <v>2379</v>
       </c>
       <c r="R463" t="n">
-        <v>6.870000000000001</v>
+        <v>4.370000000000001</v>
       </c>
       <c r="T463" t="n">
-        <v>1.724404988514E12</v>
+        <v>1.724420429905E12</v>
       </c>
     </row>
     <row r="464" spans="1:20">
@@ -23724,11 +24138,11 @@
       <c r="H465" t="s">
         <v>2381</v>
       </c>
-      <c r="R465">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T465">
-        <v>1724334449256</v>
+      <c r="R465" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T465" t="n">
+        <v>1.724420436142E12</v>
       </c>
     </row>
     <row r="466" spans="1:20">
@@ -23756,11 +24170,11 @@
       <c r="H466" t="s">
         <v>2382</v>
       </c>
-      <c r="R466">
-        <v>3.850000000000001</v>
-      </c>
-      <c r="T466">
-        <v>1724334452045</v>
+      <c r="R466" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="T466" t="n">
+        <v>1.7244204441E12</v>
       </c>
     </row>
     <row r="467" spans="1:20">
@@ -23853,10 +24267,10 @@
         <v>2385</v>
       </c>
       <c r="R469" t="n">
-        <v>6.730000000000002</v>
+        <v>4.230000000000002</v>
       </c>
       <c r="T469" t="n">
-        <v>1.724404990265E12</v>
+        <v>1.724420456591E12</v>
       </c>
     </row>
     <row r="470" spans="1:20">
@@ -23981,10 +24395,10 @@
         <v>2117</v>
       </c>
       <c r="R473" t="n">
-        <v>6.850000000000001</v>
+        <v>4.350000000000001</v>
       </c>
       <c r="T473" t="n">
-        <v>1.724404992193E12</v>
+        <v>1.724420460609E12</v>
       </c>
     </row>
     <row r="474" spans="1:20">
@@ -24045,10 +24459,10 @@
         <v>2390</v>
       </c>
       <c r="R475" t="n">
-        <v>6.660000000000002</v>
+        <v>4.160000000000002</v>
       </c>
       <c r="T475" t="n">
-        <v>1.72440499366E12</v>
+        <v>1.724420466643E12</v>
       </c>
     </row>
     <row r="476" spans="1:20">
@@ -24108,11 +24522,11 @@
       <c r="H477" t="s">
         <v>2392</v>
       </c>
-      <c r="R477">
-        <v>3.350000000000068</v>
-      </c>
-      <c r="T477">
-        <v>1724334499065</v>
+      <c r="R477" t="n">
+        <v>2.850000000000068</v>
+      </c>
+      <c r="T477" t="n">
+        <v>1.724420474986E12</v>
       </c>
     </row>
     <row r="478" spans="1:20">
@@ -24141,10 +24555,10 @@
         <v>2393</v>
       </c>
       <c r="R478" t="n">
-        <v>6.710000000000001</v>
+        <v>4.210000000000001</v>
       </c>
       <c r="T478" t="n">
-        <v>1.724404995416E12</v>
+        <v>1.72442047842E12</v>
       </c>
     </row>
     <row r="479" spans="1:20">
@@ -24205,10 +24619,10 @@
         <v>1193</v>
       </c>
       <c r="R480" t="n">
-        <v>6.5600000000000005</v>
+        <v>4.0600000000000005</v>
       </c>
       <c r="T480" t="n">
-        <v>1.724403906322E12</v>
+        <v>1.724420480205E12</v>
       </c>
     </row>
     <row r="481" spans="1:20">
@@ -24237,10 +24651,10 @@
         <v>2395</v>
       </c>
       <c r="R481" t="n">
-        <v>6.690000000000001</v>
+        <v>4.190000000000001</v>
       </c>
       <c r="T481" t="n">
-        <v>1.724404996876E12</v>
+        <v>1.724420482621E12</v>
       </c>
     </row>
     <row r="482" spans="1:20">
@@ -24268,11 +24682,11 @@
       <c r="H482" t="s">
         <v>2396</v>
       </c>
-      <c r="R482">
-        <v>3.050000000000018</v>
-      </c>
-      <c r="T482">
-        <v>1724334530695</v>
+      <c r="R482" t="n">
+        <v>2.550000000000018</v>
+      </c>
+      <c r="T482" t="n">
+        <v>1.724420486301E12</v>
       </c>
     </row>
     <row r="483" spans="1:20">
@@ -24332,11 +24746,11 @@
       <c r="H484" t="s">
         <v>2398</v>
       </c>
-      <c r="R484">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="T484">
-        <v>1724334538845</v>
+      <c r="R484" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="T484" t="n">
+        <v>1.724420490238E12</v>
       </c>
     </row>
     <row r="485" spans="1:20">
@@ -24396,11 +24810,11 @@
       <c r="H486" t="s">
         <v>2400</v>
       </c>
-      <c r="R486">
-        <v>3.850000000000005</v>
-      </c>
-      <c r="T486">
-        <v>1724334547129</v>
+      <c r="R486" t="n">
+        <v>3.350000000000005</v>
+      </c>
+      <c r="T486" t="n">
+        <v>1.724420494082E12</v>
       </c>
     </row>
     <row r="487" spans="1:20">
@@ -24548,11 +24962,11 @@
       <c r="D493" t="s">
         <v>4</v>
       </c>
-      <c r="R493">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T493">
-        <v>1724334573877</v>
+      <c r="R493" t="n">
+        <v>4.200000000000001</v>
+      </c>
+      <c r="T493" t="n">
+        <v>1.724420497456E12</v>
       </c>
     </row>
     <row r="494" spans="1:20">
@@ -24608,11 +25022,11 @@
       <c r="D496" t="s">
         <v>5</v>
       </c>
-      <c r="R496">
-        <v>3.200000000000001</v>
-      </c>
-      <c r="T496">
-        <v>1724334582803</v>
+      <c r="R496" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="T496" t="n">
+        <v>1.724420502242E12</v>
       </c>
     </row>
     <row r="497" spans="1:20">
@@ -24849,10 +25263,10 @@
         <v>5</v>
       </c>
       <c r="R508" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T508" t="n">
-        <v>1.724403917988E12</v>
+        <v>1.724420503915E12</v>
       </c>
     </row>
     <row r="509" spans="1:20">
@@ -24889,10 +25303,10 @@
         <v>5</v>
       </c>
       <c r="R510" t="n">
-        <v>6.700000000000003</v>
+        <v>4.200000000000003</v>
       </c>
       <c r="T510" t="n">
-        <v>1.724405002331E12</v>
+        <v>1.724420508984E12</v>
       </c>
     </row>
     <row r="511" spans="1:20">
@@ -24948,11 +25362,11 @@
       <c r="D513" t="s">
         <v>5</v>
       </c>
-      <c r="R513">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T513">
-        <v>1724318046511</v>
+      <c r="R513" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T513" t="n">
+        <v>1.724420510298E12</v>
       </c>
     </row>
     <row r="514" spans="1:20">
@@ -25029,10 +25443,10 @@
         <v>5</v>
       </c>
       <c r="R517" t="n">
-        <v>5.16</v>
+        <v>4.16</v>
       </c>
       <c r="T517" t="n">
-        <v>1.724403924709E12</v>
+        <v>1.724420512366E12</v>
       </c>
     </row>
     <row r="518" spans="1:20">
@@ -25048,11 +25462,11 @@
       <c r="D518" t="s">
         <v>4</v>
       </c>
-      <c r="R518">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T518">
-        <v>1724318065302</v>
+      <c r="R518" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T518" t="n">
+        <v>1.724420514212E12</v>
       </c>
     </row>
     <row r="519" spans="1:20">
@@ -25288,11 +25702,11 @@
       <c r="D530" t="s">
         <v>5</v>
       </c>
-      <c r="R530">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T530">
-        <v>1724318234894</v>
+      <c r="R530" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T530" t="n">
+        <v>1.724420515336E12</v>
       </c>
     </row>
     <row r="531" spans="1:20">
@@ -25309,10 +25723,10 @@
         <v>4</v>
       </c>
       <c r="R531" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T531" t="n">
-        <v>1.724403929297E12</v>
+        <v>1.724420516615E12</v>
       </c>
     </row>
     <row r="532" spans="1:20">
@@ -25348,11 +25762,11 @@
       <c r="D533" t="s">
         <v>5</v>
       </c>
-      <c r="R533">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T533">
-        <v>1724318245907</v>
+      <c r="R533" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T533" t="n">
+        <v>1.724420519114E12</v>
       </c>
     </row>
     <row r="534" spans="1:20">
@@ -25428,11 +25842,11 @@
       <c r="D537" t="s">
         <v>5</v>
       </c>
-      <c r="R537">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T537">
-        <v>1724318260412</v>
+      <c r="R537" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T537" t="n">
+        <v>1.724420522031E12</v>
       </c>
     </row>
     <row r="538" spans="1:20">
@@ -25829,10 +26243,10 @@
         <v>4</v>
       </c>
       <c r="R557" t="n">
-        <v>4.66</v>
+        <v>4.16</v>
       </c>
       <c r="T557" t="n">
-        <v>1.724403932155E12</v>
+        <v>1.72442052491E12</v>
       </c>
     </row>
     <row r="558" spans="1:20">
@@ -25949,10 +26363,10 @@
         <v>4</v>
       </c>
       <c r="R563" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T563" t="n">
-        <v>1.724403935553E12</v>
+        <v>1.724420529307E12</v>
       </c>
     </row>
     <row r="564" spans="1:20">
@@ -26069,10 +26483,10 @@
         <v>5</v>
       </c>
       <c r="R569" t="n">
-        <v>6.7200000000000015</v>
+        <v>4.2200000000000015</v>
       </c>
       <c r="T569" t="n">
-        <v>1.724404541747E12</v>
+        <v>1.724420531123E12</v>
       </c>
     </row>
     <row r="570" spans="1:20">
@@ -26109,10 +26523,10 @@
         <v>5</v>
       </c>
       <c r="R571" t="n">
-        <v>5.16</v>
+        <v>4.16</v>
       </c>
       <c r="T571" t="n">
-        <v>1.724403942488E12</v>
+        <v>1.724420534504E12</v>
       </c>
     </row>
     <row r="572" spans="1:20">
@@ -26349,10 +26763,10 @@
         <v>4</v>
       </c>
       <c r="R583" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T583" t="n">
-        <v>1.724403944877E12</v>
+        <v>1.724420535532E12</v>
       </c>
     </row>
     <row r="584" spans="1:20">
@@ -26469,10 +26883,10 @@
         <v>5</v>
       </c>
       <c r="R589" t="n">
-        <v>6.730000000000002</v>
+        <v>4.230000000000002</v>
       </c>
       <c r="T589" t="n">
-        <v>1.724405003804E12</v>
+        <v>1.724420537189E12</v>
       </c>
     </row>
     <row r="590" spans="1:20">
@@ -26589,10 +27003,10 @@
         <v>5</v>
       </c>
       <c r="R595" t="n">
-        <v>4.66</v>
+        <v>3.66</v>
       </c>
       <c r="T595" t="n">
-        <v>1.724403952339E12</v>
+        <v>1.724420539929E12</v>
       </c>
     </row>
     <row r="596" spans="1:20">
@@ -26708,11 +27122,11 @@
       <c r="D601" t="s">
         <v>5</v>
       </c>
-      <c r="R601">
-        <v>3.450000000000001</v>
-      </c>
-      <c r="T601">
-        <v>1724318502684</v>
+      <c r="R601" t="n">
+        <v>2.950000000000001</v>
+      </c>
+      <c r="T601" t="n">
+        <v>1.724420546123E12</v>
       </c>
     </row>
     <row r="602" spans="1:20">
